--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,335 +437,536 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3212739963772344</v>
       </c>
+      <c r="B2" t="n">
+        <v>-0.3260277978606521</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.2128808295607601</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.1974451442080811</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.1522493774985754</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.1305808780685744</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.05888648753883746</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.08640099787666576</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1398980287104931</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.1271961316647943</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.4454694716655577</v>
       </c>
+      <c r="B7" t="n">
+        <v>-0.462073158579521</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.3034768971427516</v>
       </c>
+      <c r="B8" t="n">
+        <v>-0.2715765964713239</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.4101598582772835</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.4213748423931841</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.3112044355194573</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.3436617211573456</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.2093357274128496</v>
       </c>
+      <c r="B11" t="n">
+        <v>-0.2483358651284864</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.1098701227570322</v>
       </c>
+      <c r="B12" t="n">
+        <v>-0.1094783026168914</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.003463128644148341</v>
       </c>
+      <c r="B13" t="n">
+        <v>-0.01157867802692844</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>-0.004988279649559266</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.011889263515418</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.1346304142550902</v>
       </c>
+      <c r="B15" t="n">
+        <v>-0.05801708454880922</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.1946543047594123</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.2861528088080422</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.5361399697844117</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.5627694800712454</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.07686059177154655</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.0509146135411717</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.3878380745545058</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.3801368142500762</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.175159032581152</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.2357545280472422</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.3657810210011677</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.4612034855031213</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.3068546660630183</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.3407779426971171</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.1051463010812712</v>
       </c>
+      <c r="B23" t="n">
+        <v>-0.09213597395040349</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4.412480150295193</v>
       </c>
+      <c r="B24" t="n">
+        <v>4.536142022674653</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.5718574215482422</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.5264117600795265</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.343724671523465</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.3854558869822713</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.3214782735169204</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.3323569593629884</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1.091561350014913</v>
       </c>
+      <c r="B28" t="n">
+        <v>1.099255200858447</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6.274466777397112</v>
       </c>
+      <c r="B29" t="n">
+        <v>5.868063101441583</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1.01500490280038</v>
       </c>
+      <c r="B30" t="n">
+        <v>1.019959663470545</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.09797031706436504</v>
       </c>
+      <c r="B31" t="n">
+        <v>-0.1327971309754888</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.8197181365212921</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.8129124910470404</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.9266127304940774</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.9408763627916946</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.5760389076467637</v>
       </c>
+      <c r="B34" t="n">
+        <v>-0.6237788977627812</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.842250162148514</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.8227024093626152</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.8025676706029488</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.7852006021171384</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.7919951671094189</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.7616093557509258</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.7836800664035825</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.7364618531331382</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.5861641145943091</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.5854033188892174</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.7549809120686657</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.7554000423666646</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.5828601459212053</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.5625794058477487</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.7529021482474625</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.7176215966072691</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>0.7504465520349173</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.7239792128051638</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0.6827308104255141</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.6829484627113083</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0.6807129122400349</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.6771656920013283</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-1.245763269047405</v>
       </c>
+      <c r="B46" t="n">
+        <v>-1.25897553861914</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.9621471412418766</v>
       </c>
+      <c r="B47" t="n">
+        <v>-0.9738671067461906</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.8529273727102373</v>
       </c>
+      <c r="B48" t="n">
+        <v>-0.8666450125273316</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.625756617875225</v>
       </c>
+      <c r="B49" t="n">
+        <v>-0.6384770605229276</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.04836745703310415</v>
       </c>
+      <c r="B50" t="n">
+        <v>-0.04719667975478657</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.8436953902240095</v>
       </c>
+      <c r="B51" t="n">
+        <v>-0.8594604294715984</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.8436953902240095</v>
       </c>
+      <c r="B52" t="n">
+        <v>-0.8594604294715984</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-1.05950699879933</v>
       </c>
+      <c r="B53" t="n">
+        <v>-1.083426097556684</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.1868921411768124</v>
       </c>
+      <c r="B54" t="n">
+        <v>-0.1872636393394086</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-0.9848389556038206</v>
       </c>
+      <c r="B55" t="n">
+        <v>-0.9945094100735348</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.8986093529239618</v>
       </c>
+      <c r="B56" t="n">
+        <v>-0.887447096790594</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.9838841944156161</v>
       </c>
+      <c r="B57" t="n">
+        <v>-0.9465834676324881</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-1.198553592684402</v>
       </c>
+      <c r="B58" t="n">
+        <v>-1.150642723629216</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.8871941031562842</v>
       </c>
+      <c r="B59" t="n">
+        <v>-0.8595943936850527</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.5490228879802185</v>
       </c>
+      <c r="B60" t="n">
+        <v>-0.5178421633847863</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>0.3641879669695625</v>
       </c>
+      <c r="B61" t="n">
+        <v>0.3694990498946619</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-1.281473782537221</v>
       </c>
+      <c r="B62" t="n">
+        <v>-1.228845839492119</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.7955077467720582</v>
       </c>
+      <c r="B63" t="n">
+        <v>-0.7647483462113032</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.9059538388620895</v>
       </c>
+      <c r="B64" t="n">
+        <v>-0.9085383082165912</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.1683097252499538</v>
       </c>
+      <c r="B65" t="n">
+        <v>-0.1307796336478854</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.8688143494053152</v>
       </c>
+      <c r="B66" t="n">
+        <v>-0.8143641485938967</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.887765658163096</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.7944889528103205</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-0.3260277978606521</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.3113347074289435</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>0.1974451442080811</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.2065752829286065</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>0.1305808780685744</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.1421566416881549</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.08640099787666576</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.07694397160759842</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.1271961316647943</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.1429155484052026</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>-0.462073158579521</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.4527683761063582</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>-0.2715765964713239</v>
       </c>
+      <c r="C8" t="n">
+        <v>-0.2598008161228147</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.4213748423931841</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.411365857694458</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.3436617211573456</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.3583351033494231</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>-0.2483358651284864</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.239615135361616</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>-0.1094783026168914</v>
       </c>
+      <c r="C12" t="n">
+        <v>-0.0872659943667467</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +572,9 @@
       <c r="B13" t="n">
         <v>-0.01157867802692844</v>
       </c>
+      <c r="C13" t="n">
+        <v>-0.01163689161266203</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +583,9 @@
       <c r="B14" t="n">
         <v>0.011889263515418</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.05201512159417407</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +594,9 @@
       <c r="B15" t="n">
         <v>-0.05801708454880922</v>
       </c>
+      <c r="C15" t="n">
+        <v>-0.01353990189783741</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +605,9 @@
       <c r="B16" t="n">
         <v>0.2861528088080422</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.3474641149721687</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +616,9 @@
       <c r="B17" t="n">
         <v>0.5627694800712454</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5981113559656567</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +627,9 @@
       <c r="B18" t="n">
         <v>0.0509146135411717</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.03848846692182706</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +638,9 @@
       <c r="B19" t="n">
         <v>0.3801368142500762</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.3958525534261808</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +649,9 @@
       <c r="B20" t="n">
         <v>0.2357545280472422</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.2938656074185948</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +660,9 @@
       <c r="B21" t="n">
         <v>0.4612034855031213</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5182927104842734</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +671,9 @@
       <c r="B22" t="n">
         <v>0.3407779426971171</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.3774294530484647</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +682,9 @@
       <c r="B23" t="n">
         <v>-0.09213597395040349</v>
       </c>
+      <c r="C23" t="n">
+        <v>-0.06047098978932161</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +693,9 @@
       <c r="B24" t="n">
         <v>4.536142022674653</v>
       </c>
+      <c r="C24" t="n">
+        <v>4.575953720226746</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +704,9 @@
       <c r="B25" t="n">
         <v>0.5264117600795265</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.4916963026454615</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +715,9 @@
       <c r="B26" t="n">
         <v>0.3854558869822713</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.3637634469251554</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +726,9 @@
       <c r="B27" t="n">
         <v>0.3323569593629884</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.3013268639216591</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +737,9 @@
       <c r="B28" t="n">
         <v>1.099255200858447</v>
       </c>
+      <c r="C28" t="n">
+        <v>1.068469446076402</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +748,9 @@
       <c r="B29" t="n">
         <v>5.868063101441583</v>
       </c>
+      <c r="C29" t="n">
+        <v>5.453715541498916</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +759,9 @@
       <c r="B30" t="n">
         <v>1.019959663470545</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.9684969965365088</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +770,9 @@
       <c r="B31" t="n">
         <v>-0.1327971309754888</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.19829785748661</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +781,9 @@
       <c r="B32" t="n">
         <v>0.8129124910470404</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.7771228137702961</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +792,9 @@
       <c r="B33" t="n">
         <v>0.9408763627916946</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.9117538597084132</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +803,9 @@
       <c r="B34" t="n">
         <v>-0.6237788977627812</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.6548704237507494</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +814,9 @@
       <c r="B35" t="n">
         <v>0.8227024093626152</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.813604258629973</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +825,9 @@
       <c r="B36" t="n">
         <v>0.7852006021171384</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.7675934109401431</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +836,9 @@
       <c r="B37" t="n">
         <v>0.7616093557509258</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.7417926700373553</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +847,9 @@
       <c r="B38" t="n">
         <v>0.7364618531331382</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.7173287459599338</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +858,9 @@
       <c r="B39" t="n">
         <v>0.5854033188892174</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5810806496389941</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +869,9 @@
       <c r="B40" t="n">
         <v>0.7554000423666646</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.7522695508355323</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +880,9 @@
       <c r="B41" t="n">
         <v>0.5625794058477487</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5544369560187997</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +891,9 @@
       <c r="B42" t="n">
         <v>0.7176215966072691</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.690163836811005</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +902,9 @@
       <c r="B43" t="n">
         <v>0.7239792128051638</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.7090153754814805</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +913,9 @@
       <c r="B44" t="n">
         <v>0.6829484627113083</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.6744744297863949</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +924,9 @@
       <c r="B45" t="n">
         <v>0.6771656920013283</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6581781264025099</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +935,9 @@
       <c r="B46" t="n">
         <v>-1.25897553861914</v>
       </c>
+      <c r="C46" t="n">
+        <v>-1.263522051325703</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +946,9 @@
       <c r="B47" t="n">
         <v>-0.9738671067461906</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.9793198897550003</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +957,9 @@
       <c r="B48" t="n">
         <v>-0.8666450125273316</v>
       </c>
+      <c r="C48" t="n">
+        <v>-0.8733249578619043</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +968,9 @@
       <c r="B49" t="n">
         <v>-0.6384770605229276</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.6423388394497972</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +979,9 @@
       <c r="B50" t="n">
         <v>-0.04719667975478657</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.04870843203017888</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +990,9 @@
       <c r="B51" t="n">
         <v>-0.8594604294715984</v>
       </c>
+      <c r="C51" t="n">
+        <v>-0.8651112230871479</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1001,9 @@
       <c r="B52" t="n">
         <v>-0.8594604294715984</v>
       </c>
+      <c r="C52" t="n">
+        <v>-0.8651112230871479</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1012,9 @@
       <c r="B53" t="n">
         <v>-1.083426097556684</v>
       </c>
+      <c r="C53" t="n">
+        <v>-1.097167705592106</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1023,9 @@
       <c r="B54" t="n">
         <v>-0.1872636393394086</v>
       </c>
+      <c r="C54" t="n">
+        <v>-0.1869482209713249</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1034,9 @@
       <c r="B55" t="n">
         <v>-0.9945094100735348</v>
       </c>
+      <c r="C55" t="n">
+        <v>-0.9991769555261637</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1045,9 @@
       <c r="B56" t="n">
         <v>-0.887447096790594</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.8841450427105935</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1056,9 @@
       <c r="B57" t="n">
         <v>-0.9465834676324881</v>
       </c>
+      <c r="C57" t="n">
+        <v>-0.9339108452677687</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1067,9 @@
       <c r="B58" t="n">
         <v>-1.150642723629216</v>
       </c>
+      <c r="C58" t="n">
+        <v>-1.128012501669319</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1078,9 @@
       <c r="B59" t="n">
         <v>-0.8595943936850527</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.8479030779331405</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1089,9 @@
       <c r="B60" t="n">
         <v>-0.5178421633847863</v>
       </c>
+      <c r="C60" t="n">
+        <v>-0.4977996238259934</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1100,9 @@
       <c r="B61" t="n">
         <v>0.3694990498946619</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.3714301207007228</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1111,9 @@
       <c r="B62" t="n">
         <v>-1.228845839492119</v>
       </c>
+      <c r="C62" t="n">
+        <v>-1.209516136962105</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1122,9 @@
       <c r="B63" t="n">
         <v>-0.7647483462113032</v>
       </c>
+      <c r="C63" t="n">
+        <v>-0.7390840125550109</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1133,9 @@
       <c r="B64" t="n">
         <v>-0.9085383082165912</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.9025893591691596</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1144,9 @@
       <c r="B65" t="n">
         <v>-0.1307796336478854</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.1116670023084185</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1155,9 @@
       <c r="B66" t="n">
         <v>-0.8143641485938967</v>
       </c>
+      <c r="C66" t="n">
+        <v>-0.7907523108579071</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -967,6 +1165,9 @@
       </c>
       <c r="B67" t="n">
         <v>-0.7944889528103205</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.7623398618387645</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -449,10 +449,10 @@
         <v>-0.3212739963772344</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3260277978606521</v>
+        <v>-0.3033442088659019</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3113347074289435</v>
+        <v>-0.285613861520414</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>0.2128808295607601</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1974451442080811</v>
+        <v>0.2207520964114534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2065752829286065</v>
+        <v>0.2309543543290238</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>0.1522493774985754</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1305808780685744</v>
+        <v>0.1631585845063193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1421566416881549</v>
+        <v>0.1757923210546981</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>-0.05888648753883746</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08640099787666576</v>
+        <v>-0.05055669449508423</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07694397160759842</v>
+        <v>-0.04104158479270387</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.1398980287104931</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1271961316647943</v>
+        <v>0.1569216718066155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1429155484052026</v>
+        <v>0.1728512757315558</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>-0.4454694716655577</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.462073158579521</v>
+        <v>-0.4385607354708777</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4527683761063582</v>
+        <v>-0.4281640872318672</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>-0.3034768971427516</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2715765964713239</v>
+        <v>-0.2815207651310452</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2598008161228147</v>
+        <v>-0.2597637584727662</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>-0.4101598582772835</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4213748423931841</v>
+        <v>-0.4053244950965031</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.411365857694458</v>
+        <v>-0.3948693068931027</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>0.3112044355194573</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3436617211573456</v>
+        <v>0.3291626202766235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3583351033494231</v>
+        <v>0.3465381306558325</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>-0.2093357274128496</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2483358651284864</v>
+        <v>-0.2026559651893725</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.239615135361616</v>
+        <v>-0.1947378753737388</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>-0.1098701227570322</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1094783026168914</v>
+        <v>-0.08357465415811693</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0872659943667467</v>
+        <v>-0.05811555757293763</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>0.003463128644148341</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01157867802692844</v>
+        <v>0.003268724058882566</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01163689161266203</v>
+        <v>0.003907374428422664</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>-0.004988279649559266</v>
       </c>
       <c r="B14" t="n">
-        <v>0.011889263515418</v>
+        <v>0.03850792956741418</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05201512159417407</v>
+        <v>0.07863851839863101</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +592,10 @@
         <v>-0.1346304142550902</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05801708454880922</v>
+        <v>-0.07913911116193134</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01353990189783741</v>
+        <v>-0.02988053198258833</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +603,10 @@
         <v>0.1946543047594123</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2861528088080422</v>
+        <v>0.2662829113388356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3474641149721687</v>
+        <v>0.3323814523503869</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +614,10 @@
         <v>0.5361399697844117</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5627694800712454</v>
+        <v>0.5778272802240982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5981113559656567</v>
+        <v>0.6103798634913413</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +625,10 @@
         <v>0.07686059177154655</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0509146135411717</v>
+        <v>0.05827459139698862</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03848846692182706</v>
+        <v>0.04020067918106943</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +636,10 @@
         <v>0.3878380745545058</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3801368142500762</v>
+        <v>0.3999590293933805</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3958525534261808</v>
+        <v>0.4091454085077181</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +647,10 @@
         <v>0.175159032581152</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2357545280472422</v>
+        <v>0.2406752051786359</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2938656074185948</v>
+        <v>0.2999452911663952</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +658,10 @@
         <v>0.3657810210011677</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4612034855031213</v>
+        <v>0.4417628114591178</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5182927104842734</v>
+        <v>0.5085908455124964</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         <v>0.3068546660630183</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3407779426971171</v>
+        <v>0.3494371019363526</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3774294530484647</v>
+        <v>0.3861123216915772</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +680,10 @@
         <v>-0.1051463010812712</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09213597395040349</v>
+        <v>-0.06659496235699991</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06047098978932161</v>
+        <v>-0.03456165225398219</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +691,10 @@
         <v>4.412480150295193</v>
       </c>
       <c r="B24" t="n">
-        <v>4.536142022674653</v>
+        <v>4.541078537018452</v>
       </c>
       <c r="C24" t="n">
-        <v>4.575953720226746</v>
+        <v>4.566046494845523</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +702,10 @@
         <v>0.5718574215482422</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5264117600795265</v>
+        <v>0.5449400901430083</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4916963026454615</v>
+        <v>0.5104499532924316</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +713,10 @@
         <v>0.343724671523465</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3854558869822713</v>
+        <v>0.4002625929779248</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3637634469251554</v>
+        <v>0.3821785279846542</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +724,10 @@
         <v>0.3214782735169204</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3323569593629884</v>
+        <v>0.3312475927322071</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3013268639216591</v>
+        <v>0.3022487667381129</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +735,10 @@
         <v>1.091561350014913</v>
       </c>
       <c r="B28" t="n">
-        <v>1.099255200858447</v>
+        <v>1.103864868107481</v>
       </c>
       <c r="C28" t="n">
-        <v>1.068469446076402</v>
+        <v>1.073524239157886</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +746,10 @@
         <v>6.274466777397112</v>
       </c>
       <c r="B29" t="n">
-        <v>5.868063101441583</v>
+        <v>5.837247815210643</v>
       </c>
       <c r="C29" t="n">
-        <v>5.453715541498916</v>
+        <v>5.385828885282493</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +757,10 @@
         <v>1.01500490280038</v>
       </c>
       <c r="B30" t="n">
-        <v>1.019959663470545</v>
+        <v>1.015620096334174</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9684969965365088</v>
+        <v>0.9650930574251766</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +768,10 @@
         <v>-0.09797031706436504</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1327971309754888</v>
+        <v>-0.128165917865441</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.19829785748661</v>
+        <v>-0.1933917469891227</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +779,10 @@
         <v>0.8197181365212921</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8129124910470404</v>
+        <v>0.8107004350220448</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7771228137702961</v>
+        <v>0.7727241770431046</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +790,10 @@
         <v>0.9266127304940774</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9408763627916946</v>
+        <v>0.9162711559932648</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9117538597084132</v>
+        <v>0.8903333690452184</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +801,10 @@
         <v>-0.5760389076467637</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6237788977627812</v>
+        <v>-0.5988286035607752</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6548704237507494</v>
+        <v>-0.6291079321617313</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>0.842250162148514</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8227024093626152</v>
+        <v>0.8319861661415534</v>
       </c>
       <c r="C35" t="n">
-        <v>0.813604258629973</v>
+        <v>0.8220208498997641</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +823,10 @@
         <v>0.8025676706029488</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7852006021171384</v>
+        <v>0.7854255156702361</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7675934109401431</v>
+        <v>0.7692466651518581</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +834,10 @@
         <v>0.7919951671094189</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7616093557509258</v>
+        <v>0.7685533230710442</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7417926700373553</v>
+        <v>0.7478811412401991</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +845,10 @@
         <v>0.7836800664035825</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7364618531331382</v>
+        <v>0.7594994496718845</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7173287459599338</v>
+        <v>0.7366819587082833</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +856,10 @@
         <v>0.5861641145943091</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5854033188892174</v>
+        <v>0.5831427592561873</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5810806496389941</v>
+        <v>0.5807328869148602</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +867,10 @@
         <v>0.7549809120686657</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7554000423666646</v>
+        <v>0.7542173216697582</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7522695508355323</v>
+        <v>0.7527880614441489</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +878,10 @@
         <v>0.5828601459212053</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5625794058477487</v>
+        <v>0.5740814366689742</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5544369560187997</v>
+        <v>0.5663686018189583</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +889,10 @@
         <v>0.7529021482474625</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7176215966072691</v>
+        <v>0.7219259599136361</v>
       </c>
       <c r="C42" t="n">
-        <v>0.690163836811005</v>
+        <v>0.6924706582687463</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +900,10 @@
         <v>0.7504465520349173</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7239792128051638</v>
+        <v>0.733890551282992</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7090153754814805</v>
+        <v>0.7182193194617948</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +911,10 @@
         <v>0.6827308104255141</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6829484627113083</v>
+        <v>0.6745894397723444</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6744744297863949</v>
+        <v>0.6674199276345331</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +922,10 @@
         <v>0.6807129122400349</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6771656920013283</v>
+        <v>0.6604177017042322</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6581781264025099</v>
+        <v>0.643203384512019</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +933,10 @@
         <v>-1.245763269047405</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.25897553861914</v>
+        <v>-1.251814518125235</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.263522051325703</v>
+        <v>-1.256094731000866</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +944,10 @@
         <v>-0.9621471412418766</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9738671067461906</v>
+        <v>-0.9693432235046766</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9793198897550003</v>
+        <v>-0.9744620795456761</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +955,10 @@
         <v>-0.8529273727102373</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8666450125273316</v>
+        <v>-0.862326360188199</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8733249578619043</v>
+        <v>-0.8685574750665104</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +966,10 @@
         <v>-0.625756617875225</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6384770605229276</v>
+        <v>-0.6314247653529417</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6423388394497972</v>
+        <v>-0.6349189543844442</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +977,10 @@
         <v>-0.04836745703310415</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04719667975478657</v>
+        <v>-0.04861888039615835</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.04870843203017888</v>
+        <v>-0.0490296225981823</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +988,10 @@
         <v>-0.8436953902240095</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8594604294715984</v>
+        <v>-0.8510358802390722</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8651112230871479</v>
+        <v>-0.8550403088152924</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +999,10 @@
         <v>-0.8436953902240095</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8594604294715984</v>
+        <v>-0.8510358802390722</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8651112230871479</v>
+        <v>-0.8550403088152924</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1010,10 @@
         <v>-1.05950699879933</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.083426097556684</v>
+        <v>-1.078588183733273</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.097167705592106</v>
+        <v>-1.093161550357953</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1021,10 @@
         <v>-0.1868921411768124</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1872636393394086</v>
+        <v>-0.1865304266581551</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1869482209713249</v>
+        <v>-0.1850210583711067</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1032,10 @@
         <v>-0.9848389556038206</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9945094100735348</v>
+        <v>-0.9896890869033197</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9991769555261637</v>
+        <v>-0.9934037464819662</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1043,10 @@
         <v>-0.8986093529239618</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.887447096790594</v>
+        <v>-0.8915757557210402</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8841450427105935</v>
+        <v>-0.8858407144749817</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1054,10 @@
         <v>-0.9838841944156161</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9465834676324881</v>
+        <v>-0.9654658271717568</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9339108452677687</v>
+        <v>-0.9484025178377414</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1065,10 @@
         <v>-1.198553592684402</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.150642723629216</v>
+        <v>-1.166399175072524</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.128012501669319</v>
+        <v>-1.135877974028292</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1076,10 @@
         <v>-0.8871941031562842</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8595943936850527</v>
+        <v>-0.8697146221930475</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8479030779331405</v>
+        <v>-0.8520611867384603</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1087,10 @@
         <v>-0.5490228879802185</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5178421633847863</v>
+        <v>-0.5226236749088476</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4977996238259934</v>
+        <v>-0.4967963367636913</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1098,10 @@
         <v>0.3641879669695625</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3694990498946619</v>
+        <v>0.3667234597952868</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3714301207007228</v>
+        <v>0.3698122843417765</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1109,10 @@
         <v>-1.281473782537221</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.228845839492119</v>
+        <v>-1.256585013455179</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.209516136962105</v>
+        <v>-1.233472899209369</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1120,10 @@
         <v>-0.7955077467720582</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7647483462113032</v>
+        <v>-0.76328821103421</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7390840125550109</v>
+        <v>-0.7279101236544864</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1131,10 @@
         <v>-0.9059538388620895</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9085383082165912</v>
+        <v>-0.9019819226868909</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9025893591691596</v>
+        <v>-0.8933700897086743</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1142,10 @@
         <v>-0.1683097252499538</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1307796336478854</v>
+        <v>-0.1414601443187503</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1116670023084185</v>
+        <v>-0.1159650726353796</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1153,10 @@
         <v>-0.8688143494053152</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8143641485938967</v>
+        <v>-0.8343463378780934</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7907523108579071</v>
+        <v>-0.8036033375799481</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1164,10 @@
         <v>-0.887765658163096</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7944889528103205</v>
+        <v>-0.8369362897989698</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7623398618387645</v>
+        <v>-0.7947377314035913</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +443,28 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3212739963772344</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3033442088659019</v>
+        <v>-0.3260277978606521</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.285613861520414</v>
+        <v>-0.3113347074289435</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2970736233713464</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2835723545011988</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +472,16 @@
         <v>0.2128808295607601</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2207520964114534</v>
+        <v>0.1974451442080811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2309543543290238</v>
+        <v>0.2065752829286065</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2166491866596918</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2267225736545723</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +489,16 @@
         <v>0.1522493774985754</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1631585845063193</v>
+        <v>0.1305808780685744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1757923210546981</v>
+        <v>0.1421566416881549</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1546844081901775</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1672166424599572</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +506,16 @@
         <v>-0.05888648753883746</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.05055669449508423</v>
+        <v>-0.08640099787666576</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04104158479270387</v>
+        <v>-0.07694397160759842</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06782257657061308</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05954051422487723</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +523,16 @@
         <v>0.1398980287104931</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1569216718066155</v>
+        <v>0.1271961316647943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1728512757315558</v>
+        <v>0.1429155484052026</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1581218431766338</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1719715137667233</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +540,16 @@
         <v>-0.4454694716655577</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4385607354708777</v>
+        <v>-0.462073158579521</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4281640872318672</v>
+        <v>-0.4527683761063582</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4429215199565364</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4329974376358153</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +557,16 @@
         <v>-0.3034768971427516</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2815207651310452</v>
+        <v>-0.2715765964713239</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2597637584727662</v>
+        <v>-0.2598008161228147</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2472124080800005</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2345398796364273</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +574,16 @@
         <v>-0.4101598582772835</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4053244950965031</v>
+        <v>-0.4213748423931841</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3948693068931027</v>
+        <v>-0.411365857694458</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3990785898381406</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3855349601999202</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +591,16 @@
         <v>0.3112044355194573</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3291626202766235</v>
+        <v>0.3436617211573456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3465381306558325</v>
+        <v>0.3583351033494231</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.372151296262771</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3844866954156452</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +608,16 @@
         <v>-0.2093357274128496</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2026559651893725</v>
+        <v>-0.2483358651284864</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1947378753737388</v>
+        <v>-0.239615135361616</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2306716941534318</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2221088093088014</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +625,16 @@
         <v>-0.1098701227570322</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.08357465415811693</v>
+        <v>-0.1094783026168914</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05811555757293763</v>
+        <v>-0.0872659943667467</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.06715077251264258</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.04962863343179166</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +642,16 @@
         <v>0.003463128644148341</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003268724058882566</v>
+        <v>-0.01157867802692844</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003907374428422664</v>
+        <v>-0.01163689161266203</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01119816786007568</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.01076816607872993</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +659,16 @@
         <v>-0.004988279649559266</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03850792956741418</v>
+        <v>0.011889263515418</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07863851839863101</v>
+        <v>0.05201512159417407</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08852251540343356</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1206184983734711</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +676,16 @@
         <v>-0.1346304142550902</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07913911116193134</v>
+        <v>-0.05801708454880922</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02988053198258833</v>
+        <v>-0.01353990189783741</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02570676654085348</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05919080618255411</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +693,16 @@
         <v>0.1946543047594123</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2662829113388356</v>
+        <v>0.2861528088080422</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3323814523503869</v>
+        <v>0.3474641149721687</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4024415838960021</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4502144255124137</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +710,16 @@
         <v>0.5361399697844117</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5778272802240982</v>
+        <v>0.5627694800712454</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6103798634913413</v>
+        <v>0.5981113559656567</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6280971277039247</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6523012256257039</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +727,16 @@
         <v>0.07686059177154655</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05827459139698862</v>
+        <v>0.0509146135411717</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04020067918106943</v>
+        <v>0.03848846692182706</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02771043692032009</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01795779568995341</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +744,16 @@
         <v>0.3878380745545058</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3999590293933805</v>
+        <v>0.3801368142500762</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4091454085077181</v>
+        <v>0.3958525534261808</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.409797240493623</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4212192338181458</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +761,16 @@
         <v>0.175159032581152</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2406752051786359</v>
+        <v>0.2357545280472422</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2999452911663952</v>
+        <v>0.2938656074185948</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3450655875566412</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3887353086973739</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +778,16 @@
         <v>0.3657810210011677</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4417628114591178</v>
+        <v>0.4612034855031213</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5085908455124964</v>
+        <v>0.5182927104842734</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5673456989925195</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6080725634857478</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +795,16 @@
         <v>0.3068546660630183</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3494371019363526</v>
+        <v>0.3407779426971171</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3861123216915772</v>
+        <v>0.3774294530484647</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4089951628219275</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4349674922936272</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +812,16 @@
         <v>-0.1051463010812712</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.06659496235699991</v>
+        <v>-0.09213597395040349</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.03456165225398219</v>
+        <v>-0.06047098978932161</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.03356228790576768</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.01171677136219079</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +829,16 @@
         <v>4.412480150295193</v>
       </c>
       <c r="B24" t="n">
-        <v>4.541078537018452</v>
+        <v>4.536142022674653</v>
       </c>
       <c r="C24" t="n">
-        <v>4.566046494845523</v>
+        <v>4.575953720226746</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.533580557498998</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.424748944720001</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +846,16 @@
         <v>0.5718574215482422</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5449400901430083</v>
+        <v>0.5264117600795265</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5104499532924316</v>
+        <v>0.4916963026454615</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4602768751885618</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4321816775789644</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +863,16 @@
         <v>0.343724671523465</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4002625929779248</v>
+        <v>0.3854558869822713</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3821785279846542</v>
+        <v>0.3637634469251554</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3437026357892849</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.322793265433509</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +880,16 @@
         <v>0.3214782735169204</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3312475927322071</v>
+        <v>0.3323569593629884</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3022487667381129</v>
+        <v>0.3013268639216591</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2739135470728835</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2467306723831639</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +897,16 @@
         <v>1.091561350014913</v>
       </c>
       <c r="B28" t="n">
-        <v>1.103864868107481</v>
+        <v>1.099255200858447</v>
       </c>
       <c r="C28" t="n">
-        <v>1.073524239157886</v>
+        <v>1.068469446076402</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.037001730912954</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.005564956752435</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +914,16 @@
         <v>6.274466777397112</v>
       </c>
       <c r="B29" t="n">
-        <v>5.837247815210643</v>
+        <v>5.868063101441583</v>
       </c>
       <c r="C29" t="n">
-        <v>5.385828885282493</v>
+        <v>5.453715541498916</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.047154797343312</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.652447346813815</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +931,16 @@
         <v>1.01500490280038</v>
       </c>
       <c r="B30" t="n">
-        <v>1.015620096334174</v>
+        <v>1.019959663470545</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9650930574251766</v>
+        <v>0.9684969965365088</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9206352240028133</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8765069721295897</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +948,16 @@
         <v>-0.09797031706436504</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.128165917865441</v>
+        <v>-0.1327971309754888</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1933917469891227</v>
+        <v>-0.19829785748661</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.2528510393493318</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3009271808733578</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +965,16 @@
         <v>0.8197181365212921</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8107004350220448</v>
+        <v>0.8129124910470404</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7727241770431046</v>
+        <v>0.7771228137702961</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.744430169787492</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7130909137234249</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +982,16 @@
         <v>0.9266127304940774</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9162711559932648</v>
+        <v>0.9408763627916946</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8903333690452184</v>
+        <v>0.9117538597084132</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8858350655748324</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8619185721803341</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +999,16 @@
         <v>-0.5760389076467637</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.5988286035607752</v>
+        <v>-0.6237788977627812</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6291079321617313</v>
+        <v>-0.6548704237507494</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.6836312085549999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7102928388237109</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +1016,16 @@
         <v>0.842250162148514</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8319861661415534</v>
+        <v>0.8227024093626152</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8220208498997641</v>
+        <v>0.813604258629973</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8056797875994701</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.798334102803591</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +1033,16 @@
         <v>0.8025676706029488</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7854255156702361</v>
+        <v>0.7852006021171384</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7692466651518581</v>
+        <v>0.7675934109401431</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7526232544134352</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7396484170207569</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +1050,16 @@
         <v>0.7919951671094189</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7685533230710442</v>
+        <v>0.7616093557509258</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7478811412401991</v>
+        <v>0.7417926700373553</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7248622428537608</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7101540691582918</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +1067,16 @@
         <v>0.7836800664035825</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7594994496718845</v>
+        <v>0.7364618531331382</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7366819587082833</v>
+        <v>0.7173287459599338</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.700641982288517</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6857196939546594</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +1084,16 @@
         <v>0.5861641145943091</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5831427592561873</v>
+        <v>0.5854033188892174</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5807328869148602</v>
+        <v>0.5810806496389941</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5777955608229628</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5749546883777493</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +1101,16 @@
         <v>0.7549809120686657</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7542173216697582</v>
+        <v>0.7554000423666646</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7527880614441489</v>
+        <v>0.7522695508355323</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7495143856711403</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7465678738711784</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +1118,16 @@
         <v>0.5828601459212053</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5740814366689742</v>
+        <v>0.5625794058477487</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5663686018189583</v>
+        <v>0.5544369560187997</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5485379151631973</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5440696365417749</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +1135,16 @@
         <v>0.7529021482474625</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7219259599136361</v>
+        <v>0.7176215966072691</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6924706582687463</v>
+        <v>0.690163836811005</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6659896593558211</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6445022733954443</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +1152,16 @@
         <v>0.7504465520349173</v>
       </c>
       <c r="B43" t="n">
-        <v>0.733890551282992</v>
+        <v>0.7239792128051638</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7182193194617948</v>
+        <v>0.7090153754814805</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6964002319199823</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6853986136278564</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +1169,16 @@
         <v>0.6827308104255141</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6745894397723444</v>
+        <v>0.6829484627113083</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6674199276345331</v>
+        <v>0.6744744297863949</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6679388035570271</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6626134510921413</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +1186,16 @@
         <v>0.6807129122400349</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6604177017042322</v>
+        <v>0.6771656920013283</v>
       </c>
       <c r="C45" t="n">
-        <v>0.643203384512019</v>
+        <v>0.6581781264025099</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6423658368988955</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.629119162747515</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +1203,16 @@
         <v>-1.245763269047405</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.251814518125235</v>
+        <v>-1.25897553861914</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.256094731000866</v>
+        <v>-1.263522051325703</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.267422265526079</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.270612138593214</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +1220,16 @@
         <v>-0.9621471412418766</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9693432235046766</v>
+        <v>-0.9738671067461906</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9744620795456761</v>
+        <v>-0.9793198897550003</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9839642426851458</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.987847171869874</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +1237,16 @@
         <v>-0.8529273727102373</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.862326360188199</v>
+        <v>-0.8666450125273316</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8685574750665104</v>
+        <v>-0.8733249578619043</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.8783409952576358</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.8819130794400558</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +1254,16 @@
         <v>-0.625756617875225</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6314247653529417</v>
+        <v>-0.6384770605229276</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6349189543844442</v>
+        <v>-0.6423388394497972</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6449706923609597</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.6466568028909876</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +1271,16 @@
         <v>-0.04836745703310415</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04861888039615835</v>
+        <v>-0.04719667975478657</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.0490296225981823</v>
+        <v>-0.04870843203017888</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.04975729090437483</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.05075605151621303</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +1288,16 @@
         <v>-0.8436953902240095</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8510358802390722</v>
+        <v>-0.8594604294715984</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8550403088152924</v>
+        <v>-0.8651112230871479</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.8694247176179918</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.8725182445532166</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +1305,16 @@
         <v>-0.8436953902240095</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8510358802390722</v>
+        <v>-0.8594604294715984</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8550403088152924</v>
+        <v>-0.8651112230871479</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8694247176179918</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.8725182445532166</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1322,16 @@
         <v>-1.05950699879933</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.078588183733273</v>
+        <v>-1.083426097556684</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.093161550357953</v>
+        <v>-1.097167705592106</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.108488237167732</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.117547215306057</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1339,16 @@
         <v>-0.1868921411768124</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1865304266581551</v>
+        <v>-0.1872636393394086</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1850210583711067</v>
+        <v>-0.1869482209713249</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1860485087245954</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.1849424187574051</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1356,16 @@
         <v>-0.9848389556038206</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9896890869033197</v>
+        <v>-0.9945094100735348</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9934037464819662</v>
+        <v>-0.9991769555261637</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.003171825398653</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.006553059405665</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1373,16 @@
         <v>-0.8986093529239618</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8915757557210402</v>
+        <v>-0.887447096790594</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8858407144749817</v>
+        <v>-0.8841450427105935</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8817790896142385</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.8802859356151449</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1390,16 @@
         <v>-0.9838841944156161</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9654658271717568</v>
+        <v>-0.9465834676324881</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9484025178377414</v>
+        <v>-0.9339108452677687</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.9226930628719456</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.9129627576960649</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1407,16 @@
         <v>-1.198553592684402</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.166399175072524</v>
+        <v>-1.150642723629216</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.135877974028292</v>
+        <v>-1.128012501669319</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.108173379963219</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.090976065439593</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1424,16 @@
         <v>-0.8871941031562842</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8697146221930475</v>
+        <v>-0.8595943936850527</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8520611867384603</v>
+        <v>-0.8479030779331405</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.8369344785974706</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.8267199931637218</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1441,16 @@
         <v>-0.5490228879802185</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5226236749088476</v>
+        <v>-0.5178421633847863</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4967963367636913</v>
+        <v>-0.4977996238259934</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.4795569449529267</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4632992899657408</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1458,16 @@
         <v>0.3641879669695625</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3667234597952868</v>
+        <v>0.3694990498946619</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3698122843417765</v>
+        <v>0.3714301207007228</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3739035917335791</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.37627040402272</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1475,16 @@
         <v>-1.281473782537221</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.256585013455179</v>
+        <v>-1.228845839492119</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.233472899209369</v>
+        <v>-1.209516136962105</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.192543225469806</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.177900817433407</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1492,16 @@
         <v>-0.7955077467720582</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.76328821103421</v>
+        <v>-0.7647483462113032</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7279101236544864</v>
+        <v>-0.7390840125550109</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.7147337912404659</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.6918662570581363</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1509,16 @@
         <v>-0.9059538388620895</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9019819226868909</v>
+        <v>-0.9085383082165912</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8933700897086743</v>
+        <v>-0.9025893591691596</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.8955302735399159</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.8877613539810557</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1526,16 @@
         <v>-0.1683097252499538</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1414601443187503</v>
+        <v>-0.1307796336478854</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1159650726353796</v>
+        <v>-0.1116670023084185</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.09428881291620919</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.07896190354401719</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1543,16 @@
         <v>-0.8688143494053152</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8343463378780934</v>
+        <v>-0.8143641485938967</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.8036033375799481</v>
+        <v>-0.7907523108579071</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7706267216278589</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.753939938861058</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1560,16 @@
         <v>-0.887765658163096</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8369362897989698</v>
+        <v>-0.7944889528103205</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7947377314035913</v>
+        <v>-0.7623398618387645</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.7358762115270424</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.714736881995928</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-0.2835723545011988</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2710294355807483</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>0.2267225736545723</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2364247686389096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.1672166424599572</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1794152905885689</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>-0.05954051422487723</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05221449783201594</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>0.1719715137667233</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1843392248336643</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>-0.4329974376358153</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4232972743440529</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.2345398796364273</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.222042260872511</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>-0.3855349601999202</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3714307507021055</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.3844866954156452</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3952734116654258</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>-0.2221088093088014</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2140826556737023</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>-0.04962863343179166</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03481003863913144</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +689,9 @@
       <c r="E13" t="n">
         <v>-0.01076816607872993</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01046461827176642</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +709,9 @@
       <c r="E14" t="n">
         <v>0.1206184983734711</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1480217697898519</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +729,9 @@
       <c r="E15" t="n">
         <v>0.05919080618255411</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.086713225226937</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +749,9 @@
       <c r="E16" t="n">
         <v>0.4502144255124137</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.49044090805679</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +769,9 @@
       <c r="E17" t="n">
         <v>0.6523012256257039</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6707188914268494</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +789,9 @@
       <c r="E18" t="n">
         <v>0.01795779568995341</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.008885670368595472</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +809,9 @@
       <c r="E19" t="n">
         <v>0.4212192338181458</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4300308866449126</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +829,9 @@
       <c r="E20" t="n">
         <v>0.3887353086973739</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4246692992742301</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +849,9 @@
       <c r="E21" t="n">
         <v>0.6080725634857478</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6407865410069185</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +869,9 @@
       <c r="E22" t="n">
         <v>0.4349674922936272</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4553385403049511</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +889,9 @@
       <c r="E23" t="n">
         <v>-0.01171677136219079</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.00516031084645352</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +909,9 @@
       <c r="E24" t="n">
         <v>4.424748944720001</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.263400352183899</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +929,9 @@
       <c r="E25" t="n">
         <v>0.4321816775789644</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.4071163644755409</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +949,9 @@
       <c r="E26" t="n">
         <v>0.322793265433509</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3016726219723175</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +969,9 @@
       <c r="E27" t="n">
         <v>0.2467306723831639</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2202577988121811</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +989,9 @@
       <c r="E28" t="n">
         <v>1.005564956752435</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9749773161915278</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +1009,9 @@
       <c r="E29" t="n">
         <v>4.652447346813815</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.27389921627781</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +1029,9 @@
       <c r="E30" t="n">
         <v>0.8765069721295897</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.836128646728663</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +1049,9 @@
       <c r="E31" t="n">
         <v>-0.3009271808733578</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3425533636114486</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1069,9 @@
       <c r="E32" t="n">
         <v>0.7130909137234249</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6834956901495224</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1089,9 @@
       <c r="E33" t="n">
         <v>0.8619185721803341</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.840020360304645</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +1109,9 @@
       <c r="E34" t="n">
         <v>-0.7102928388237109</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7348331488460984</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +1129,9 @@
       <c r="E35" t="n">
         <v>0.798334102803591</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7917537542722497</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +1149,9 @@
       <c r="E36" t="n">
         <v>0.7396484170207569</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7287661835840569</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +1169,9 @@
       <c r="E37" t="n">
         <v>0.7101540691582918</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6977604280764031</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +1189,9 @@
       <c r="E38" t="n">
         <v>0.6857196939546594</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.67259658699804</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +1209,9 @@
       <c r="E39" t="n">
         <v>0.5749546883777493</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5726501565261144</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +1229,9 @@
       <c r="E40" t="n">
         <v>0.7465678738711784</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7436877246285023</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +1249,9 @@
       <c r="E41" t="n">
         <v>0.5440696365417749</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.540918125313853</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +1269,9 @@
       <c r="E42" t="n">
         <v>0.6445022733954443</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6258345023600913</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +1289,9 @@
       <c r="E43" t="n">
         <v>0.6853986136278564</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6760089288349803</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +1309,9 @@
       <c r="E44" t="n">
         <v>0.6626134510921413</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6585086117838042</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +1329,9 @@
       <c r="E45" t="n">
         <v>0.629119162747515</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6185236678864341</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +1349,9 @@
       <c r="E46" t="n">
         <v>-1.270612138593214</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.273235433823339</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +1369,9 @@
       <c r="E47" t="n">
         <v>-0.987847171869874</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9910827118075608</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +1389,9 @@
       <c r="E48" t="n">
         <v>-0.8819130794400558</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8842654674071719</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +1409,9 @@
       <c r="E49" t="n">
         <v>-0.6466568028909876</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6475677000397474</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +1429,9 @@
       <c r="E50" t="n">
         <v>-0.05075605151621303</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05172710457888144</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +1449,9 @@
       <c r="E51" t="n">
         <v>-0.8725182445532166</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8745439164437514</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +1469,9 @@
       <c r="E52" t="n">
         <v>-0.8725182445532166</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8745439164437514</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +1489,9 @@
       <c r="E53" t="n">
         <v>-1.117547215306057</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.124650471730681</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +1509,9 @@
       <c r="E54" t="n">
         <v>-0.1849424187574051</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1837123915080093</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +1529,9 @@
       <c r="E55" t="n">
         <v>-1.006553059405665</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.009422885738721</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +1549,9 @@
       <c r="E56" t="n">
         <v>-0.8802859356151449</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8795683224784434</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +1569,9 @@
       <c r="E57" t="n">
         <v>-0.9129627576960649</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9048754917651302</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +1589,9 @@
       <c r="E58" t="n">
         <v>-1.090976065439593</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.076464654542385</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1609,9 @@
       <c r="E59" t="n">
         <v>-0.8267199931637218</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8174050193835229</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +1629,9 @@
       <c r="E60" t="n">
         <v>-0.4632992899657408</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4490986976446332</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +1649,9 @@
       <c r="E61" t="n">
         <v>0.37627040402272</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3784749680042575</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +1669,9 @@
       <c r="E62" t="n">
         <v>-1.177900817433407</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.165701792556067</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +1689,9 @@
       <c r="E63" t="n">
         <v>-0.6918662570581363</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6706671468288714</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +1709,9 @@
       <c r="E64" t="n">
         <v>-0.8877613539810557</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8797443927388185</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +1729,9 @@
       <c r="E65" t="n">
         <v>-0.07896190354401719</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06568022295751413</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +1749,9 @@
       <c r="E66" t="n">
         <v>-0.753939938861058</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7405771612456085</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +1768,9 @@
       </c>
       <c r="E67" t="n">
         <v>-0.714736881995928</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6985337694946089</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-0.2710294355807483</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.2595937648095067</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0.2364247686389096</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.2454687794645406</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1794152905885689</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1910110792009764</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>-0.05221449783201594</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.04591321022866141</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0.1843392248336643</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.1951435546216622</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.4232972743440529</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.4140621916375926</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.222042260872511</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2099350911783347</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>-0.3714307507021055</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.3573429508157102</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.3952734116654258</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.4044948767410508</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>-0.2140826556737023</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.2067216204927365</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>-0.03481003863913144</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.02271512895724561</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>-0.01046461827176642</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.0103686923878147</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0.1480217697898519</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.170627118112218</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0.086713225226937</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.1082835951605863</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,9 @@
       <c r="F16" t="n">
         <v>0.49044090805679</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.52306222860203</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +820,9 @@
       <c r="F17" t="n">
         <v>0.6707188914268494</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.6835227331943521</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +843,9 @@
       <c r="F18" t="n">
         <v>0.008885670368595472</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.000220488653882342</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +866,9 @@
       <c r="F19" t="n">
         <v>0.4300308866449126</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.4362330186156075</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +889,9 @@
       <c r="F20" t="n">
         <v>0.4246692992742301</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.4529273592055316</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +912,9 @@
       <c r="F21" t="n">
         <v>0.6407865410069185</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.6659469583779704</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +935,9 @@
       <c r="F22" t="n">
         <v>0.4553385403049511</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.4702675151594679</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +958,9 @@
       <c r="F23" t="n">
         <v>0.00516031084645352</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.01727443621219926</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +981,9 @@
       <c r="F24" t="n">
         <v>4.263400352183899</v>
       </c>
+      <c r="G24" t="n">
+        <v>4.06232078592984</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1004,9 @@
       <c r="F25" t="n">
         <v>0.4071163644755409</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.385023768121188</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1027,9 @@
       <c r="F26" t="n">
         <v>0.3016726219723175</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.2807910200409353</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1050,9 @@
       <c r="F27" t="n">
         <v>0.2202577988121811</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.1948672520873759</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1073,9 @@
       <c r="F28" t="n">
         <v>0.9749773161915278</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.9457877859554285</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1096,9 @@
       <c r="F29" t="n">
         <v>4.27389921627781</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.91499789759573</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0.836128646728663</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.7996111127659735</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1142,9 @@
       <c r="F31" t="n">
         <v>-0.3425533636114486</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.3780780315432086</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1165,9 @@
       <c r="F32" t="n">
         <v>0.6834956901495224</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.6560081001856537</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1188,9 @@
       <c r="F33" t="n">
         <v>0.840020360304645</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.8202703567252972</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1211,9 @@
       <c r="F34" t="n">
         <v>-0.7348331488460984</v>
       </c>
+      <c r="G34" t="n">
+        <v>-0.7570886633228887</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1234,9 @@
       <c r="F35" t="n">
         <v>0.7917537542722497</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.7860694106301264</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1257,9 @@
       <c r="F36" t="n">
         <v>0.7287661835840569</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.7200031931633593</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1280,9 @@
       <c r="F37" t="n">
         <v>0.6977604280764031</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.6876985562866758</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1303,9 @@
       <c r="F38" t="n">
         <v>0.67259658699804</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.6612631179731706</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1326,9 @@
       <c r="F39" t="n">
         <v>0.5726501565261144</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.5709400198410723</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1349,9 @@
       <c r="F40" t="n">
         <v>0.7436877246285023</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.7410773913961759</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1372,9 @@
       <c r="F41" t="n">
         <v>0.540918125313853</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.5389551078667667</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1395,9 @@
       <c r="F42" t="n">
         <v>0.6258345023600913</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.6100207699213729</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1418,9 @@
       <c r="F43" t="n">
         <v>0.6760089288349803</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.6681950799255436</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1441,9 @@
       <c r="F44" t="n">
         <v>0.6585086117838042</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.6556006359118084</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1464,9 @@
       <c r="F45" t="n">
         <v>0.6185236678864341</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.6105773435962784</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1487,9 @@
       <c r="F46" t="n">
         <v>-1.273235433823339</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1.275432129430659</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1510,9 @@
       <c r="F47" t="n">
         <v>-0.9910827118075608</v>
       </c>
+      <c r="G47" t="n">
+        <v>-0.9937878325527747</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1533,9 @@
       <c r="F48" t="n">
         <v>-0.8842654674071719</v>
       </c>
+      <c r="G48" t="n">
+        <v>-0.8856170118751138</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1556,9 @@
       <c r="F49" t="n">
         <v>-0.6475677000397474</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.6478658277492062</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1579,9 @@
       <c r="F50" t="n">
         <v>-0.05172710457888144</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.05269339015299299</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1602,9 @@
       <c r="F51" t="n">
         <v>-0.8745439164437514</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.8756577734824739</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1625,9 @@
       <c r="F52" t="n">
         <v>-0.8745439164437514</v>
       </c>
+      <c r="G52" t="n">
+        <v>-0.8756577734824739</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1648,9 @@
       <c r="F53" t="n">
         <v>-1.124650471730681</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.130097000228885</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1671,9 @@
       <c r="F54" t="n">
         <v>-0.1837123915080093</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.1824298921139354</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1694,9 @@
       <c r="F55" t="n">
         <v>-1.009422885738721</v>
       </c>
+      <c r="G55" t="n">
+        <v>-1.011886443266094</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1717,9 @@
       <c r="F56" t="n">
         <v>-0.8795683224784434</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.8795406186941563</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1740,9 @@
       <c r="F57" t="n">
         <v>-0.9048754917651302</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.8985120671166936</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1763,9 @@
       <c r="F58" t="n">
         <v>-1.076464654542385</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1.064613025087311</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1786,9 @@
       <c r="F59" t="n">
         <v>-0.8174050193835229</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.8090884123146534</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1809,9 @@
       <c r="F60" t="n">
         <v>-0.4490986976446332</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.4369619850407239</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1832,9 @@
       <c r="F61" t="n">
         <v>0.3784749680042575</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.3804782895620438</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1855,9 @@
       <c r="F62" t="n">
         <v>-1.165701792556067</v>
       </c>
+      <c r="G62" t="n">
+        <v>-1.155981023220187</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1878,9 @@
       <c r="F63" t="n">
         <v>-0.6706671468288714</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.6512578946505474</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1901,9 @@
       <c r="F64" t="n">
         <v>-0.8797443927388185</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.8718605267441651</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1924,9 @@
       <c r="F65" t="n">
         <v>-0.06568022295751413</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.05439025765003685</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1947,9 @@
       <c r="F66" t="n">
         <v>-0.7405771612456085</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.7303644582847593</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1771,6 +1969,9 @@
       </c>
       <c r="F67" t="n">
         <v>-0.6985337694946089</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6868353179229217</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-0.2595937648095067</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.2493654295111409</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>0.2454687794645406</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.2536429819940503</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1910110792009764</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2017949860525592</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>-0.04591321022866141</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.04066805857381062</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>0.1951435546216622</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.2043569787308196</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.4140621916375926</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.4054821450974762</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2099350911783347</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.1983983167153052</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>-0.3573429508157102</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3437376629292024</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.4044948767410508</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.4121734450682892</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>-0.2067216204927365</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.2001178677524514</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>-0.02271512895724561</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.01328890542024451</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +767,9 @@
       <c r="G13" t="n">
         <v>-0.0103686923878147</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.0105361246086575</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +793,9 @@
       <c r="G14" t="n">
         <v>0.170627118112218</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.1884838340081223</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +819,9 @@
       <c r="G15" t="n">
         <v>0.1082835951605863</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.1240819097897279</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +845,9 @@
       <c r="G16" t="n">
         <v>0.52306222860203</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.5482437155892415</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +871,9 @@
       <c r="G17" t="n">
         <v>0.6835227331943521</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.6910268086470805</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +897,9 @@
       <c r="G18" t="n">
         <v>0.000220488653882342</v>
       </c>
+      <c r="H18" t="n">
+        <v>-0.008230794852370646</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +923,9 @@
       <c r="G19" t="n">
         <v>0.4362330186156075</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.4399101459270884</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +949,9 @@
       <c r="G20" t="n">
         <v>0.4529273592055316</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.4737760732823568</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +975,9 @@
       <c r="G21" t="n">
         <v>0.6659469583779704</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.6841185151535152</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1001,9 @@
       <c r="G22" t="n">
         <v>0.4702675151594679</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.4800444329404016</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1027,9 @@
       <c r="G23" t="n">
         <v>0.01727443621219926</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.02493063932580947</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1053,9 @@
       <c r="G24" t="n">
         <v>4.06232078592984</v>
       </c>
+      <c r="H24" t="n">
+        <v>3.833023743504159</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1079,9 @@
       <c r="G25" t="n">
         <v>0.385023768121188</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.365793699251098</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1105,9 @@
       <c r="G26" t="n">
         <v>0.2807910200409353</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.2605528989749473</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1131,9 @@
       <c r="G27" t="n">
         <v>0.1948672520873759</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1708697410181557</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1157,9 @@
       <c r="G28" t="n">
         <v>0.9457877859554285</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.9184616441790272</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1183,9 @@
       <c r="G29" t="n">
         <v>3.91499789759573</v>
       </c>
+      <c r="H29" t="n">
+        <v>3.578531297366861</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1209,9 @@
       <c r="G30" t="n">
         <v>0.7996111127659735</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.766999349778918</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1235,9 @@
       <c r="G31" t="n">
         <v>-0.3780780315432086</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.4078694170066556</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1261,9 @@
       <c r="G32" t="n">
         <v>0.6560081001856537</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.6308838958337855</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1287,9 @@
       <c r="G33" t="n">
         <v>0.8202703567252972</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.8027241137800829</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1313,9 @@
       <c r="G34" t="n">
         <v>-0.7570886633228887</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.7769864734750307</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1339,9 @@
       <c r="G35" t="n">
         <v>0.7860694106301264</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.7813580108960634</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1365,9 @@
       <c r="G36" t="n">
         <v>0.7200031931633593</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.7133196626969713</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1391,9 @@
       <c r="G37" t="n">
         <v>0.6876985562866758</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.6799171505787723</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1417,9 @@
       <c r="G38" t="n">
         <v>0.6612631179731706</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.6516734083767706</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1443,9 @@
       <c r="G39" t="n">
         <v>0.5709400198410723</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.5698472207680438</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1469,9 @@
       <c r="G40" t="n">
         <v>0.7410773913961759</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.7388826579445499</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1495,9 @@
       <c r="G41" t="n">
         <v>0.5389551078667667</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.5380461013450614</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +1521,9 @@
       <c r="G42" t="n">
         <v>0.6100207699213729</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.5970177056041155</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +1547,9 @@
       <c r="G43" t="n">
         <v>0.6681950799255436</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.6618901351853407</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +1573,9 @@
       <c r="G44" t="n">
         <v>0.6556006359118084</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.6538328615860449</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +1599,9 @@
       <c r="G45" t="n">
         <v>0.6105773435962784</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.6051947865202074</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +1625,9 @@
       <c r="G46" t="n">
         <v>-1.275432129430659</v>
       </c>
+      <c r="H46" t="n">
+        <v>-1.27732599544169</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +1651,9 @@
       <c r="G47" t="n">
         <v>-0.9937878325527747</v>
       </c>
+      <c r="H47" t="n">
+        <v>-0.9960705230186161</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +1677,9 @@
       <c r="G48" t="n">
         <v>-0.8856170118751138</v>
       </c>
+      <c r="H48" t="n">
+        <v>-0.8861735645070322</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +1703,9 @@
       <c r="G49" t="n">
         <v>-0.6478658277492062</v>
       </c>
+      <c r="H49" t="n">
+        <v>-0.6477016739047008</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +1729,9 @@
       <c r="G50" t="n">
         <v>-0.05269339015299299</v>
       </c>
+      <c r="H50" t="n">
+        <v>-0.05367342841956569</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +1755,9 @@
       <c r="G51" t="n">
         <v>-0.8756577734824739</v>
       </c>
+      <c r="H51" t="n">
+        <v>-0.8760160258916392</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +1781,9 @@
       <c r="G52" t="n">
         <v>-0.8756577734824739</v>
       </c>
+      <c r="H52" t="n">
+        <v>-0.8760160258916392</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +1807,9 @@
       <c r="G53" t="n">
         <v>-1.130097000228885</v>
       </c>
+      <c r="H53" t="n">
+        <v>-1.134167721364078</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +1833,9 @@
       <c r="G54" t="n">
         <v>-0.1824298921139354</v>
       </c>
+      <c r="H54" t="n">
+        <v>-0.1811589274563052</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +1859,9 @@
       <c r="G55" t="n">
         <v>-1.011886443266094</v>
       </c>
+      <c r="H55" t="n">
+        <v>-1.014039289225392</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +1885,9 @@
       <c r="G56" t="n">
         <v>-0.8795406186941563</v>
       </c>
+      <c r="H56" t="n">
+        <v>-0.8801200233204605</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +1911,9 @@
       <c r="G57" t="n">
         <v>-0.8985120671166936</v>
       </c>
+      <c r="H57" t="n">
+        <v>-0.8938902017295015</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +1937,9 @@
       <c r="G58" t="n">
         <v>-1.064613025087311</v>
       </c>
+      <c r="H58" t="n">
+        <v>-1.055338174065475</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +1963,9 @@
       <c r="G59" t="n">
         <v>-0.8090884123146534</v>
       </c>
+      <c r="H59" t="n">
+        <v>-0.8018345305641124</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +1989,9 @@
       <c r="G60" t="n">
         <v>-0.4369619850407239</v>
       </c>
+      <c r="H60" t="n">
+        <v>-0.4268526568128126</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2015,9 @@
       <c r="G61" t="n">
         <v>0.3804782895620438</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.3822520143535593</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2041,9 @@
       <c r="G62" t="n">
         <v>-1.155981023220187</v>
       </c>
+      <c r="H62" t="n">
+        <v>-1.148703685947372</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2067,9 @@
       <c r="G63" t="n">
         <v>-0.6512578946505474</v>
       </c>
+      <c r="H63" t="n">
+        <v>-0.63371793582586</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2093,9 @@
       <c r="G64" t="n">
         <v>-0.8718605267441651</v>
       </c>
+      <c r="H64" t="n">
+        <v>-0.8644157561163344</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2119,9 @@
       <c r="G65" t="n">
         <v>-0.05439025765003685</v>
       </c>
+      <c r="H65" t="n">
+        <v>-0.04501048509174558</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2145,9 @@
       <c r="G66" t="n">
         <v>-0.7303644582847593</v>
       </c>
+      <c r="H66" t="n">
+        <v>-0.7230860282372327</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1972,6 +2170,9 @@
       </c>
       <c r="G67" t="n">
         <v>-0.6868353179229217</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6791862284729113</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-0.2493654295111409</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.240401730573694</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>0.2536429819940503</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.2608029232474907</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2017949860525592</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2116137610250163</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>-0.04066805857381062</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.03647742832015579</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>0.2043569787308196</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.2119961275857769</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.4054821450974762</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.397698612549813</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.1983983167153052</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.1875753417432915</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>-0.3437376629292024</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.3309781056175887</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.4121734450682892</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.4183642265802259</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>-0.2001178677524514</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.1943313522407313</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.01328890542024451</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.006414476839879384</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -770,6 +806,9 @@
       <c r="H13" t="n">
         <v>-0.0105361246086575</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.01099996016485467</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -796,6 +835,9 @@
       <c r="H14" t="n">
         <v>0.1884838340081223</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.2017657319340048</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -822,6 +864,9 @@
       <c r="H15" t="n">
         <v>0.1240819097897279</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.1344228516363927</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -848,6 +893,9 @@
       <c r="H16" t="n">
         <v>0.5482437155892415</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.5663317615783964</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -874,6 +922,9 @@
       <c r="H17" t="n">
         <v>0.6910268086470805</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.6936506656663393</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +951,9 @@
       <c r="H18" t="n">
         <v>-0.008230794852370646</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.01659780557880647</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -926,6 +980,9 @@
       <c r="H19" t="n">
         <v>0.4399101459270884</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.4412108956938706</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -952,6 +1009,9 @@
       <c r="H20" t="n">
         <v>0.4737760732823568</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.4876458842074113</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1038,9 @@
       <c r="H21" t="n">
         <v>0.6841185151535152</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.6959421335436666</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1067,9 @@
       <c r="H22" t="n">
         <v>0.4800444329404016</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.4850589874305034</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1096,9 @@
       <c r="H23" t="n">
         <v>0.02493063932580947</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.02850619749542069</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1125,9 @@
       <c r="H24" t="n">
         <v>3.833023743504159</v>
       </c>
+      <c r="I24" t="n">
+        <v>3.585698457467561</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1154,9 @@
       <c r="H25" t="n">
         <v>0.365793699251098</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3492870876613413</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1108,6 +1183,9 @@
       <c r="H26" t="n">
         <v>0.2605528989749473</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.2412822239164115</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1134,6 +1212,9 @@
       <c r="H27" t="n">
         <v>0.1708697410181557</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1485027959725612</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1160,6 +1241,9 @@
       <c r="H28" t="n">
         <v>0.9184616441790272</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.8933425358853155</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1186,6 +1270,9 @@
       <c r="H29" t="n">
         <v>3.578531297366861</v>
       </c>
+      <c r="I29" t="n">
+        <v>3.266581393992793</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1212,6 +1299,9 @@
       <c r="H30" t="n">
         <v>0.766999349778918</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.7382620793701823</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1238,6 +1328,9 @@
       <c r="H31" t="n">
         <v>-0.4078694170066556</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.4323486906727105</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1264,6 +1357,9 @@
       <c r="H32" t="n">
         <v>0.6308838958337855</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.608285841989494</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1290,6 +1386,9 @@
       <c r="H33" t="n">
         <v>0.8027241137800829</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.7873844217032924</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,6 +1415,9 @@
       <c r="H34" t="n">
         <v>-0.7769864734750307</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.7945146428436066</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1342,6 +1444,9 @@
       <c r="H35" t="n">
         <v>0.7813580108960634</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.7776511455504511</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1368,6 +1473,9 @@
       <c r="H36" t="n">
         <v>0.7133196626969713</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.7086228661838279</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1394,6 +1502,9 @@
       <c r="H37" t="n">
         <v>0.6799171505787723</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.6743100852019697</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1420,6 +1531,9 @@
       <c r="H38" t="n">
         <v>0.6516734083767706</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6437511682015402</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1446,6 +1560,9 @@
       <c r="H39" t="n">
         <v>0.5698472207680438</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.5693666563680885</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1472,6 +1589,9 @@
       <c r="H40" t="n">
         <v>0.7388826579445499</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.7372007967993993</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1498,6 +1618,9 @@
       <c r="H41" t="n">
         <v>0.5380461013450614</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.5380536244128121</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1524,6 +1647,9 @@
       <c r="H42" t="n">
         <v>0.5970177056041155</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.5867173572243831</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1550,6 +1676,9 @@
       <c r="H43" t="n">
         <v>0.6618901351853407</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.657002659545426</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1576,6 +1705,9 @@
       <c r="H44" t="n">
         <v>0.6538328615860449</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.6531235821299242</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1602,6 +1734,9 @@
       <c r="H45" t="n">
         <v>0.6051947865202074</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.6022263037538002</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1628,6 +1763,9 @@
       <c r="H46" t="n">
         <v>-1.27732599544169</v>
       </c>
+      <c r="I46" t="n">
+        <v>-1.279025246875175</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1654,6 +1792,9 @@
       <c r="H47" t="n">
         <v>-0.9960705230186161</v>
       </c>
+      <c r="I47" t="n">
+        <v>-0.9980293428608982</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1680,6 +1821,9 @@
       <c r="H48" t="n">
         <v>-0.8861735645070322</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.8861251428849227</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1706,6 +1850,9 @@
       <c r="H49" t="n">
         <v>-0.6477016739047008</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.6472118664247941</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1732,6 +1879,9 @@
       <c r="H50" t="n">
         <v>-0.05367342841956569</v>
       </c>
+      <c r="I50" t="n">
+        <v>-0.05468213784056951</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1758,6 +1908,9 @@
       <c r="H51" t="n">
         <v>-0.8760160258916392</v>
       </c>
+      <c r="I51" t="n">
+        <v>-0.8757701417707245</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1784,6 +1937,9 @@
       <c r="H52" t="n">
         <v>-0.8760160258916392</v>
       </c>
+      <c r="I52" t="n">
+        <v>-0.8757701417707245</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1810,6 +1966,9 @@
       <c r="H53" t="n">
         <v>-1.134167721364078</v>
       </c>
+      <c r="I53" t="n">
+        <v>-1.137122876627857</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1836,6 +1995,9 @@
       <c r="H54" t="n">
         <v>-0.1811589274563052</v>
       </c>
+      <c r="I54" t="n">
+        <v>-0.1799548230330334</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1862,6 +2024,9 @@
       <c r="H55" t="n">
         <v>-1.014039289225392</v>
       </c>
+      <c r="I55" t="n">
+        <v>-1.015967328401723</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1888,6 +2053,9 @@
       <c r="H56" t="n">
         <v>-0.8801200233204605</v>
       </c>
+      <c r="I56" t="n">
+        <v>-0.8812277787158466</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1914,6 +2082,9 @@
       <c r="H57" t="n">
         <v>-0.8938902017295015</v>
       </c>
+      <c r="I57" t="n">
+        <v>-0.8909748870001107</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1940,6 +2111,9 @@
       <c r="H58" t="n">
         <v>-1.055338174065475</v>
       </c>
+      <c r="I58" t="n">
+        <v>-1.048510206847874</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1966,6 +2140,9 @@
       <c r="H59" t="n">
         <v>-0.8018345305641124</v>
       </c>
+      <c r="I59" t="n">
+        <v>-0.7956756708607667</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1992,6 +2169,9 @@
       <c r="H60" t="n">
         <v>-0.4268526568128126</v>
       </c>
+      <c r="I60" t="n">
+        <v>-0.418695998403197</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2018,6 +2198,9 @@
       <c r="H61" t="n">
         <v>0.3822520143535593</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.3837778981241558</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2044,6 +2227,9 @@
       <c r="H62" t="n">
         <v>-1.148703685947372</v>
       </c>
+      <c r="I62" t="n">
+        <v>-1.143777172533348</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2070,6 +2256,9 @@
       <c r="H63" t="n">
         <v>-0.63371793582586</v>
       </c>
+      <c r="I63" t="n">
+        <v>-0.6180842595458559</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2096,6 +2285,9 @@
       <c r="H64" t="n">
         <v>-0.8644157561163344</v>
       </c>
+      <c r="I64" t="n">
+        <v>-0.8576459176390808</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2122,6 +2314,9 @@
       <c r="H65" t="n">
         <v>-0.04501048509174558</v>
       </c>
+      <c r="I65" t="n">
+        <v>-0.03743475443738065</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2148,6 +2343,9 @@
       <c r="H66" t="n">
         <v>-0.7230860282372327</v>
       </c>
+      <c r="I66" t="n">
+        <v>-0.7184938462839219</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2173,6 +2371,9 @@
       </c>
       <c r="H67" t="n">
         <v>-0.6791862284729113</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6751195899905397</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-0.240401730573694</v>
       </c>
+      <c r="J2" t="n">
+        <v>-0.2327223335678966</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>0.2608029232474907</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.2668624851483096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2116137610250163</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.2203643958670459</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>-0.03647742832015579</v>
       </c>
+      <c r="J5" t="n">
+        <v>-0.03331239467739718</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>0.2119961275857769</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.2181141816739769</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.397698612549813</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.3908092105654449</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.1875753417432915</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.1775746549970337</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>-0.3309781056175887</v>
       </c>
+      <c r="J9" t="n">
+        <v>-0.3193343760255402</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.4183642265802259</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.4231485271922006</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>-0.1943313522407313</v>
       </c>
+      <c r="J11" t="n">
+        <v>-0.1893932449810044</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.006414476839879384</v>
       </c>
+      <c r="J12" t="n">
+        <v>-0.001926801664880969</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -809,6 +845,9 @@
       <c r="I13" t="n">
         <v>-0.01099996016485467</v>
       </c>
+      <c r="J13" t="n">
+        <v>-0.01177429654170657</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +877,9 @@
       <c r="I14" t="n">
         <v>0.2017657319340048</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.2107443267319641</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -867,6 +909,9 @@
       <c r="I15" t="n">
         <v>0.1344228516363927</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.1397229341893743</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -896,6 +941,9 @@
       <c r="I16" t="n">
         <v>0.5663317615783964</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.5778119827116844</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,6 +973,9 @@
       <c r="I17" t="n">
         <v>0.6936506656663393</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.6918881382913261</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -954,6 +1005,9 @@
       <c r="I18" t="n">
         <v>-0.01659780557880647</v>
       </c>
+      <c r="J18" t="n">
+        <v>-0.02495828575111225</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -983,6 +1037,9 @@
       <c r="I19" t="n">
         <v>0.4412108956938706</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.4403319699921656</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1012,6 +1069,9 @@
       <c r="I20" t="n">
         <v>0.4876458842074113</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.4950900059963023</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1041,6 +1101,9 @@
       <c r="I21" t="n">
         <v>0.6959421335436666</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.7021067005905052</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1070,6 +1133,9 @@
       <c r="I22" t="n">
         <v>0.4850589874305034</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.485771771900909</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1099,6 +1165,9 @@
       <c r="I23" t="n">
         <v>0.02850619749542069</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.02842787319022219</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1197,9 @@
       <c r="I24" t="n">
         <v>3.585698457467561</v>
       </c>
+      <c r="J24" t="n">
+        <v>3.329192164953557</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1157,6 +1229,9 @@
       <c r="I25" t="n">
         <v>0.3492870876613413</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.335339377455818</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1186,6 +1261,9 @@
       <c r="I26" t="n">
         <v>0.2412822239164115</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.2232289174581455</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1215,6 +1293,9 @@
       <c r="I27" t="n">
         <v>0.1485027959725612</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.1279365950251197</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1244,6 +1325,9 @@
       <c r="I28" t="n">
         <v>0.8933425358853155</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.8706660164127729</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1273,6 +1357,9 @@
       <c r="I29" t="n">
         <v>3.266581393992793</v>
       </c>
+      <c r="J29" t="n">
+        <v>2.980553978708914</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1389,9 @@
       <c r="I30" t="n">
         <v>0.7382620793701823</v>
       </c>
+      <c r="J30" t="n">
+        <v>0.7133012504208899</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1331,6 +1421,9 @@
       <c r="I31" t="n">
         <v>-0.4323486906727105</v>
       </c>
+      <c r="J31" t="n">
+        <v>-0.4519704880413503</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1360,6 +1453,9 @@
       <c r="I32" t="n">
         <v>0.608285841989494</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.588293686803117</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1389,6 +1485,9 @@
       <c r="I33" t="n">
         <v>0.7873844217032924</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7742074861517192</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1418,6 +1517,9 @@
       <c r="I34" t="n">
         <v>-0.7945146428436066</v>
       </c>
+      <c r="J34" t="n">
+        <v>-0.8097150404609011</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,6 +1549,9 @@
       <c r="I35" t="n">
         <v>0.7776511455504511</v>
       </c>
+      <c r="J35" t="n">
+        <v>0.7749429413055562</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1476,6 +1581,9 @@
       <c r="I36" t="n">
         <v>0.7086228661838279</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.7057792996711915</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1505,6 +1613,9 @@
       <c r="I37" t="n">
         <v>0.6743100852019697</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.6707291230214835</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1534,6 +1645,9 @@
       <c r="I38" t="n">
         <v>0.6437511682015402</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.6373961596095705</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1563,6 +1677,9 @@
       <c r="I39" t="n">
         <v>0.5693666563680885</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.5694711486210635</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1592,6 +1709,9 @@
       <c r="I40" t="n">
         <v>0.7372007967993993</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.736087974477586</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1621,6 +1741,9 @@
       <c r="I41" t="n">
         <v>0.5380536244128121</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.5388411346885101</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1650,6 +1773,9 @@
       <c r="I42" t="n">
         <v>0.5867173572243831</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.5789611060636588</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1679,6 +1805,9 @@
       <c r="I43" t="n">
         <v>0.657002659545426</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.6534229579262221</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1708,6 +1837,9 @@
       <c r="I44" t="n">
         <v>0.6531235821299242</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.6533730835248626</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1737,6 +1869,9 @@
       <c r="I45" t="n">
         <v>0.6022263037538002</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.6014742187095992</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1766,6 +1901,9 @@
       <c r="I46" t="n">
         <v>-1.279025246875175</v>
       </c>
+      <c r="J46" t="n">
+        <v>-1.280622418513214</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1795,6 +1933,9 @@
       <c r="I47" t="n">
         <v>-0.9980293428608982</v>
       </c>
+      <c r="J47" t="n">
+        <v>-0.9997524894959404</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1824,6 +1965,9 @@
       <c r="I48" t="n">
         <v>-0.8861251428849227</v>
       </c>
+      <c r="J48" t="n">
+        <v>-0.8856437538590309</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1853,6 +1997,9 @@
       <c r="I49" t="n">
         <v>-0.6472118664247941</v>
       </c>
+      <c r="J49" t="n">
+        <v>-0.64651791743637</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1882,6 +2029,9 @@
       <c r="I50" t="n">
         <v>-0.05468213784056951</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.05573086560149559</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1911,6 +2061,9 @@
       <c r="I51" t="n">
         <v>-0.8757701417707245</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.8750633913793384</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1940,6 +2093,9 @@
       <c r="I52" t="n">
         <v>-0.8757701417707245</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.8750633913793384</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1969,6 +2125,9 @@
       <c r="I53" t="n">
         <v>-1.137122876627857</v>
       </c>
+      <c r="J53" t="n">
+        <v>-1.139199680102887</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1998,6 +2157,9 @@
       <c r="I54" t="n">
         <v>-0.1799548230330334</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.1788638741215092</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2027,6 +2189,9 @@
       <c r="I55" t="n">
         <v>-1.015967328401723</v>
       </c>
+      <c r="J55" t="n">
+        <v>-1.01774615584611</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2056,6 +2221,9 @@
       <c r="I56" t="n">
         <v>-0.8812277787158466</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.8827895345987904</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2085,6 +2253,9 @@
       <c r="I57" t="n">
         <v>-0.8909748870001107</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.8896887031075182</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2114,6 +2285,9 @@
       <c r="I58" t="n">
         <v>-1.048510206847874</v>
       </c>
+      <c r="J58" t="n">
+        <v>-1.043962888335491</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2143,6 +2317,9 @@
       <c r="I59" t="n">
         <v>-0.7956756708607667</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.7906159247371723</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2172,6 +2349,9 @@
       <c r="I60" t="n">
         <v>-0.418695998403197</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.4123866119899833</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2201,6 +2381,9 @@
       <c r="I61" t="n">
         <v>0.3837778981241558</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.3850466980533881</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2230,6 +2413,9 @@
       <c r="I62" t="n">
         <v>-1.143777172533348</v>
       </c>
+      <c r="J62" t="n">
+        <v>-1.141063208172107</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2259,6 +2445,9 @@
       <c r="I63" t="n">
         <v>-0.6180842595458559</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.6043555889409551</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2288,6 +2477,9 @@
       <c r="I64" t="n">
         <v>-0.8576459176390808</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.85172341478155</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2317,6 +2509,9 @@
       <c r="I65" t="n">
         <v>-0.03743475443738065</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.0315379183091941</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2346,6 +2541,9 @@
       <c r="I66" t="n">
         <v>-0.7184938462839219</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7163185571894917</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2374,6 +2572,9 @@
       </c>
       <c r="I67" t="n">
         <v>-0.6751195899905397</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6741687160153688</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-0.2327223335678966</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.2263147394406436</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>0.2668624851483096</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.2717850636002807</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.2203643958670459</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.2279881307267739</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>-0.03331239467739718</v>
       </c>
+      <c r="K5" t="n">
+        <v>-0.03112220062566946</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>0.2181141816739769</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.2227932971120828</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.3908092105654449</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.384872701203766</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.1775746549970337</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.1684722086625474</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>-0.3193343760255402</v>
       </c>
+      <c r="K9" t="n">
+        <v>-0.3089938838405888</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.4231485271922006</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.4266275928263639</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>-0.1893932449810044</v>
       </c>
+      <c r="K11" t="n">
+        <v>-0.1853098100163826</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-0.001926801664880969</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.000374534480007252</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -848,6 +884,9 @@
       <c r="J13" t="n">
         <v>-0.01177429654170657</v>
       </c>
+      <c r="K13" t="n">
+        <v>-0.01285780794614196</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -880,6 +919,9 @@
       <c r="J14" t="n">
         <v>0.2107443267319641</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.2157638511292935</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,6 +954,9 @@
       <c r="J15" t="n">
         <v>0.1397229341893743</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.1404705344753795</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -944,6 +989,9 @@
       <c r="J16" t="n">
         <v>0.5778119827116844</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.5832708943215821</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -976,6 +1024,9 @@
       <c r="J17" t="n">
         <v>0.6918881382913261</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.6862796043443931</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1059,9 @@
       <c r="J18" t="n">
         <v>-0.02495828575111225</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.03334882377961779</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1040,6 +1094,9 @@
       <c r="J19" t="n">
         <v>0.4403319699921656</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.4375034608790292</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1129,9 @@
       <c r="J20" t="n">
         <v>0.4950900059963023</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.4967471784505567</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,6 +1164,9 @@
       <c r="J21" t="n">
         <v>0.7021067005905052</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.7033240236903844</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1136,6 +1199,9 @@
       <c r="J22" t="n">
         <v>0.485771771900909</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.482688595024351</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1168,6 +1234,9 @@
       <c r="J23" t="n">
         <v>0.02842787319022219</v>
       </c>
+      <c r="K23" t="n">
+        <v>0.02515149469978528</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1200,6 +1269,9 @@
       <c r="J24" t="n">
         <v>3.329192164953557</v>
       </c>
+      <c r="K24" t="n">
+        <v>3.071028279594573</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1232,6 +1304,9 @@
       <c r="J25" t="n">
         <v>0.335339377455818</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.3237670475824114</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,6 +1339,9 @@
       <c r="J26" t="n">
         <v>0.2232289174581455</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.2065747240820392</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1296,6 +1374,9 @@
       <c r="J27" t="n">
         <v>0.1279365950251197</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.109279714901124</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1328,6 +1409,9 @@
       <c r="J28" t="n">
         <v>0.8706660164127729</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.8505713530651282</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1360,6 +1444,9 @@
       <c r="J29" t="n">
         <v>2.980553978708914</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.721225335726594</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1392,6 +1479,9 @@
       <c r="J30" t="n">
         <v>0.7133012504208899</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.6919631541977967</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1424,6 +1514,9 @@
       <c r="J31" t="n">
         <v>-0.4519704880413503</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.4672094249286972</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1456,6 +1549,9 @@
       <c r="J32" t="n">
         <v>0.588293686803117</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.5709157376003243</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1488,6 +1584,9 @@
       <c r="J33" t="n">
         <v>0.7742074861517192</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.7631112301060949</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1520,6 +1619,9 @@
       <c r="J34" t="n">
         <v>-0.8097150404609011</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.822673621279946</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1552,6 +1654,9 @@
       <c r="J35" t="n">
         <v>0.7749429413055562</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.7731974975983481</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1584,6 +1689,9 @@
       <c r="J36" t="n">
         <v>0.7057792996711915</v>
       </c>
+      <c r="K36" t="n">
+        <v>0.7046258448534671</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +1724,9 @@
       <c r="J37" t="n">
         <v>0.6707291230214835</v>
       </c>
+      <c r="K37" t="n">
+        <v>0.668995538105727</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1648,6 +1759,9 @@
       <c r="J38" t="n">
         <v>0.6373961596095705</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.6324902626442062</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1680,6 +1794,9 @@
       <c r="J39" t="n">
         <v>0.5694711486210635</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.5701168638013423</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1712,6 +1829,9 @@
       <c r="J40" t="n">
         <v>0.736087974477586</v>
       </c>
+      <c r="K40" t="n">
+        <v>0.7355663449759041</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,6 +1864,9 @@
       <c r="J41" t="n">
         <v>0.5388411346885101</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.5402762158281607</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1776,6 +1899,9 @@
       <c r="J42" t="n">
         <v>0.5789611060636588</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.5735525035427539</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1808,6 +1934,9 @@
       <c r="J43" t="n">
         <v>0.6534229579262221</v>
       </c>
+      <c r="K43" t="n">
+        <v>0.6510287760871292</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1840,6 +1969,9 @@
       <c r="J44" t="n">
         <v>0.6533730835248626</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.6544698938854663</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1872,6 +2004,9 @@
       <c r="J45" t="n">
         <v>0.6014742187095992</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.6027076119621086</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1904,6 +2039,9 @@
       <c r="J46" t="n">
         <v>-1.280622418513214</v>
       </c>
+      <c r="K46" t="n">
+        <v>-1.282194874403808</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1936,6 +2074,9 @@
       <c r="J47" t="n">
         <v>-0.9997524894959404</v>
       </c>
+      <c r="K47" t="n">
+        <v>-1.00131746934896</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1968,6 +2109,9 @@
       <c r="J48" t="n">
         <v>-0.8856437538590309</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.8848821747838519</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2000,6 +2144,9 @@
       <c r="J49" t="n">
         <v>-0.64651791743637</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.6457256818496846</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2032,6 +2179,9 @@
       <c r="J50" t="n">
         <v>-0.05573086560149559</v>
       </c>
+      <c r="K50" t="n">
+        <v>-0.05682766489503298</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2064,6 +2214,9 @@
       <c r="J51" t="n">
         <v>-0.8750633913793384</v>
       </c>
+      <c r="K51" t="n">
+        <v>-0.8740282883607695</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2096,6 +2249,9 @@
       <c r="J52" t="n">
         <v>-0.8750633913793384</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.8740282883607695</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2128,6 +2284,9 @@
       <c r="J53" t="n">
         <v>-1.139199680102887</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.140611014895996</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2160,6 +2319,9 @@
       <c r="J54" t="n">
         <v>-0.1788638741215092</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.1779233916458966</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2192,6 +2354,9 @@
       <c r="J55" t="n">
         <v>-1.01774615584611</v>
       </c>
+      <c r="K55" t="n">
+        <v>-1.019440975371285</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2224,6 +2389,9 @@
       <c r="J56" t="n">
         <v>-0.8827895345987904</v>
       </c>
+      <c r="K56" t="n">
+        <v>-0.8847358343392823</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2256,6 +2424,9 @@
       <c r="J57" t="n">
         <v>-0.8896887031075182</v>
       </c>
+      <c r="K57" t="n">
+        <v>-0.889921559534281</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2288,6 +2459,9 @@
       <c r="J58" t="n">
         <v>-1.043962888335491</v>
       </c>
+      <c r="K58" t="n">
+        <v>-1.041503569822325</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2320,6 +2494,9 @@
       <c r="J59" t="n">
         <v>-0.7906159247371723</v>
       </c>
+      <c r="K59" t="n">
+        <v>-0.7866352439347829</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2352,6 +2529,9 @@
       <c r="J60" t="n">
         <v>-0.4123866119899833</v>
       </c>
+      <c r="K60" t="n">
+        <v>-0.4077955551922001</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2384,6 +2564,9 @@
       <c r="J61" t="n">
         <v>0.3850466980533881</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.386056960631079</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2416,6 +2599,9 @@
       <c r="J62" t="n">
         <v>-1.141063208172107</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1.140389281497219</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2448,6 +2634,9 @@
       <c r="J63" t="n">
         <v>-0.6043555889409551</v>
       </c>
+      <c r="K63" t="n">
+        <v>-0.5924970337770309</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2480,6 +2669,9 @@
       <c r="J64" t="n">
         <v>-0.85172341478155</v>
       </c>
+      <c r="K64" t="n">
+        <v>-0.8467644532670651</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2512,6 +2704,9 @@
       <c r="J65" t="n">
         <v>-0.0315379183091941</v>
       </c>
+      <c r="K65" t="n">
+        <v>-0.02718114588623949</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2544,6 +2739,9 @@
       <c r="J66" t="n">
         <v>-0.7163185571894917</v>
       </c>
+      <c r="K66" t="n">
+        <v>-0.7162792700741308</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2575,6 +2773,9 @@
       </c>
       <c r="J67" t="n">
         <v>-0.6741687160153688</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6758773400182183</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-0.2263147394406436</v>
       </c>
+      <c r="L2" t="n">
+        <v>-0.2211397768729148</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>0.2717850636002807</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.2755750231986692</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.2279881307267739</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.2344642515370154</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>-0.03112220062566946</v>
       </c>
+      <c r="L5" t="n">
+        <v>-0.02983942691179553</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>0.2227932971120828</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.2261375219799158</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.384872701203766</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.3799142355650317</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.1684722086625474</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.1603144092268096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>-0.3089938838405888</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.3000720754651912</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.4266275928263639</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4289167967583387</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>-0.1853098100163826</v>
       </c>
+      <c r="L11" t="n">
+        <v>-0.1820663526376022</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>0.000374534480007252</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.0007137425014905122</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -887,6 +923,9 @@
       <c r="K13" t="n">
         <v>-0.01285780794614196</v>
       </c>
+      <c r="L13" t="n">
+        <v>-0.01423704199040719</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -922,6 +961,9 @@
       <c r="K14" t="n">
         <v>0.2157638511292935</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.2172186803912098</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -957,6 +999,9 @@
       <c r="K15" t="n">
         <v>0.1404705344753795</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.1371992468961042</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -992,6 +1037,9 @@
       <c r="K16" t="n">
         <v>0.5832708943215821</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.5833615483502461</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1027,6 +1075,9 @@
       <c r="K17" t="n">
         <v>0.6862796043443931</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.6773879495601896</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1113,9 @@
       <c r="K18" t="n">
         <v>-0.03334882377961779</v>
       </c>
+      <c r="L18" t="n">
+        <v>-0.04177435223283127</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1097,6 +1151,9 @@
       <c r="K19" t="n">
         <v>0.4375034608790292</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.4329758937111037</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1132,6 +1189,9 @@
       <c r="K20" t="n">
         <v>0.4967471784505567</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.493308607708888</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1167,6 +1227,9 @@
       <c r="K21" t="n">
         <v>0.7033240236903844</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.7003072187268422</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1202,6 +1265,9 @@
       <c r="K22" t="n">
         <v>0.482688595024351</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.4763381019671614</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1237,6 +1303,9 @@
       <c r="K23" t="n">
         <v>0.02515149469978528</v>
       </c>
+      <c r="L23" t="n">
+        <v>0.01914431408119785</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1272,6 +1341,9 @@
       <c r="K24" t="n">
         <v>3.071028279594573</v>
       </c>
+      <c r="L24" t="n">
+        <v>2.817454663909229</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1307,6 +1379,9 @@
       <c r="K25" t="n">
         <v>0.3237670475824114</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.3143735184486868</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1342,6 +1417,9 @@
       <c r="K26" t="n">
         <v>0.2065747240820392</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.1914400655450672</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1377,6 +1455,9 @@
       <c r="K27" t="n">
         <v>0.109279714901124</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.0925857430020284</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1412,6 +1493,9 @@
       <c r="K28" t="n">
         <v>0.8505713530651282</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.8331143333711435</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1447,6 +1531,9 @@
       <c r="K29" t="n">
         <v>2.721225335726594</v>
       </c>
+      <c r="L29" t="n">
+        <v>2.488802506225385</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1482,6 +1569,9 @@
       <c r="K30" t="n">
         <v>0.6919631541977967</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.6740494485418927</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1517,6 +1607,9 @@
       <c r="K31" t="n">
         <v>-0.4672094249286972</v>
       </c>
+      <c r="L31" t="n">
+        <v>-0.4785474815702068</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1552,6 +1645,9 @@
       <c r="K32" t="n">
         <v>0.5709157376003243</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.556100294364874</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1587,6 +1683,9 @@
       <c r="K33" t="n">
         <v>0.7631112301060949</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.7539830698603943</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1622,6 +1721,9 @@
       <c r="K34" t="n">
         <v>-0.822673621279946</v>
       </c>
+      <c r="L34" t="n">
+        <v>-0.83351139004807</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1657,6 +1759,9 @@
       <c r="K35" t="n">
         <v>0.7731974975983481</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.7723557412226864</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1692,6 +1797,9 @@
       <c r="K36" t="n">
         <v>0.7046258448534671</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.7049797274585506</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1727,6 +1835,9 @@
       <c r="K37" t="n">
         <v>0.668995538105727</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.6689105052420556</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1762,6 +1873,9 @@
       <c r="K38" t="n">
         <v>0.6324902626442062</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.6289030712259477</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1797,6 +1911,9 @@
       <c r="K39" t="n">
         <v>0.5701168638013423</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.5712481134051712</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1832,6 +1949,9 @@
       <c r="K40" t="n">
         <v>0.7355663449759041</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.7356306311068138</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1867,6 +1987,9 @@
       <c r="K41" t="n">
         <v>0.5402762158281607</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.5422331386345769</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1902,6 +2025,9 @@
       <c r="K42" t="n">
         <v>0.5735525035427539</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.5702689447879846</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1937,6 +2063,9 @@
       <c r="K43" t="n">
         <v>0.6510287760871292</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.6496903962298789</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1972,6 +2101,9 @@
       <c r="K44" t="n">
         <v>0.6544698938854663</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.6562961956593455</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2007,6 +2139,9 @@
       <c r="K45" t="n">
         <v>0.6027076119621086</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.605675250905906</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2042,6 +2177,9 @@
       <c r="K46" t="n">
         <v>-1.282194874403808</v>
       </c>
+      <c r="L46" t="n">
+        <v>-1.283805655718004</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2077,6 +2215,9 @@
       <c r="K47" t="n">
         <v>-1.00131746934896</v>
       </c>
+      <c r="L47" t="n">
+        <v>-1.002791127697672</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2112,6 +2253,9 @@
       <c r="K48" t="n">
         <v>-0.8848821747838519</v>
       </c>
+      <c r="L48" t="n">
+        <v>-0.8839734902584607</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2147,6 +2291,9 @@
       <c r="K49" t="n">
         <v>-0.6457256818496846</v>
       </c>
+      <c r="L49" t="n">
+        <v>-0.6449253750848262</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2182,6 +2329,9 @@
       <c r="K50" t="n">
         <v>-0.05682766489503298</v>
       </c>
+      <c r="L50" t="n">
+        <v>-0.05797765271779932</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2217,6 +2367,9 @@
       <c r="K51" t="n">
         <v>-0.8740282883607695</v>
       </c>
+      <c r="L51" t="n">
+        <v>-0.8727848344716179</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2252,6 +2405,9 @@
       <c r="K52" t="n">
         <v>-0.8740282883607695</v>
       </c>
+      <c r="L52" t="n">
+        <v>-0.8727848344716179</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2287,6 +2443,9 @@
       <c r="K53" t="n">
         <v>-1.140611014895996</v>
       </c>
+      <c r="L53" t="n">
+        <v>-1.141544941170998</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2322,6 +2481,9 @@
       <c r="K54" t="n">
         <v>-0.1779233916458966</v>
       </c>
+      <c r="L54" t="n">
+        <v>-0.1771620713646248</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2357,6 +2519,9 @@
       <c r="K55" t="n">
         <v>-1.019440975371285</v>
       </c>
+      <c r="L55" t="n">
+        <v>-1.021106841556772</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2392,6 +2557,9 @@
       <c r="K56" t="n">
         <v>-0.8847358343392823</v>
       </c>
+      <c r="L56" t="n">
+        <v>-0.887002513812484</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2427,6 +2595,9 @@
       <c r="K57" t="n">
         <v>-0.889921559534281</v>
       </c>
+      <c r="L57" t="n">
+        <v>-0.8915396623461538</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2462,6 +2633,9 @@
       <c r="K58" t="n">
         <v>-1.041503569822325</v>
       </c>
+      <c r="L58" t="n">
+        <v>-1.040922277972139</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2497,6 +2671,9 @@
       <c r="K59" t="n">
         <v>-0.7866352439347829</v>
       </c>
+      <c r="L59" t="n">
+        <v>-0.7836936111131766</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2532,6 +2709,9 @@
       <c r="K60" t="n">
         <v>-0.4077955551922001</v>
       </c>
+      <c r="L60" t="n">
+        <v>-0.4047770749156959</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2567,6 +2747,9 @@
       <c r="K61" t="n">
         <v>0.386056960631079</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.386813760150417</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2602,6 +2785,9 @@
       <c r="K62" t="n">
         <v>-1.140389281497219</v>
       </c>
+      <c r="L62" t="n">
+        <v>-1.14155912565664</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2637,6 +2823,9 @@
       <c r="K63" t="n">
         <v>-0.5924970337770309</v>
       </c>
+      <c r="L63" t="n">
+        <v>-0.5824451729878092</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2672,6 +2861,9 @@
       <c r="K64" t="n">
         <v>-0.8467644532670651</v>
       </c>
+      <c r="L64" t="n">
+        <v>-0.8428365124977082</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2707,6 +2899,9 @@
       <c r="K65" t="n">
         <v>-0.02718114588623949</v>
       </c>
+      <c r="L65" t="n">
+        <v>-0.02421691871878334</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2742,6 +2937,9 @@
       <c r="K66" t="n">
         <v>-0.7162792700741308</v>
       </c>
+      <c r="L66" t="n">
+        <v>-0.7180921790665369</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2776,6 +2974,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.6758773400182183</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6798081119307674</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-0.2211397768729148</v>
       </c>
+      <c r="M2" t="n">
+        <v>-0.2171369372389734</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>0.2755750231986692</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.2782696224133283</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.2344642515370154</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.2398039157243176</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>-0.02983942691179553</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.02938472518240442</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>0.2261375219799158</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.2282663202580789</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.3799142355650317</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.3759306115006031</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.1603144092268096</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.1531214876674478</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>-0.3000720754651912</v>
       </c>
+      <c r="M9" t="n">
+        <v>-0.2926231006574438</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.4289167967583387</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.4301403936046651</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>-0.1820663526376022</v>
       </c>
+      <c r="M11" t="n">
+        <v>-0.1796310988909042</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>0.0007137425014905122</v>
       </c>
+      <c r="M12" t="n">
+        <v>-0.0006713789859079874</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -926,6 +962,9 @@
       <c r="L13" t="n">
         <v>-0.01423704199040719</v>
       </c>
+      <c r="M13" t="n">
+        <v>-0.01588941369449653</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -964,6 +1003,9 @@
       <c r="L14" t="n">
         <v>0.2172186803912098</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.2155334132432131</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1002,6 +1044,9 @@
       <c r="L15" t="n">
         <v>0.1371992468961042</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.1304647875990089</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1040,6 +1085,9 @@
       <c r="L16" t="n">
         <v>0.5833615483502461</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.5787734934021564</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1078,6 +1126,9 @@
       <c r="L17" t="n">
         <v>0.6773879495601896</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.6657783012435499</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1167,9 @@
       <c r="L18" t="n">
         <v>-0.04177435223283127</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.05021644749170238</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1154,6 +1208,9 @@
       <c r="L19" t="n">
         <v>0.4329758937111037</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.4270090780690378</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1249,9 @@
       <c r="L20" t="n">
         <v>0.493308607708888</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.4854893835451067</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1230,6 +1290,9 @@
       <c r="L21" t="n">
         <v>0.7003072187268422</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.6937526614268629</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1268,6 +1331,9 @@
       <c r="L22" t="n">
         <v>0.4763381019671614</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.467252806939946</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1306,6 +1372,9 @@
       <c r="L23" t="n">
         <v>0.01914431408119785</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.0108701862991423</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1344,6 +1413,9 @@
       <c r="L24" t="n">
         <v>2.817454663909229</v>
       </c>
+      <c r="M24" t="n">
+        <v>2.573516186061338</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1382,6 +1454,9 @@
       <c r="L25" t="n">
         <v>0.3143735184486868</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.3069546907348606</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1420,6 +1495,9 @@
       <c r="L26" t="n">
         <v>0.1914400655450672</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.1778913614888354</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1458,6 +1536,9 @@
       <c r="L27" t="n">
         <v>0.0925857430020284</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.07786038216293203</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1496,6 +1577,9 @@
       <c r="L28" t="n">
         <v>0.8331143333711435</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.8182800996295665</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1534,6 +1618,9 @@
       <c r="L29" t="n">
         <v>2.488802506225385</v>
       </c>
+      <c r="M29" t="n">
+        <v>2.282992268240389</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1572,6 +1659,9 @@
       <c r="L30" t="n">
         <v>0.6740494485418927</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.6593278052185253</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1610,6 +1700,9 @@
       <c r="L31" t="n">
         <v>-0.4785474815702068</v>
       </c>
+      <c r="M31" t="n">
+        <v>-0.4864629994359099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1648,6 +1741,9 @@
       <c r="L32" t="n">
         <v>0.556100294364874</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.5437468185981942</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1686,6 +1782,9 @@
       <c r="L33" t="n">
         <v>0.7539830698603943</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.7466873012659369</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1724,6 +1823,9 @@
       <c r="L34" t="n">
         <v>-0.83351139004807</v>
       </c>
+      <c r="M34" t="n">
+        <v>-0.8423758447689382</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1762,6 +1864,9 @@
       <c r="L35" t="n">
         <v>0.7723557412226864</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.772341616704707</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1800,6 +1905,9 @@
       <c r="L36" t="n">
         <v>0.7049797274585506</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.7066471980533519</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,6 +1946,9 @@
       <c r="L37" t="n">
         <v>0.6689105052420556</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.6702641668623013</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1876,6 +1987,9 @@
       <c r="L38" t="n">
         <v>0.6289030712259477</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.6264969153559353</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1914,6 +2028,9 @@
       <c r="L39" t="n">
         <v>0.5712481134051712</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.5728015298647987</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1952,6 +2069,9 @@
       <c r="L40" t="n">
         <v>0.7356306311068138</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.7362541349663312</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1990,6 +2110,9 @@
       <c r="L41" t="n">
         <v>0.5422331386345769</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.544594807828811</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2028,6 +2151,9 @@
       <c r="L42" t="n">
         <v>0.5702689447879846</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.5688720173375675</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2066,6 +2192,9 @@
       <c r="L43" t="n">
         <v>0.6496903962298789</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.6492750731733944</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2104,6 +2233,9 @@
       <c r="L44" t="n">
         <v>0.6562961956593455</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.658732397643319</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2142,6 +2274,9 @@
       <c r="L45" t="n">
         <v>0.605675250905906</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6101166704947699</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2180,6 +2315,9 @@
       <c r="L46" t="n">
         <v>-1.283805655718004</v>
       </c>
+      <c r="M46" t="n">
+        <v>-1.285504562736838</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2218,6 +2356,9 @@
       <c r="L47" t="n">
         <v>-1.002791127697672</v>
       </c>
+      <c r="M47" t="n">
+        <v>-1.00422995750732</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2256,6 +2397,9 @@
       <c r="L48" t="n">
         <v>-0.8839734902584607</v>
       </c>
+      <c r="M48" t="n">
+        <v>-0.8830312435535359</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2294,6 +2438,9 @@
       <c r="L49" t="n">
         <v>-0.6449253750848262</v>
       </c>
+      <c r="M49" t="n">
+        <v>-0.6441920261208597</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2332,6 +2479,9 @@
       <c r="L50" t="n">
         <v>-0.05797765271779932</v>
       </c>
+      <c r="M50" t="n">
+        <v>-0.05918340865811295</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2370,6 +2520,9 @@
       <c r="L51" t="n">
         <v>-0.8727848344716179</v>
       </c>
+      <c r="M51" t="n">
+        <v>-0.8714394469464096</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2408,6 +2561,9 @@
       <c r="L52" t="n">
         <v>-0.8727848344716179</v>
       </c>
+      <c r="M52" t="n">
+        <v>-0.8714394469464096</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2446,6 +2602,9 @@
       <c r="L53" t="n">
         <v>-1.141544941170998</v>
       </c>
+      <c r="M53" t="n">
+        <v>-1.142164881023445</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2484,6 +2643,9 @@
       <c r="L54" t="n">
         <v>-0.1771620713646248</v>
       </c>
+      <c r="M54" t="n">
+        <v>-0.1766005839726585</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2522,6 +2684,9 @@
       <c r="L55" t="n">
         <v>-1.021106841556772</v>
       </c>
+      <c r="M55" t="n">
+        <v>-1.022789139841051</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2560,6 +2725,9 @@
       <c r="L56" t="n">
         <v>-0.887002513812484</v>
       </c>
+      <c r="M56" t="n">
+        <v>-0.8895309772714025</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2598,6 +2766,9 @@
       <c r="L57" t="n">
         <v>-0.8915396623461538</v>
       </c>
+      <c r="M57" t="n">
+        <v>-0.8943935380708028</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2636,6 +2807,9 @@
       <c r="L58" t="n">
         <v>-1.040922277972139</v>
       </c>
+      <c r="M58" t="n">
+        <v>-1.041999781476983</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2674,6 +2848,9 @@
       <c r="L59" t="n">
         <v>-0.7836936111131766</v>
       </c>
+      <c r="M59" t="n">
+        <v>-0.7817351185448971</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2712,6 +2889,9 @@
       <c r="L60" t="n">
         <v>-0.4047770749156959</v>
       </c>
+      <c r="M60" t="n">
+        <v>-0.403174737767959</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2750,6 +2930,9 @@
       <c r="L61" t="n">
         <v>0.386813760150417</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.3873274529637227</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2788,6 +2971,9 @@
       <c r="L62" t="n">
         <v>-1.14155912565664</v>
       </c>
+      <c r="M62" t="n">
+        <v>-1.144362046531449</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2826,6 +3012,9 @@
       <c r="L63" t="n">
         <v>-0.5824451729878092</v>
       </c>
+      <c r="M63" t="n">
+        <v>-0.5741132554913533</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2864,6 +3053,9 @@
       <c r="L64" t="n">
         <v>-0.8428365124977082</v>
       </c>
+      <c r="M64" t="n">
+        <v>-0.8399657711417845</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2902,6 +3094,9 @@
       <c r="L65" t="n">
         <v>-0.02421691871878334</v>
       </c>
+      <c r="M65" t="n">
+        <v>-0.0224935447423986</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2940,6 +3135,9 @@
       <c r="L66" t="n">
         <v>-0.7180921790665369</v>
       </c>
+      <c r="M66" t="n">
+        <v>-0.7214778776448202</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2977,6 +3175,9 @@
       </c>
       <c r="L67" t="n">
         <v>-0.6798081119307674</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6855493337885756</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-0.2171369372389734</v>
       </c>
+      <c r="N2" t="n">
+        <v>-0.2142293967009047</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>0.2782696224133283</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.2799315599486122</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.2398039157243176</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.2440441970585688</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>-0.02938472518240442</v>
       </c>
+      <c r="N5" t="n">
+        <v>-0.02967103789366356</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>0.2282663202580789</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.2293088040829387</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.3759306115006031</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.3728953730432348</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.1531214876674478</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.1468910639869421</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>-0.2926231006574438</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.2866501299975637</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.4301403936046651</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.4304269167340752</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>-0.1796310988909042</v>
       </c>
+      <c r="N11" t="n">
+        <v>-0.1779588812436241</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>-0.0006713789859079874</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.003538202356088718</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -965,6 +1001,9 @@
       <c r="M13" t="n">
         <v>-0.01588941369449653</v>
       </c>
+      <c r="N13" t="n">
+        <v>-0.01778585923247654</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1006,6 +1045,9 @@
       <c r="M14" t="n">
         <v>0.2155334132432131</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.2111457454898525</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1047,6 +1089,9 @@
       <c r="M15" t="n">
         <v>0.1304647875990089</v>
       </c>
+      <c r="N15" t="n">
+        <v>0.1208255234298782</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1133,9 @@
       <c r="M16" t="n">
         <v>0.5787734934021564</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.5702072004673679</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1129,6 +1177,9 @@
       <c r="M17" t="n">
         <v>0.6657783012435499</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.6520014714236313</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1170,6 +1221,9 @@
       <c r="M18" t="n">
         <v>-0.05021644749170238</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.05864043935629991</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1211,6 +1265,9 @@
       <c r="M19" t="n">
         <v>0.4270090780690378</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.4198627903289658</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1252,6 +1309,9 @@
       <c r="M20" t="n">
         <v>0.4854893835451067</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.4740044499508576</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1293,6 +1353,9 @@
       <c r="M21" t="n">
         <v>0.6937526614268629</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.6843254667860558</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1334,6 +1397,9 @@
       <c r="M22" t="n">
         <v>0.467252806939946</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.4559535065119093</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,6 +1441,9 @@
       <c r="M23" t="n">
         <v>0.0108701862991423</v>
       </c>
+      <c r="N23" t="n">
+        <v>0.0007775323925197641</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1416,6 +1485,9 @@
       <c r="M24" t="n">
         <v>2.573516186061338</v>
       </c>
+      <c r="N24" t="n">
+        <v>2.343145644061036</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1457,6 +1529,9 @@
       <c r="M25" t="n">
         <v>0.3069546907348606</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.3013039371250468</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1498,6 +1573,9 @@
       <c r="M26" t="n">
         <v>0.1778913614888354</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.1659485515197782</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1539,6 +1617,9 @@
       <c r="M27" t="n">
         <v>0.07786038216293203</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.06506873928679857</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1580,6 +1661,9 @@
       <c r="M28" t="n">
         <v>0.8182800996295665</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.8059956653834522</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1621,6 +1705,9 @@
       <c r="M29" t="n">
         <v>2.282992268240389</v>
       </c>
+      <c r="N29" t="n">
+        <v>2.103074732510383</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1662,6 +1749,9 @@
       <c r="M30" t="n">
         <v>0.6593278052185253</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.6475418811157914</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1703,6 +1793,9 @@
       <c r="M31" t="n">
         <v>-0.4864629994359099</v>
       </c>
+      <c r="N31" t="n">
+        <v>-0.4914213537088831</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1744,6 +1837,9 @@
       <c r="M32" t="n">
         <v>0.5437468185981942</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5337165282423902</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1785,6 +1881,9 @@
       <c r="M33" t="n">
         <v>0.7466873012659369</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.7410719039678104</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1826,6 +1925,9 @@
       <c r="M34" t="n">
         <v>-0.8423758447689382</v>
       </c>
+      <c r="N34" t="n">
+        <v>-0.849433114809565</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1867,6 +1969,9 @@
       <c r="M35" t="n">
         <v>0.772341616704707</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.7730675589158804</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1908,6 +2013,9 @@
       <c r="M36" t="n">
         <v>0.7066471980533519</v>
       </c>
+      <c r="N36" t="n">
+        <v>0.7094309079929048</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1949,6 +2057,9 @@
       <c r="M37" t="n">
         <v>0.6702641668623013</v>
       </c>
+      <c r="N37" t="n">
+        <v>0.6728433434312302</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1990,6 +2101,9 @@
       <c r="M38" t="n">
         <v>0.6264969153559353</v>
       </c>
+      <c r="N38" t="n">
+        <v>0.625131250627232</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2031,6 +2145,9 @@
       <c r="M39" t="n">
         <v>0.5728015298647987</v>
       </c>
+      <c r="N39" t="n">
+        <v>0.574709621165127</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2072,6 +2189,9 @@
       <c r="M40" t="n">
         <v>0.7362541349663312</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.7373941234441699</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2233,9 @@
       <c r="M41" t="n">
         <v>0.544594807828811</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.5472541413401285</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2154,6 +2277,9 @@
       <c r="M42" t="n">
         <v>0.5688720173375675</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.5691164479637745</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2195,6 +2321,9 @@
       <c r="M43" t="n">
         <v>0.6492750731733944</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.6496507905201014</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2236,6 +2365,9 @@
       <c r="M44" t="n">
         <v>0.658732397643319</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.6616608875461547</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2277,6 +2409,9 @@
       <c r="M45" t="n">
         <v>0.6101166704947699</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.6157714157006858</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2318,6 +2453,9 @@
       <c r="M46" t="n">
         <v>-1.285504562736838</v>
       </c>
+      <c r="N46" t="n">
+        <v>-1.287329372645798</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2359,6 +2497,9 @@
       <c r="M47" t="n">
         <v>-1.00422995750732</v>
       </c>
+      <c r="N47" t="n">
+        <v>-1.005680608205788</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2400,6 +2541,9 @@
       <c r="M48" t="n">
         <v>-0.8830312435535359</v>
       </c>
+      <c r="N48" t="n">
+        <v>-0.8821500701780572</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2441,6 +2585,9 @@
       <c r="M49" t="n">
         <v>-0.6441920261208597</v>
       </c>
+      <c r="N49" t="n">
+        <v>-0.6435862562361471</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2482,6 +2629,9 @@
       <c r="M50" t="n">
         <v>-0.05918340865811295</v>
       </c>
+      <c r="N50" t="n">
+        <v>-0.06044537673513736</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2523,6 +2673,9 @@
       <c r="M51" t="n">
         <v>-0.8714394469464096</v>
       </c>
+      <c r="N51" t="n">
+        <v>-0.8700844590100845</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2564,6 +2717,9 @@
       <c r="M52" t="n">
         <v>-0.8714394469464096</v>
       </c>
+      <c r="N52" t="n">
+        <v>-0.8700844590100845</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2605,6 +2761,9 @@
       <c r="M53" t="n">
         <v>-1.142164881023445</v>
       </c>
+      <c r="N53" t="n">
+        <v>-1.142610344649843</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2646,6 +2805,9 @@
       <c r="M54" t="n">
         <v>-0.1766005839726585</v>
       </c>
+      <c r="N54" t="n">
+        <v>-0.1762523069973211</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2687,6 +2849,9 @@
       <c r="M55" t="n">
         <v>-1.022789139841051</v>
       </c>
+      <c r="N55" t="n">
+        <v>-1.0245242242625</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2728,6 +2893,9 @@
       <c r="M56" t="n">
         <v>-0.8895309772714025</v>
       </c>
+      <c r="N56" t="n">
+        <v>-0.8922683283941046</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2769,6 +2937,9 @@
       <c r="M57" t="n">
         <v>-0.8943935380708028</v>
       </c>
+      <c r="N57" t="n">
+        <v>-0.8983250179451302</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2810,6 +2981,9 @@
       <c r="M58" t="n">
         <v>-1.041999781476983</v>
       </c>
+      <c r="N58" t="n">
+        <v>-1.044514536263982</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2851,6 +3025,9 @@
       <c r="M59" t="n">
         <v>-0.7817351185448971</v>
       </c>
+      <c r="N59" t="n">
+        <v>-0.7806918162755193</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2892,6 +3069,9 @@
       <c r="M60" t="n">
         <v>-0.403174737767959</v>
       </c>
+      <c r="N60" t="n">
+        <v>-0.4028268481737472</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2933,6 +3113,9 @@
       <c r="M61" t="n">
         <v>0.3873274529637227</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.387612493754524</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2974,6 +3157,9 @@
       <c r="M62" t="n">
         <v>-1.144362046531449</v>
       </c>
+      <c r="N62" t="n">
+        <v>-1.148580987159611</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3015,6 +3201,9 @@
       <c r="M63" t="n">
         <v>-0.5741132554913533</v>
       </c>
+      <c r="N63" t="n">
+        <v>-0.5673962993658765</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3056,6 +3245,9 @@
       <c r="M64" t="n">
         <v>-0.8399657711417845</v>
       </c>
+      <c r="N64" t="n">
+        <v>-0.8381442634552078</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3097,6 +3289,9 @@
       <c r="M65" t="n">
         <v>-0.0224935447423986</v>
       </c>
+      <c r="N65" t="n">
+        <v>-0.02185910358740835</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3138,6 +3333,9 @@
       <c r="M66" t="n">
         <v>-0.7214778776448202</v>
       </c>
+      <c r="N66" t="n">
+        <v>-0.7261673362591295</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3178,6 +3376,9 @@
       </c>
       <c r="M67" t="n">
         <v>-0.6855493337885756</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6927199787072095</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-0.2142293967009047</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.2123286141810544</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2113384325741148</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>0.2799315599486122</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.2806422488249114</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2804958823148992</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.2440441970585688</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.2472424987166053</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2494714422068397</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>-0.02967103789366356</v>
       </c>
+      <c r="O5" t="n">
+        <v>-0.03060726116934408</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03210133687569865</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>0.2293088040829387</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.2293987297124095</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2286702753273657</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.3728953730432348</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.3707636170640775</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3694764103911551</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.1468910639869421</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.1416017480638137</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1372166492031942</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>-0.2866501299975637</v>
       </c>
+      <c r="O9" t="n">
+        <v>-0.2821150885809545</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2789476303464117</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.4304269167340752</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.4299052574932253</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4287014309838059</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>-0.1779588812436241</v>
       </c>
+      <c r="O11" t="n">
+        <v>-0.176994540550796</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1766759846447533</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.003538202356088718</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.007646563769426171</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01276463117885023</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1004,6 +1076,12 @@
       <c r="N13" t="n">
         <v>-0.01778585923247654</v>
       </c>
+      <c r="O13" t="n">
+        <v>-0.01989313074951216</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02217573121880689</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,6 +1126,12 @@
       <c r="N14" t="n">
         <v>0.2111457454898525</v>
       </c>
+      <c r="O14" t="n">
+        <v>0.2044921535986468</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1959963064723004</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1092,6 +1176,12 @@
       <c r="N15" t="n">
         <v>0.1208255234298782</v>
       </c>
+      <c r="O15" t="n">
+        <v>0.1088265629895376</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09498723562764105</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1226,12 @@
       <c r="N16" t="n">
         <v>0.5702072004673679</v>
       </c>
+      <c r="O16" t="n">
+        <v>0.5583529255474907</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.543873834511716</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1180,6 +1276,12 @@
       <c r="N17" t="n">
         <v>0.6520014714236313</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.6365809349496382</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6200030795157031</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1224,6 +1326,12 @@
       <c r="N18" t="n">
         <v>-0.05864043935629991</v>
       </c>
+      <c r="O18" t="n">
+        <v>-0.06700137456843877</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07524890228224296</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1268,6 +1376,12 @@
       <c r="N19" t="n">
         <v>0.4198627903289658</v>
       </c>
+      <c r="O19" t="n">
+        <v>0.4117892409679826</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4030272248225059</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1312,6 +1426,12 @@
       <c r="N20" t="n">
         <v>0.4740044499508576</v>
       </c>
+      <c r="O20" t="n">
+        <v>0.4595490399953513</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4427833482785049</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,6 +1476,12 @@
       <c r="N21" t="n">
         <v>0.6843254667860558</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.6726483404131413</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6592935502011291</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1400,6 +1526,12 @@
       <c r="N22" t="n">
         <v>0.4559535065119093</v>
       </c>
+      <c r="O22" t="n">
+        <v>0.442936935193281</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4286664387208764</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1444,6 +1576,12 @@
       <c r="N23" t="n">
         <v>0.0007775323925197641</v>
       </c>
+      <c r="O23" t="n">
+        <v>-0.01071004406118947</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02320068754246507</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1488,6 +1626,12 @@
       <c r="N24" t="n">
         <v>2.343145644061036</v>
       </c>
+      <c r="O24" t="n">
+        <v>2.129267379014673</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.933908361639562</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,6 +1676,12 @@
       <c r="N25" t="n">
         <v>0.3013039371250468</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.2972164613841706</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2944929783055771</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1576,6 +1726,12 @@
       <c r="N26" t="n">
         <v>0.1659485515197782</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.1555925582027521</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.146772476677279</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1620,6 +1776,12 @@
       <c r="N27" t="n">
         <v>0.06506873928679857</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.05414252722717917</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04498696216204812</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1664,6 +1826,12 @@
       <c r="N28" t="n">
         <v>0.8059956653834522</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.7961417838026813</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7885639244032622</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1708,6 +1876,12 @@
       <c r="N29" t="n">
         <v>2.103074732510383</v>
       </c>
+      <c r="O29" t="n">
+        <v>1.94797804697396</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.816351350541582</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1752,6 +1926,12 @@
       <c r="N30" t="n">
         <v>0.6475418811157914</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.6384203919377101</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.63168514271259</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1796,6 +1976,12 @@
       <c r="N31" t="n">
         <v>-0.4914213537088831</v>
       </c>
+      <c r="O31" t="n">
+        <v>-0.4938673471016632</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4942192885730101</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1840,6 +2026,12 @@
       <c r="N32" t="n">
         <v>0.5337165282423902</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.5258421976618048</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5199370041543734</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1884,6 +2076,12 @@
       <c r="N33" t="n">
         <v>0.7410719039678104</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.7369746539535632</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7342284753134987</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1928,6 +2126,12 @@
       <c r="N34" t="n">
         <v>-0.849433114809565</v>
       </c>
+      <c r="O34" t="n">
+        <v>-0.8548609144372066</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8588423889489416</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1972,6 +2176,12 @@
       <c r="N35" t="n">
         <v>0.7730675589158804</v>
       </c>
+      <c r="O35" t="n">
+        <v>0.7744392247408676</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7763594871408406</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2016,6 +2226,12 @@
       <c r="N36" t="n">
         <v>0.7094309079929048</v>
       </c>
+      <c r="O36" t="n">
+        <v>0.7131360004287399</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7175749745382758</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2060,6 +2276,12 @@
       <c r="N37" t="n">
         <v>0.6728433434312302</v>
       </c>
+      <c r="O37" t="n">
+        <v>0.6764379034172825</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6808458504333984</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2104,6 +2326,12 @@
       <c r="N38" t="n">
         <v>0.625131250627232</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.6246663880177192</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6249665651413908</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2148,6 +2376,12 @@
       <c r="N39" t="n">
         <v>0.574709621165127</v>
       </c>
+      <c r="O39" t="n">
+        <v>0.5769037248062474</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5793163945008715</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2192,6 +2426,12 @@
       <c r="N40" t="n">
         <v>0.7373941234441699</v>
       </c>
+      <c r="O40" t="n">
+        <v>0.7389965612255849</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7410001860364078</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2236,6 +2476,12 @@
       <c r="N41" t="n">
         <v>0.5472541413401285</v>
       </c>
+      <c r="O41" t="n">
+        <v>0.5501149398814518</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5530923126277147</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2280,6 +2526,12 @@
       <c r="N42" t="n">
         <v>0.5691164479637745</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.5707576280598841</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5735577490481616</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2324,6 +2576,12 @@
       <c r="N43" t="n">
         <v>0.6496507905201014</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.6506893427668226</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6522687713161107</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2368,6 +2626,12 @@
       <c r="N44" t="n">
         <v>0.6616608875461547</v>
       </c>
+      <c r="O44" t="n">
+        <v>0.6649690080938543</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6685513165487603</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2412,6 +2676,12 @@
       <c r="N45" t="n">
         <v>0.6157714157006858</v>
       </c>
+      <c r="O45" t="n">
+        <v>0.622386513462647</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6297222862159952</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2456,6 +2726,12 @@
       <c r="N46" t="n">
         <v>-1.287329372645798</v>
       </c>
+      <c r="O46" t="n">
+        <v>-1.289307120399633</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.291455389305074</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2500,6 +2776,12 @@
       <c r="N47" t="n">
         <v>-1.005680608205788</v>
       </c>
+      <c r="O47" t="n">
+        <v>-1.007180533338316</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.008758729439567</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2544,6 +2826,12 @@
       <c r="N48" t="n">
         <v>-0.8821500701780572</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.8814066974593167</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8808612095507597</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2588,6 +2876,12 @@
       <c r="N49" t="n">
         <v>-0.6435862562361471</v>
       </c>
+      <c r="O49" t="n">
+        <v>-0.6431552901916593</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6429341219369386</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2632,6 +2926,12 @@
       <c r="N50" t="n">
         <v>-0.06044537673513736</v>
       </c>
+      <c r="O50" t="n">
+        <v>-0.06176224650558609</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06313129974846371</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2676,6 +2976,12 @@
       <c r="N51" t="n">
         <v>-0.8700844590100845</v>
       </c>
+      <c r="O51" t="n">
+        <v>-0.8687980924242786</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8676448101837517</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2720,6 +3026,12 @@
       <c r="N52" t="n">
         <v>-0.8700844590100845</v>
       </c>
+      <c r="O52" t="n">
+        <v>-0.8687980924242786</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8676448101837517</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2764,6 +3076,12 @@
       <c r="N53" t="n">
         <v>-1.142610344649843</v>
       </c>
+      <c r="O53" t="n">
+        <v>-1.142998077218724</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.143423519736369</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2808,6 +3126,12 @@
       <c r="N54" t="n">
         <v>-0.1762523069973211</v>
       </c>
+      <c r="O54" t="n">
+        <v>-0.1761241355077686</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.176217323589011</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2852,6 +3176,12 @@
       <c r="N55" t="n">
         <v>-1.0245242242625</v>
       </c>
+      <c r="O55" t="n">
+        <v>-1.026340153066237</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.028257477824979</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2896,6 +3226,12 @@
       <c r="N56" t="n">
         <v>-0.8922683283941046</v>
       </c>
+      <c r="O56" t="n">
+        <v>-0.8951673565883945</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8981863926834318</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2940,6 +3276,12 @@
       <c r="N57" t="n">
         <v>-0.8983250179451302</v>
       </c>
+      <c r="O57" t="n">
+        <v>-0.9031731466840305</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9087790302577422</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2984,6 +3326,12 @@
       <c r="N58" t="n">
         <v>-1.044514536263982</v>
       </c>
+      <c r="O58" t="n">
+        <v>-1.048248475890101</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.052991668323798</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3028,6 +3376,12 @@
       <c r="N59" t="n">
         <v>-0.7806918162755193</v>
       </c>
+      <c r="O59" t="n">
+        <v>-0.7804872322218139</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7810395037827648</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3072,6 +3426,12 @@
       <c r="N60" t="n">
         <v>-0.4028268481737472</v>
       </c>
+      <c r="O60" t="n">
+        <v>-0.4035710939319783</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4052484035032001</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3116,6 +3476,12 @@
       <c r="N61" t="n">
         <v>0.387612493754524</v>
       </c>
+      <c r="O61" t="n">
+        <v>0.3876863472733614</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3875685168637688</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3160,6 +3526,12 @@
       <c r="N62" t="n">
         <v>-1.148580987159611</v>
       </c>
+      <c r="O62" t="n">
+        <v>-1.153999290858473</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.160406186532106</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3204,6 +3576,12 @@
       <c r="N63" t="n">
         <v>-0.5673962993658765</v>
       </c>
+      <c r="O63" t="n">
+        <v>-0.5621759172984812</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5583247451476516</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3248,6 +3626,12 @@
       <c r="N64" t="n">
         <v>-0.8381442634552078</v>
       </c>
+      <c r="O64" t="n">
+        <v>-0.8373365953329057</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8374860994504977</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3292,6 +3676,12 @@
       <c r="N65" t="n">
         <v>-0.02185910358740835</v>
       </c>
+      <c r="O65" t="n">
+        <v>-0.02216477705147883</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02326755569959565</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3336,6 +3726,12 @@
       <c r="N66" t="n">
         <v>-0.7261673362591295</v>
       </c>
+      <c r="O66" t="n">
+        <v>-0.7319065733559073</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7384600992190589</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3379,6 +3775,12 @@
       </c>
       <c r="N67" t="n">
         <v>-0.6927199787072095</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7009731036782273</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7099978155220478</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.2113384325741148</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.211158644792358</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>0.2804958823148992</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.2795943173910356</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.2494714422068397</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.2508143013418576</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>-0.03210133687569865</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-0.03406278492298594</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>0.2286702753273657</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.2272545868357012</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.3694764103911551</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.3689647548491697</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.1372166492031942</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.1336866963191647</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>-0.2789476303464117</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.2770532343630427</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.4287014309838059</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.4269360055105585</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>-0.1766759846447533</v>
       </c>
+      <c r="Q11" t="n">
+        <v>-0.1769368704668167</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.01276463117885023</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.01867343351677009</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1082,6 +1118,9 @@
       <c r="P13" t="n">
         <v>-0.02217573121880689</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.02459750234672312</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1132,6 +1171,9 @@
       <c r="P14" t="n">
         <v>0.1959963064723004</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.1860600437643202</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P15" t="n">
         <v>0.09498723562764105</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0.07979169799958404</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1277,9 @@
       <c r="P16" t="n">
         <v>0.543873834511716</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.5273931001859499</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1282,6 +1330,9 @@
       <c r="P17" t="n">
         <v>0.6200030795157031</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.6027104006281583</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1332,6 +1383,9 @@
       <c r="P18" t="n">
         <v>-0.07524890228224296</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-0.08333116881489981</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1436,9 @@
       <c r="P19" t="n">
         <v>0.4030272248225059</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.3937978110729924</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1432,6 +1489,9 @@
       <c r="P20" t="n">
         <v>0.4427833482785049</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.4243211084363148</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1482,6 +1542,9 @@
       <c r="P21" t="n">
         <v>0.6592935502011291</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.6447776986917432</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1532,6 +1595,9 @@
       <c r="P22" t="n">
         <v>0.4286664387208764</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.4135653774060747</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1582,6 +1648,9 @@
       <c r="P23" t="n">
         <v>-0.02320068754246507</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-0.03633901846189906</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1632,6 +1701,9 @@
       <c r="P24" t="n">
         <v>1.933908361639562</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1.758312161966833</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1682,6 +1754,9 @@
       <c r="P25" t="n">
         <v>0.2944929783055771</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.2929427059464579</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1732,6 +1807,9 @@
       <c r="P26" t="n">
         <v>0.146772476677279</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.139412322699214</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1782,6 +1860,9 @@
       <c r="P27" t="n">
         <v>0.04498696216204812</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.0374871907059609</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +1913,9 @@
       <c r="P28" t="n">
         <v>0.7885639244032622</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.7830821902912168</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1882,6 +1966,9 @@
       <c r="P29" t="n">
         <v>1.816351350541582</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1.70663376038317</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1932,6 +2019,9 @@
       <c r="P30" t="n">
         <v>0.63168514271259</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.6270579380432411</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1982,6 +2072,9 @@
       <c r="P31" t="n">
         <v>-0.4942192885730101</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-0.4928646619206307</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2032,6 +2125,9 @@
       <c r="P32" t="n">
         <v>0.5199370041543734</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.5158023240171323</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2082,6 +2178,9 @@
       <c r="P33" t="n">
         <v>0.7342284753134987</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.7326660022600666</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2132,6 +2231,9 @@
       <c r="P34" t="n">
         <v>-0.8588423889489416</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.8615608854545251</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2182,6 +2284,9 @@
       <c r="P35" t="n">
         <v>0.7763594871408406</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.7787317174948325</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2232,6 +2337,9 @@
       <c r="P36" t="n">
         <v>0.7175749745382758</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.7225714111846522</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2282,6 +2390,9 @@
       <c r="P37" t="n">
         <v>0.6808458504333984</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.6858772176941222</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2332,6 +2443,9 @@
       <c r="P38" t="n">
         <v>0.6249665651413908</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.625902383322924</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2382,6 +2496,9 @@
       <c r="P39" t="n">
         <v>0.5793163945008715</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.5818832633126325</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +2549,9 @@
       <c r="P40" t="n">
         <v>0.7410001860364078</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.7433399408183108</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2482,6 +2602,9 @@
       <c r="P41" t="n">
         <v>0.5530923126277147</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.5561127283705404</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2532,6 +2655,9 @@
       <c r="P42" t="n">
         <v>0.5735577490481616</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.5772906207351899</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2582,6 +2708,9 @@
       <c r="P43" t="n">
         <v>0.6522687713161107</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.654275199465147</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2632,6 +2761,9 @@
       <c r="P44" t="n">
         <v>0.6685513165487603</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.6723111995198728</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2682,6 +2814,9 @@
       <c r="P45" t="n">
         <v>0.6297222862159952</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.6375566526229257</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2732,6 +2867,9 @@
       <c r="P46" t="n">
         <v>-1.291455389305074</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-1.293783573615555</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2782,6 +2920,9 @@
       <c r="P47" t="n">
         <v>-1.008758729439567</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-1.010436529310427</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2832,6 +2973,9 @@
       <c r="P48" t="n">
         <v>-0.8808612095507597</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.8805584919784137</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2882,6 +3026,9 @@
       <c r="P49" t="n">
         <v>-0.6429341219369386</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.6429467707980068</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2932,6 +3079,9 @@
       <c r="P50" t="n">
         <v>-0.06313129974846371</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.06454871669894244</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2982,6 +3132,9 @@
       <c r="P51" t="n">
         <v>-0.8676448101837517</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.8666759665248595</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3032,6 +3185,9 @@
       <c r="P52" t="n">
         <v>-0.8676448101837517</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-0.8666759665248595</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3082,6 +3238,9 @@
       <c r="P53" t="n">
         <v>-1.143423519736369</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.143962490747444</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3132,6 +3291,9 @@
       <c r="P54" t="n">
         <v>-0.176217323589011</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-0.1765283211180024</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3182,6 +3344,9 @@
       <c r="P55" t="n">
         <v>-1.028257477824979</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-1.030290053898003</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3232,6 +3397,9 @@
       <c r="P56" t="n">
         <v>-0.8981863926834318</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-0.901289056695282</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3282,6 +3450,9 @@
       <c r="P57" t="n">
         <v>-0.9087790302577422</v>
       </c>
+      <c r="Q57" t="n">
+        <v>-0.9149896763449773</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3332,6 +3503,9 @@
       <c r="P58" t="n">
         <v>-1.052991668323798</v>
       </c>
+      <c r="Q58" t="n">
+        <v>-1.058545902323279</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3382,6 +3556,9 @@
       <c r="P59" t="n">
         <v>-0.7810395037827648</v>
       </c>
+      <c r="Q59" t="n">
+        <v>-0.7822640913997513</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3432,6 +3609,9 @@
       <c r="P60" t="n">
         <v>-0.4052484035032001</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-0.4077060349702949</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3482,6 +3662,9 @@
       <c r="P61" t="n">
         <v>0.3875685168637688</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.387279700779426</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3532,6 +3715,9 @@
       <c r="P62" t="n">
         <v>-1.160406186532106</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-1.167601066623148</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3582,6 +3768,9 @@
       <c r="P63" t="n">
         <v>-0.5583247451476516</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-0.5557103937302234</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3632,6 +3821,9 @@
       <c r="P64" t="n">
         <v>-0.8374860994504977</v>
       </c>
+      <c r="Q64" t="n">
+        <v>-0.8385203540784596</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3682,6 +3874,9 @@
       <c r="P65" t="n">
         <v>-0.02326755569959565</v>
       </c>
+      <c r="Q65" t="n">
+        <v>-0.02503234178498046</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3732,6 +3927,9 @@
       <c r="P66" t="n">
         <v>-0.7384600992190589</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-0.7456132470878488</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3781,6 +3979,9 @@
       </c>
       <c r="P67" t="n">
         <v>-0.7099978155220478</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7195199800171216</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.211158644792358</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2116880150307328</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>0.2795943173910356</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.2780427682640482</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.2508143013418576</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.2513610163736237</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>-0.03406278492298594</v>
       </c>
+      <c r="R5" t="n">
+        <v>-0.03640470607538583</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>0.2272545868357012</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.2252770522908377</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.3689647548491697</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.3691530675122823</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.1336866963191647</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.1309536983464452</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>-0.2770532343630427</v>
       </c>
+      <c r="R9" t="n">
+        <v>-0.2763203565516391</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.4269360055105585</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.4247221515580205</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>-0.1769368704668167</v>
       </c>
+      <c r="R11" t="n">
+        <v>-0.1777088988189815</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.01867343351677009</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.02517016977227834</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1121,6 +1157,9 @@
       <c r="Q13" t="n">
         <v>-0.02459750234672312</v>
       </c>
+      <c r="R13" t="n">
+        <v>-0.02712288904181191</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1174,6 +1213,9 @@
       <c r="Q14" t="n">
         <v>0.1860600437643202</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.1750566995766283</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1227,6 +1269,9 @@
       <c r="Q15" t="n">
         <v>0.07979169799958404</v>
       </c>
+      <c r="R15" t="n">
+        <v>0.06368234729871215</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1325,9 @@
       <c r="Q16" t="n">
         <v>0.5273931001859499</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.5094845976693256</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1333,6 +1381,9 @@
       <c r="Q17" t="n">
         <v>0.6027104006281583</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.5850972744797849</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1386,6 +1437,9 @@
       <c r="Q18" t="n">
         <v>-0.08333116881489981</v>
       </c>
+      <c r="R18" t="n">
+        <v>-0.09119782237382942</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1439,6 +1493,9 @@
       <c r="Q19" t="n">
         <v>0.3937978110729924</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.3843014018789481</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1492,6 +1549,9 @@
       <c r="Q20" t="n">
         <v>0.4243211084363148</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.4047216690703878</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,6 +1605,9 @@
       <c r="Q21" t="n">
         <v>0.6447776986917432</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.6295589343742497</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1598,6 +1661,9 @@
       <c r="Q22" t="n">
         <v>0.4135653774060747</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.3980129312087762</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1651,6 +1717,9 @@
       <c r="Q23" t="n">
         <v>-0.03633901846189906</v>
       </c>
+      <c r="R23" t="n">
+        <v>-0.04980893909867326</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1704,6 +1773,9 @@
       <c r="Q24" t="n">
         <v>1.758312161966833</v>
       </c>
+      <c r="R24" t="n">
+        <v>1.603051936206048</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1829,9 @@
       <c r="Q25" t="n">
         <v>0.2929427059464579</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.2923856914264146</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1810,6 +1885,9 @@
       <c r="Q26" t="n">
         <v>0.139412322699214</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.133417216891293</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1863,6 +1941,9 @@
       <c r="Q27" t="n">
         <v>0.0374871907059609</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.03151413052180654</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1916,6 +1997,9 @@
       <c r="Q28" t="n">
         <v>0.7830821902912168</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.7795000776407629</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1969,6 +2053,9 @@
       <c r="Q29" t="n">
         <v>1.70663376038317</v>
       </c>
+      <c r="R29" t="n">
+        <v>1.617117789309284</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2022,6 +2109,9 @@
       <c r="Q30" t="n">
         <v>0.6270579380432411</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.6242663533874153</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,6 +2165,9 @@
       <c r="Q31" t="n">
         <v>-0.4928646619206307</v>
       </c>
+      <c r="R31" t="n">
+        <v>-0.4901572453036147</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2128,6 +2221,9 @@
       <c r="Q32" t="n">
         <v>0.5158023240171323</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.5132344360709362</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,6 +2277,9 @@
       <c r="Q33" t="n">
         <v>0.7326660022600666</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.7321233561832788</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2234,6 +2333,9 @@
       <c r="Q34" t="n">
         <v>-0.8615608854545251</v>
       </c>
+      <c r="R34" t="n">
+        <v>-0.8631956416193756</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2287,6 +2389,9 @@
       <c r="Q35" t="n">
         <v>0.7787317174948325</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.7814624001334266</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2340,6 +2445,9 @@
       <c r="Q36" t="n">
         <v>0.7225714111846522</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.7279626698280078</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2501,9 @@
       <c r="Q37" t="n">
         <v>0.6858772176941222</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.6913568834550867</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2446,6 +2557,9 @@
       <c r="Q38" t="n">
         <v>0.625902383322924</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.6273526529202899</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2499,6 +2613,9 @@
       <c r="Q39" t="n">
         <v>0.5818832633126325</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.5845444344160147</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2552,6 +2669,9 @@
       <c r="Q40" t="n">
         <v>0.7433399408183108</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.7459497941558718</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2605,6 +2725,9 @@
       <c r="Q41" t="n">
         <v>0.5561127283705404</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.5591137614804772</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2658,6 +2781,9 @@
       <c r="Q42" t="n">
         <v>0.5772906207351899</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.581745277203302</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2711,6 +2837,9 @@
       <c r="Q43" t="n">
         <v>0.654275199465147</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.656604123772794</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2764,6 +2893,9 @@
       <c r="Q44" t="n">
         <v>0.6723111995198728</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.6761619222848099</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2817,6 +2949,9 @@
       <c r="Q45" t="n">
         <v>0.6375566526229257</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.6456880837088939</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2870,6 +3005,9 @@
       <c r="Q46" t="n">
         <v>-1.293783573615555</v>
       </c>
+      <c r="R46" t="n">
+        <v>-1.296294087352577</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2923,6 +3061,9 @@
       <c r="Q47" t="n">
         <v>-1.010436529310427</v>
       </c>
+      <c r="R47" t="n">
+        <v>-1.012228421201864</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2976,6 +3117,9 @@
       <c r="Q48" t="n">
         <v>-0.8805584919784137</v>
       </c>
+      <c r="R48" t="n">
+        <v>-0.8805297833214387</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3029,6 +3173,9 @@
       <c r="Q49" t="n">
         <v>-0.6429467707980068</v>
       </c>
+      <c r="R49" t="n">
+        <v>-0.6432075763213566</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3082,6 +3229,9 @@
       <c r="Q50" t="n">
         <v>-0.06454871669894244</v>
       </c>
+      <c r="R50" t="n">
+        <v>-0.06600984104965223</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3135,6 +3285,9 @@
       <c r="Q51" t="n">
         <v>-0.8666759665248595</v>
       </c>
+      <c r="R51" t="n">
+        <v>-0.8659306802129172</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3188,6 +3341,9 @@
       <c r="Q52" t="n">
         <v>-0.8666759665248595</v>
       </c>
+      <c r="R52" t="n">
+        <v>-0.8659306802129172</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3241,6 +3397,9 @@
       <c r="Q53" t="n">
         <v>-1.143962490747444</v>
       </c>
+      <c r="R53" t="n">
+        <v>-1.144673008450048</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3294,6 +3453,9 @@
       <c r="Q54" t="n">
         <v>-0.1765283211180024</v>
       </c>
+      <c r="R54" t="n">
+        <v>-0.1770495806460377</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3347,6 +3509,9 @@
       <c r="Q55" t="n">
         <v>-1.030290053898003</v>
       </c>
+      <c r="R55" t="n">
+        <v>-1.032445849083301</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3400,6 +3565,9 @@
       <c r="Q56" t="n">
         <v>-0.901289056695282</v>
       </c>
+      <c r="R56" t="n">
+        <v>-0.9044439241719361</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3453,6 +3621,9 @@
       <c r="Q57" t="n">
         <v>-0.9149896763449773</v>
       </c>
+      <c r="R57" t="n">
+        <v>-0.9216609093962296</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3506,6 +3677,9 @@
       <c r="Q58" t="n">
         <v>-1.058545902323279</v>
       </c>
+      <c r="R58" t="n">
+        <v>-1.064727296561462</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3559,6 +3733,9 @@
       <c r="Q59" t="n">
         <v>-0.7822640913997513</v>
       </c>
+      <c r="R59" t="n">
+        <v>-0.7840760691190413</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3612,6 +3789,9 @@
       <c r="Q60" t="n">
         <v>-0.4077060349702949</v>
       </c>
+      <c r="R60" t="n">
+        <v>-0.4107999436977717</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3665,6 +3845,9 @@
       <c r="Q61" t="n">
         <v>0.387279700779426</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.3868410789209968</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3718,6 +3901,9 @@
       <c r="Q62" t="n">
         <v>-1.167601066623148</v>
       </c>
+      <c r="R62" t="n">
+        <v>-1.175396661612656</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3771,6 +3957,9 @@
       <c r="Q63" t="n">
         <v>-0.5557103937302234</v>
       </c>
+      <c r="R63" t="n">
+        <v>-0.5541988811054355</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3824,6 +4013,9 @@
       <c r="Q64" t="n">
         <v>-0.8385203540784596</v>
       </c>
+      <c r="R64" t="n">
+        <v>-0.8403560290422711</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3877,6 +4069,9 @@
       <c r="Q65" t="n">
         <v>-0.02503234178498046</v>
       </c>
+      <c r="R65" t="n">
+        <v>-0.02733349045823268</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3930,6 +4125,9 @@
       <c r="Q66" t="n">
         <v>-0.7456132470878488</v>
       </c>
+      <c r="R66" t="n">
+        <v>-0.7531735281120766</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3982,6 +4180,9 @@
       </c>
       <c r="Q67" t="n">
         <v>-0.7195199800171216</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7293018790207202</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2116880150307328</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.2128267686413801</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>0.2780427682640482</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.2759462758238261</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>0.2513610163736237</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.2512047947055223</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>-0.03640470607538583</v>
       </c>
+      <c r="S5" t="n">
+        <v>-0.03904529939121237</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>0.2252770522908377</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.222855246574886</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.3691530675122823</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.3699621682804423</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.1309536983464452</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.1289530992617033</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>-0.2763203565516391</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.2766266157131673</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.4247221515580205</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.4221642512072147</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>-0.1777088988189815</v>
       </c>
+      <c r="S11" t="n">
+        <v>-0.1789237283776422</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.02517016977227834</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.03207043776133092</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1160,6 +1196,9 @@
       <c r="R13" t="n">
         <v>-0.02712288904181191</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.02971791106977819</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1216,6 +1255,9 @@
       <c r="R14" t="n">
         <v>0.1750566995766283</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.1633265109199819</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1272,6 +1314,9 @@
       <c r="R15" t="n">
         <v>0.06368234729871215</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.04705568428119114</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1328,6 +1373,9 @@
       <c r="R16" t="n">
         <v>0.5094845976693256</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.490666770469616</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1384,6 +1432,9 @@
       <c r="R17" t="n">
         <v>0.5850972744797849</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.5675079237788936</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1440,6 +1491,9 @@
       <c r="R18" t="n">
         <v>-0.09119782237382942</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.09880223602409638</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1496,6 +1550,9 @@
       <c r="R19" t="n">
         <v>0.3843014018789481</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.3747159734146422</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1552,6 +1609,9 @@
       <c r="R20" t="n">
         <v>0.4047216690703878</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.3844851177718582</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1608,6 +1668,9 @@
       <c r="R21" t="n">
         <v>0.6295589343742497</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.614036221614903</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1664,6 +1727,9 @@
       <c r="R22" t="n">
         <v>0.3980129312087762</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.3823419583436221</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1720,6 +1786,9 @@
       <c r="R23" t="n">
         <v>-0.04980893909867326</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.06333481146429108</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1776,6 +1845,9 @@
       <c r="R24" t="n">
         <v>1.603051936206048</v>
       </c>
+      <c r="S24" t="n">
+        <v>1.468139328400599</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1832,6 +1904,9 @@
       <c r="R25" t="n">
         <v>0.2923856914264146</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.2926545141510077</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1888,6 +1963,9 @@
       <c r="R26" t="n">
         <v>0.133417216891293</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.1286789261082034</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1944,6 +2022,9 @@
       <c r="R27" t="n">
         <v>0.03151413052180654</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.02692965316882361</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2000,6 +2081,9 @@
       <c r="R28" t="n">
         <v>0.7795000776407629</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.7776120393967375</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2056,6 +2140,9 @@
       <c r="R29" t="n">
         <v>1.617117789309284</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.54600614609719</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2112,6 +2199,9 @@
       <c r="R30" t="n">
         <v>0.6242663533874153</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.6230483960199665</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2168,6 +2258,9 @@
       <c r="R31" t="n">
         <v>-0.4901572453036147</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.4864155137383164</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2224,6 +2317,9 @@
       <c r="R32" t="n">
         <v>0.5132344360709362</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.5120301374045407</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,6 +2376,9 @@
       <c r="R33" t="n">
         <v>0.7321233561832788</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.7324431698162229</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2336,6 +2435,9 @@
       <c r="R34" t="n">
         <v>-0.8631956416193756</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.8639183537579436</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2392,6 +2494,9 @@
       <c r="R35" t="n">
         <v>0.7814624001334266</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.7844631362934403</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2448,6 +2553,9 @@
       <c r="R36" t="n">
         <v>0.7279626698280078</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.7336016799750789</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2504,6 +2612,9 @@
       <c r="R37" t="n">
         <v>0.6913568834550867</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.697126435881839</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2560,6 +2671,9 @@
       <c r="R38" t="n">
         <v>0.6273526529202899</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.6292057022496079</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2616,6 +2730,9 @@
       <c r="R39" t="n">
         <v>0.5845444344160147</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.5872454552914492</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2672,6 +2789,9 @@
       <c r="R40" t="n">
         <v>0.7459497941558718</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.7487649932202673</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2728,6 +2848,9 @@
       <c r="R41" t="n">
         <v>0.5591137614804772</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.5620435990461456</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2784,6 +2907,9 @@
       <c r="R42" t="n">
         <v>0.581745277203302</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.586728496646107</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2840,6 +2966,9 @@
       <c r="R43" t="n">
         <v>0.656604123772794</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.6591612269561087</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2896,6 +3025,9 @@
       <c r="R44" t="n">
         <v>0.6761619222848099</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.6800271949209584</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2952,6 +3084,9 @@
       <c r="R45" t="n">
         <v>0.6456880837088939</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.6539373948247147</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3008,6 +3143,9 @@
       <c r="R46" t="n">
         <v>-1.296294087352577</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.298983502375401</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3064,6 +3202,9 @@
       <c r="R47" t="n">
         <v>-1.012228421201864</v>
       </c>
+      <c r="S47" t="n">
+        <v>-1.014142871688346</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3120,6 +3261,9 @@
       <c r="R48" t="n">
         <v>-0.8805297833214387</v>
       </c>
+      <c r="S48" t="n">
+        <v>-0.8807942738747875</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3176,6 +3320,9 @@
       <c r="R49" t="n">
         <v>-0.6432075763213566</v>
       </c>
+      <c r="S49" t="n">
+        <v>-0.6437224905423151</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3232,6 +3379,9 @@
       <c r="R50" t="n">
         <v>-0.06600984104965223</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.06750940617215317</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3288,6 +3438,9 @@
       <c r="R51" t="n">
         <v>-0.8659306802129172</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.8654368656740948</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3344,6 +3497,9 @@
       <c r="R52" t="n">
         <v>-0.8659306802129172</v>
       </c>
+      <c r="S52" t="n">
+        <v>-0.8654368656740948</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3400,6 +3556,9 @@
       <c r="R53" t="n">
         <v>-1.144673008450048</v>
       </c>
+      <c r="S53" t="n">
+        <v>-1.145597184721445</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3456,6 +3615,9 @@
       <c r="R54" t="n">
         <v>-0.1770495806460377</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.1777703172990709</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3512,6 +3674,9 @@
       <c r="R55" t="n">
         <v>-1.032445849083301</v>
       </c>
+      <c r="S55" t="n">
+        <v>-1.034727733806709</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3568,6 +3733,9 @@
       <c r="R56" t="n">
         <v>-0.9044439241719361</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.9076241378473766</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3624,6 +3792,9 @@
       <c r="R57" t="n">
         <v>-0.9216609093962296</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.928659460390348</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3680,6 +3851,9 @@
       <c r="R58" t="n">
         <v>-1.064727296561462</v>
       </c>
+      <c r="S58" t="n">
+        <v>-1.071368043499223</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3736,6 +3910,9 @@
       <c r="R59" t="n">
         <v>-0.7840760691190413</v>
       </c>
+      <c r="S59" t="n">
+        <v>-0.7863920058009808</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3792,6 +3969,9 @@
       <c r="R60" t="n">
         <v>-0.4107999436977717</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.4143964945649249</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3848,6 +4028,9 @@
       <c r="R61" t="n">
         <v>0.3868410789209968</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3862737262360809</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3904,6 +4087,9 @@
       <c r="R62" t="n">
         <v>-1.175396661612656</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.183621235986952</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3960,6 +4146,9 @@
       <c r="R63" t="n">
         <v>-0.5541988811054355</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.5536575331457916</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4016,6 +4205,9 @@
       <c r="R64" t="n">
         <v>-0.8403560290422711</v>
       </c>
+      <c r="S64" t="n">
+        <v>-0.8429030542333409</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4072,6 +4264,9 @@
       <c r="R65" t="n">
         <v>-0.02733349045823268</v>
       </c>
+      <c r="S65" t="n">
+        <v>-0.03005584595094124</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4128,6 +4323,9 @@
       <c r="R66" t="n">
         <v>-0.7531735281120766</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.7609711573617852</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4183,6 +4381,9 @@
       </c>
       <c r="R67" t="n">
         <v>-0.7293018790207202</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7391410218267329</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.2128267686413801</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.2144785812453494</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>0.2759462758238261</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.2734068986762297</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>0.2512047947055223</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.2504392817252322</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>-0.03904529939121237</v>
       </c>
+      <c r="T5" t="n">
+        <v>-0.04190894721056355</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>0.222855246574886</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.2200974754269629</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.3699621682804423</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.371311786506768</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.1289530992617033</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.1276164033683329</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>-0.2766266157131673</v>
       </c>
+      <c r="T9" t="n">
+        <v>-0.2778440301673644</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.4221642512072147</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.4193569998413249</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>-0.1789237283776422</v>
       </c>
+      <c r="T11" t="n">
+        <v>-0.1805145287063359</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.03207043776133092</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.03920953295670119</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1199,6 +1235,9 @@
       <c r="S13" t="n">
         <v>-0.02971791106977819</v>
       </c>
+      <c r="T13" t="n">
+        <v>-0.03235087657719359</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,6 +1297,9 @@
       <c r="S14" t="n">
         <v>0.1633265109199819</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.151173829495191</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,6 +1359,9 @@
       <c r="S15" t="n">
         <v>0.04705568428119114</v>
       </c>
+      <c r="T15" t="n">
+        <v>0.03026025527980893</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1376,6 +1421,9 @@
       <c r="S16" t="n">
         <v>0.490666770469616</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.4713992147922551</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1435,6 +1483,9 @@
       <c r="S17" t="n">
         <v>0.5675079237788936</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.5502361929785122</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1494,6 +1545,9 @@
       <c r="S18" t="n">
         <v>-0.09880223602409638</v>
       </c>
+      <c r="T18" t="n">
+        <v>-0.1061030593731991</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1553,6 +1607,9 @@
       <c r="S19" t="n">
         <v>0.3747159734146422</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3651963090320712</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1612,6 +1669,9 @@
       <c r="S20" t="n">
         <v>0.3844851177718582</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.3640499865863758</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1671,6 +1731,9 @@
       <c r="S21" t="n">
         <v>0.614036221614903</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.5985502906080994</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1730,6 +1793,9 @@
       <c r="S22" t="n">
         <v>0.3823419583436221</v>
       </c>
+      <c r="T22" t="n">
+        <v>0.3668385576590496</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,6 +1855,9 @@
       <c r="S23" t="n">
         <v>-0.06333481146429108</v>
       </c>
+      <c r="T23" t="n">
+        <v>-0.07668129897735175</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1848,6 +1917,9 @@
       <c r="S24" t="n">
         <v>1.468139328400599</v>
       </c>
+      <c r="T24" t="n">
+        <v>1.353126937207073</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1907,6 +1979,9 @@
       <c r="S25" t="n">
         <v>0.2926545141510077</v>
       </c>
+      <c r="T25" t="n">
+        <v>0.2935954259424228</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1966,6 +2041,9 @@
       <c r="S26" t="n">
         <v>0.1286789261082034</v>
       </c>
+      <c r="T26" t="n">
+        <v>0.1250807212571698</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,6 +2103,9 @@
       <c r="S27" t="n">
         <v>0.02692965316882361</v>
       </c>
+      <c r="T27" t="n">
+        <v>0.02359107689672538</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2084,6 +2165,9 @@
       <c r="S28" t="n">
         <v>0.7776120393967375</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.7772098650261403</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2143,6 +2227,9 @@
       <c r="S29" t="n">
         <v>1.54600614609719</v>
       </c>
+      <c r="T29" t="n">
+        <v>1.491461354437756</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2202,6 +2289,9 @@
       <c r="S30" t="n">
         <v>0.6230483960199665</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.6231561204891918</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2261,6 +2351,9 @@
       <c r="S31" t="n">
         <v>-0.4864155137383164</v>
       </c>
+      <c r="T31" t="n">
+        <v>-0.4819221410766778</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2320,6 +2413,9 @@
       <c r="S32" t="n">
         <v>0.5120301374045407</v>
       </c>
+      <c r="T32" t="n">
+        <v>0.5119913138297145</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,6 +2475,9 @@
       <c r="S33" t="n">
         <v>0.7324431698162229</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.7334769111931251</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,6 +2537,9 @@
       <c r="S34" t="n">
         <v>-0.8639183537579436</v>
       </c>
+      <c r="T34" t="n">
+        <v>-0.8638905612908797</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2497,6 +2599,9 @@
       <c r="S35" t="n">
         <v>0.7844631362934403</v>
       </c>
+      <c r="T35" t="n">
+        <v>0.7876521034008883</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2556,6 +2661,9 @@
       <c r="S36" t="n">
         <v>0.7336016799750789</v>
       </c>
+      <c r="T36" t="n">
+        <v>0.7393579564575435</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2615,6 +2723,9 @@
       <c r="S37" t="n">
         <v>0.697126435881839</v>
       </c>
+      <c r="T37" t="n">
+        <v>0.7030452225729452</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2674,6 +2785,9 @@
       <c r="S38" t="n">
         <v>0.6292057022496079</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.6313602135366623</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2733,6 +2847,9 @@
       <c r="S39" t="n">
         <v>0.5872454552914492</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.5899379331001159</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2792,6 +2909,9 @@
       <c r="S40" t="n">
         <v>0.7487649932202673</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.7517238026041159</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2851,6 +2971,9 @@
       <c r="S41" t="n">
         <v>0.5620435990461456</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.5648603704059477</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2910,6 +3033,9 @@
       <c r="S42" t="n">
         <v>0.586728496646107</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.5920663740754559</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,6 +3095,9 @@
       <c r="S43" t="n">
         <v>0.6591612269561087</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.6618627810673392</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3028,6 +3157,9 @@
       <c r="S44" t="n">
         <v>0.6800271949209584</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.683841336904926</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3087,6 +3219,9 @@
       <c r="S45" t="n">
         <v>0.6539373948247147</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.6621485567478949</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3146,6 +3281,9 @@
       <c r="S46" t="n">
         <v>-1.298983502375401</v>
       </c>
+      <c r="T46" t="n">
+        <v>-1.301843605079562</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3205,6 +3343,9 @@
       <c r="S47" t="n">
         <v>-1.014142871688346</v>
       </c>
+      <c r="T47" t="n">
+        <v>-1.016183134773902</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3264,6 +3405,9 @@
       <c r="S48" t="n">
         <v>-0.8807942738747875</v>
       </c>
+      <c r="T48" t="n">
+        <v>-0.8813607022251038</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3323,6 +3467,9 @@
       <c r="S49" t="n">
         <v>-0.6437224905423151</v>
       </c>
+      <c r="T49" t="n">
+        <v>-0.6444903355649024</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3382,6 +3529,9 @@
       <c r="S50" t="n">
         <v>-0.06750940617215317</v>
       </c>
+      <c r="T50" t="n">
+        <v>-0.06904172668718446</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3441,6 +3591,9 @@
       <c r="S51" t="n">
         <v>-0.8654368656740948</v>
       </c>
+      <c r="T51" t="n">
+        <v>-0.86521236498012</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3500,6 +3653,9 @@
       <c r="S52" t="n">
         <v>-0.8654368656740948</v>
       </c>
+      <c r="T52" t="n">
+        <v>-0.86521236498012</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3559,6 +3715,9 @@
       <c r="S53" t="n">
         <v>-1.145597184721445</v>
       </c>
+      <c r="T53" t="n">
+        <v>-1.146763133691737</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3618,6 +3777,9 @@
       <c r="S54" t="n">
         <v>-0.1777703172990709</v>
       </c>
+      <c r="T54" t="n">
+        <v>-0.1786772108428804</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3677,6 +3839,9 @@
       <c r="S55" t="n">
         <v>-1.034727733806709</v>
       </c>
+      <c r="T55" t="n">
+        <v>-1.037134240771081</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3736,6 +3901,9 @@
       <c r="S56" t="n">
         <v>-0.9076241378473766</v>
       </c>
+      <c r="T56" t="n">
+        <v>-0.9108069890905824</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3795,6 +3963,9 @@
       <c r="S57" t="n">
         <v>-0.928659460390348</v>
       </c>
+      <c r="T57" t="n">
+        <v>-0.9358643406665942</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3854,6 +4025,9 @@
       <c r="S58" t="n">
         <v>-1.071368043499223</v>
       </c>
+      <c r="T58" t="n">
+        <v>-1.07831740922715</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3913,6 +4087,9 @@
       <c r="S59" t="n">
         <v>-0.7863920058009808</v>
       </c>
+      <c r="T59" t="n">
+        <v>-0.7891314637354523</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3972,6 +4149,9 @@
       <c r="S60" t="n">
         <v>-0.4143964945649249</v>
       </c>
+      <c r="T60" t="n">
+        <v>-0.4183735960675766</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4031,6 +4211,9 @@
       <c r="S61" t="n">
         <v>0.3862737262360809</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3855981445052295</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4090,6 +4273,9 @@
       <c r="S62" t="n">
         <v>-1.183621235986952</v>
       </c>
+      <c r="T62" t="n">
+        <v>-1.192119940829853</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4149,6 +4335,9 @@
       <c r="S63" t="n">
         <v>-0.5536575331457916</v>
       </c>
+      <c r="T63" t="n">
+        <v>-0.5539573640299045</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4208,6 +4397,9 @@
       <c r="S64" t="n">
         <v>-0.8429030542333409</v>
       </c>
+      <c r="T64" t="n">
+        <v>-0.8460681309707625</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4267,6 +4459,9 @@
       <c r="S65" t="n">
         <v>-0.03005584595094124</v>
       </c>
+      <c r="T65" t="n">
+        <v>-0.03309533787037827</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4326,6 +4521,9 @@
       <c r="S66" t="n">
         <v>-0.7609711573617852</v>
       </c>
+      <c r="T66" t="n">
+        <v>-0.7688588992559596</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4384,6 +4582,9 @@
       </c>
       <c r="S67" t="n">
         <v>-0.7391410218267329</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.748868307932456</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.2144785812453494</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.2165521095608881</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>0.2734068986762297</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.2705215578231747</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>0.2504392817252322</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.2491562682514301</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>-0.04190894721056355</v>
       </c>
+      <c r="U5" t="n">
+        <v>-0.04492692498780741</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>0.2200974754269629</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.2171018411299633</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.371311786506768</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.3731226129780587</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.1276164033683329</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.1268732639587136</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>-0.2778440301673644</v>
       </c>
+      <c r="U9" t="n">
+        <v>-0.2798433503129363</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.4193569998413249</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.4163849280751606</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>-0.1805145287063359</v>
       </c>
+      <c r="U11" t="n">
+        <v>-0.1824172010046424</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.03920953295670119</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.04644296936210233</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1238,6 +1274,9 @@
       <c r="T13" t="n">
         <v>-0.03235087657719359</v>
       </c>
+      <c r="U13" t="n">
+        <v>-0.03499287366380914</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1339,9 @@
       <c r="T14" t="n">
         <v>0.151173829495191</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.1388658507664822</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1362,6 +1404,9 @@
       <c r="T15" t="n">
         <v>0.03026025527980893</v>
       </c>
+      <c r="U15" t="n">
+        <v>0.01359630710637229</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1424,6 +1469,9 @@
       <c r="T16" t="n">
         <v>0.4713992147922551</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.4520815283279706</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1486,6 +1534,9 @@
       <c r="T17" t="n">
         <v>0.5502361929785122</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.5335267664610821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1548,6 +1599,9 @@
       <c r="T18" t="n">
         <v>-0.1061030593731991</v>
       </c>
+      <c r="U18" t="n">
+        <v>-0.1130652070723115</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1610,6 +1664,9 @@
       <c r="T19" t="n">
         <v>0.3651963090320712</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.355874039412991</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1729,9 @@
       <c r="T20" t="n">
         <v>0.3640499865863758</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.343793079056791</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1734,6 +1794,9 @@
       <c r="T21" t="n">
         <v>0.5985502906080994</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.5833859066435122</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1796,6 +1859,9 @@
       <c r="T22" t="n">
         <v>0.3668385576590496</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.3517429984594935</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1858,6 +1924,9 @@
       <c r="T23" t="n">
         <v>-0.07668129897735175</v>
       </c>
+      <c r="U23" t="n">
+        <v>-0.0896521498141179</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1920,6 +1989,9 @@
       <c r="T24" t="n">
         <v>1.353126937207073</v>
       </c>
+      <c r="U24" t="n">
+        <v>1.257202699942975</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1982,6 +2054,9 @@
       <c r="T25" t="n">
         <v>0.2935954259424228</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.2950689969115793</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2044,6 +2119,9 @@
       <c r="T26" t="n">
         <v>0.1250807212571698</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.1225015434179044</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2106,6 +2184,9 @@
       <c r="T27" t="n">
         <v>0.02359107689672538</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.02135496920506251</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2168,6 +2249,9 @@
       <c r="T28" t="n">
         <v>0.7772098650261403</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.7780879270479021</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,6 +2314,9 @@
       <c r="T29" t="n">
         <v>1.491461354437756</v>
       </c>
+      <c r="U29" t="n">
+        <v>1.451648025766852</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2292,6 +2379,9 @@
       <c r="T30" t="n">
         <v>0.6231561204891918</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.6243582887953709</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2354,6 +2444,9 @@
       <c r="T31" t="n">
         <v>-0.4819221410766778</v>
       </c>
+      <c r="U31" t="n">
+        <v>-0.4769244140406937</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2416,6 +2509,9 @@
       <c r="T32" t="n">
         <v>0.5119913138297145</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.5129285358412886</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2478,6 +2574,9 @@
       <c r="T33" t="n">
         <v>0.7334769111931251</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.7350865742237561</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2540,6 +2639,9 @@
       <c r="T34" t="n">
         <v>-0.8638905612908797</v>
       </c>
+      <c r="U34" t="n">
+        <v>-0.8632617677494573</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2602,6 +2704,9 @@
       <c r="T35" t="n">
         <v>0.7876521034008883</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.7909550399925456</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2664,6 +2769,9 @@
       <c r="T36" t="n">
         <v>0.7393579564575435</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.7451179674049379</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2726,6 +2834,9 @@
       <c r="T37" t="n">
         <v>0.7030452225729452</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.7089907198470927</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2788,6 +2899,9 @@
       <c r="T38" t="n">
         <v>0.6313602135366623</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.6337256530414177</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2850,6 +2964,9 @@
       <c r="T39" t="n">
         <v>0.5899379331001159</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.5925798485042063</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2912,6 +3029,9 @@
       <c r="T40" t="n">
         <v>0.7517238026041159</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.754768787837971</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2974,6 +3094,9 @@
       <c r="T41" t="n">
         <v>0.5648603704059477</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.5675313536527343</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3036,6 +3159,9 @@
       <c r="T42" t="n">
         <v>0.5920663740754559</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.5976050900818229</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3098,6 +3224,9 @@
       <c r="T43" t="n">
         <v>0.6618627810673392</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.6646357097428367</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3160,6 +3289,9 @@
       <c r="T44" t="n">
         <v>0.683841336904926</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.6875491181649332</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3222,6 +3354,9 @@
       <c r="T45" t="n">
         <v>0.6621485567478949</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.6701887042770445</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3284,6 +3419,9 @@
       <c r="T46" t="n">
         <v>-1.301843605079562</v>
       </c>
+      <c r="U46" t="n">
+        <v>-1.304862365645034</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3346,6 +3484,9 @@
       <c r="T47" t="n">
         <v>-1.016183134773902</v>
       </c>
+      <c r="U47" t="n">
+        <v>-1.018348033474769</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3408,6 +3549,9 @@
       <c r="T48" t="n">
         <v>-0.8813607022251038</v>
       </c>
+      <c r="U48" t="n">
+        <v>-0.8822289106569066</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3470,6 +3614,9 @@
       <c r="T49" t="n">
         <v>-0.6444903355649024</v>
       </c>
+      <c r="U49" t="n">
+        <v>-0.645504002152567</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3532,6 +3679,9 @@
       <c r="T50" t="n">
         <v>-0.06904172668718446</v>
       </c>
+      <c r="U50" t="n">
+        <v>-0.07060086008165786</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3594,6 +3744,9 @@
       <c r="T51" t="n">
         <v>-0.86521236498012</v>
       </c>
+      <c r="U51" t="n">
+        <v>-0.8652661319720447</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3656,6 +3809,9 @@
       <c r="T52" t="n">
         <v>-0.86521236498012</v>
       </c>
+      <c r="U52" t="n">
+        <v>-0.8652661319720447</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3718,6 +3874,9 @@
       <c r="T53" t="n">
         <v>-1.146763133691737</v>
       </c>
+      <c r="U53" t="n">
+        <v>-1.148186847898415</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3780,6 +3939,9 @@
       <c r="T54" t="n">
         <v>-0.1786772108428804</v>
       </c>
+      <c r="U54" t="n">
+        <v>-0.1797550437480939</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3842,6 +4004,9 @@
       <c r="T55" t="n">
         <v>-1.037134240771081</v>
       </c>
+      <c r="U55" t="n">
+        <v>-1.039660285235374</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3904,6 +4069,9 @@
       <c r="T56" t="n">
         <v>-0.9108069890905824</v>
       </c>
+      <c r="U56" t="n">
+        <v>-0.9139734899353601</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3966,6 +4134,9 @@
       <c r="T57" t="n">
         <v>-0.9358643406665942</v>
       </c>
+      <c r="U57" t="n">
+        <v>-0.9431676112217988</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4028,6 +4199,9 @@
       <c r="T58" t="n">
         <v>-1.07831740922715</v>
       </c>
+      <c r="U58" t="n">
+        <v>-1.085442111824599</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4090,6 +4264,9 @@
       <c r="T59" t="n">
         <v>-0.7891314637354523</v>
       </c>
+      <c r="U59" t="n">
+        <v>-0.7922181498058716</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4152,6 +4329,9 @@
       <c r="T60" t="n">
         <v>-0.4183735960675766</v>
       </c>
+      <c r="U60" t="n">
+        <v>-0.4226213386625874</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4214,6 +4394,9 @@
       <c r="T61" t="n">
         <v>0.3855981445052295</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.3848339013574573</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4276,6 +4459,9 @@
       <c r="T62" t="n">
         <v>-1.192119940829853</v>
       </c>
+      <c r="U62" t="n">
+        <v>-1.200755459636137</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4338,6 +4524,9 @@
       <c r="T63" t="n">
         <v>-0.5539573640299045</v>
       </c>
+      <c r="U63" t="n">
+        <v>-0.5549749658143085</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4400,6 +4589,9 @@
       <c r="T64" t="n">
         <v>-0.8460681309707625</v>
       </c>
+      <c r="U64" t="n">
+        <v>-0.8497576247302998</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4462,6 +4654,9 @@
       <c r="T65" t="n">
         <v>-0.03309533787037827</v>
       </c>
+      <c r="U65" t="n">
+        <v>-0.03635920593482918</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4524,6 +4719,9 @@
       <c r="T66" t="n">
         <v>-0.7688588992559596</v>
       </c>
+      <c r="U66" t="n">
+        <v>-0.7767113745395173</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4585,6 +4783,9 @@
       </c>
       <c r="T67" t="n">
         <v>-0.748868307932456</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7583457217405868</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.2165521095608881</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.2189621135285543</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>0.2705215578231747</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.2673804592616603</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>0.2491562682514301</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.2474438894608491</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>-0.04492692498780741</v>
       </c>
+      <c r="V5" t="n">
+        <v>-0.04803779401535062</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>0.2171018411299633</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.2139557503381254</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.3731226129780587</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.3753179335155991</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.1268732639587136</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.126653242102846</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>-0.2798433503129363</v>
       </c>
+      <c r="V9" t="n">
+        <v>-0.2824975532166766</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.4163849280751606</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.4133222721432445</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>-0.1824172010046424</v>
       </c>
+      <c r="V11" t="n">
+        <v>-0.184571300776904</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.04644296936210233</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.0536463689433254</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,6 +1313,9 @@
       <c r="U13" t="n">
         <v>-0.03499287366380914</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.03761807565965969</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1381,9 @@
       <c r="U14" t="n">
         <v>0.1388658507664822</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.1266325829020402</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1407,6 +1449,9 @@
       <c r="U15" t="n">
         <v>0.01359630710637229</v>
       </c>
+      <c r="V15" t="n">
+        <v>-0.002683191974782187</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1472,6 +1517,9 @@
       <c r="U16" t="n">
         <v>0.4520815283279706</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.4330539883572228</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1537,6 +1585,9 @@
       <c r="U17" t="n">
         <v>0.5335267664610821</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.5175774920565842</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,6 +1653,9 @@
       <c r="U18" t="n">
         <v>-0.1130652070723115</v>
       </c>
+      <c r="V18" t="n">
+        <v>-0.1196603862186987</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1667,6 +1721,9 @@
       <c r="U19" t="n">
         <v>0.355874039412991</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.3468583166480112</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1732,6 +1789,9 @@
       <c r="U20" t="n">
         <v>0.343793079056791</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.3240309838610204</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,6 +1857,9 @@
       <c r="U21" t="n">
         <v>0.5833859066435122</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.5687751277637497</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1862,6 +1925,9 @@
       <c r="U22" t="n">
         <v>0.3517429984594935</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.3372517061725743</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,6 +1993,9 @@
       <c r="U23" t="n">
         <v>-0.0896521498141179</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.1020881769486257</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1992,6 +2061,9 @@
       <c r="U24" t="n">
         <v>1.257202699942975</v>
       </c>
+      <c r="V24" t="n">
+        <v>1.179275168847549</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,6 +2129,9 @@
       <c r="U25" t="n">
         <v>0.2950689969115793</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.2969503399134832</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2122,6 +2197,9 @@
       <c r="U26" t="n">
         <v>0.1225015434179044</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.1208194960830801</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2187,6 +2265,9 @@
       <c r="U27" t="n">
         <v>0.02135496920506251</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.02008028397695797</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2252,6 +2333,9 @@
       <c r="U28" t="n">
         <v>0.7780879270479021</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.7800473733306703</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2317,6 +2401,9 @@
       <c r="U29" t="n">
         <v>1.451648025766852</v>
       </c>
+      <c r="V29" t="n">
+        <v>1.424767935065953</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2382,6 +2469,9 @@
       <c r="U30" t="n">
         <v>0.6243582887953709</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.6264421812012944</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2447,6 +2537,9 @@
       <c r="U31" t="n">
         <v>-0.4769244140406937</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.4716353762912016</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2512,6 +2605,9 @@
       <c r="U32" t="n">
         <v>0.5129285358412886</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.5146637701241372</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2577,6 +2673,9 @@
       <c r="U33" t="n">
         <v>0.7350865742237561</v>
       </c>
+      <c r="V33" t="n">
+        <v>0.7371458109593029</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2642,6 +2741,9 @@
       <c r="U34" t="n">
         <v>-0.8632617677494573</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.8621682086991185</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2707,6 +2809,9 @@
       <c r="U35" t="n">
         <v>0.7909550399925456</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.7943058272928291</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2772,6 +2877,9 @@
       <c r="U36" t="n">
         <v>0.7451179674049379</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.7507849781926835</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2837,6 +2945,9 @@
       <c r="U37" t="n">
         <v>0.7089907198470927</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.7148583512534861</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2902,6 +3013,9 @@
       <c r="U38" t="n">
         <v>0.6337256530414177</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.6362223625670134</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2967,6 +3081,9 @@
       <c r="U39" t="n">
         <v>0.5925798485042063</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.5951356227195613</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3032,6 +3149,9 @@
       <c r="U40" t="n">
         <v>0.754768787837971</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.7578477044736285</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3097,6 +3217,9 @@
       <c r="U41" t="n">
         <v>0.5675313536527343</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.5700321062309504</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3162,6 +3285,9 @@
       <c r="U42" t="n">
         <v>0.5976050900818229</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.6032110162157505</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3227,6 +3353,9 @@
       <c r="U43" t="n">
         <v>0.6646357097428367</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.6674173755022264</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3292,6 +3421,9 @@
       <c r="U44" t="n">
         <v>0.6875491181649332</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.6911053486110315</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3357,6 +3489,9 @@
       <c r="U45" t="n">
         <v>0.6701887042770445</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.6779475095892878</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3422,6 +3557,9 @@
       <c r="U46" t="n">
         <v>-1.304862365645034</v>
       </c>
+      <c r="V46" t="n">
+        <v>-1.308024817000957</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3487,6 +3625,9 @@
       <c r="U47" t="n">
         <v>-1.018348033474769</v>
       </c>
+      <c r="V47" t="n">
+        <v>-1.020632703117456</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3552,6 +3693,9 @@
       <c r="U48" t="n">
         <v>-0.8822289106569066</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.8833913292412124</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3617,6 +3761,9 @@
       <c r="U49" t="n">
         <v>-0.645504002152567</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.6467515716876883</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3682,6 +3829,9 @@
       <c r="U50" t="n">
         <v>-0.07060086008165786</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.0721807429302041</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3747,6 +3897,9 @@
       <c r="U51" t="n">
         <v>-0.8652661319720447</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.8655994278441552</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3812,6 +3965,9 @@
       <c r="U52" t="n">
         <v>-0.8652661319720447</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.8655994278441552</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3877,6 +4033,9 @@
       <c r="U53" t="n">
         <v>-1.148186847898415</v>
       </c>
+      <c r="V53" t="n">
+        <v>-1.14987400468552</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3942,6 +4101,9 @@
       <c r="U54" t="n">
         <v>-0.1797550437480939</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.1809872725447224</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4007,6 +4169,9 @@
       <c r="U55" t="n">
         <v>-1.039660285235374</v>
       </c>
+      <c r="V55" t="n">
+        <v>-1.04229783946834</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4072,6 +4237,9 @@
       <c r="U56" t="n">
         <v>-0.9139734899353601</v>
       </c>
+      <c r="V56" t="n">
+        <v>-0.9171079521426658</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4137,6 +4305,9 @@
       <c r="U57" t="n">
         <v>-0.9431676112217988</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.950474655249496</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4202,6 +4373,9 @@
       <c r="U58" t="n">
         <v>-1.085442111824599</v>
       </c>
+      <c r="V58" t="n">
+        <v>-1.092626196072601</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4267,6 +4441,9 @@
       <c r="U59" t="n">
         <v>-0.7922181498058716</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.7955807588335606</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4332,6 +4509,9 @@
       <c r="U60" t="n">
         <v>-0.4226213386625874</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.4270422197208167</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4397,6 +4577,9 @@
       <c r="U61" t="n">
         <v>0.3848339013574573</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.3839993638394311</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4462,6 +4645,9 @@
       <c r="U62" t="n">
         <v>-1.200755459636137</v>
       </c>
+      <c r="V62" t="n">
+        <v>-1.209408078663484</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4527,6 +4713,9 @@
       <c r="U63" t="n">
         <v>-0.5549749658143085</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.5565939480805064</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4592,6 +4781,9 @@
       <c r="U64" t="n">
         <v>-0.8497576247302998</v>
       </c>
+      <c r="V64" t="n">
+        <v>-0.8538798899701024</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4657,6 +4849,9 @@
       <c r="U65" t="n">
         <v>-0.03635920593482918</v>
       </c>
+      <c r="V65" t="n">
+        <v>-0.03976592053764496</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4722,6 +4917,9 @@
       <c r="U66" t="n">
         <v>-0.7767113745395173</v>
       </c>
+      <c r="V66" t="n">
+        <v>-0.7844239594510978</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4786,6 +4984,9 @@
       </c>
       <c r="U67" t="n">
         <v>-0.7583457217405868</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7674637182780775</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.2189621135285543</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.2216302224560985</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>0.2673804592616603</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.2640660159984126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>0.2474438894608491</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.2453852632937526</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>-0.04803779401535062</v>
       </c>
+      <c r="W5" t="n">
+        <v>-0.05118753304636973</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>0.2139557503381254</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.2107357866140098</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.3753179335155991</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.3778248864361516</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.126653242102846</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.1268872523460466</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>-0.2824975532166766</v>
       </c>
+      <c r="W9" t="n">
+        <v>-0.2856845786463625</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.4133222721432445</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.4102331244816939</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>-0.184571300776904</v>
       </c>
+      <c r="W11" t="n">
+        <v>-0.1869206991280086</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.0536463689433254</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.06071485549817619</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1316,6 +1352,9 @@
       <c r="V13" t="n">
         <v>-0.03761807565965969</v>
       </c>
+      <c r="W13" t="n">
+        <v>-0.04020389376412065</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1423,9 @@
       <c r="V14" t="n">
         <v>0.1266325829020402</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.1146677966268946</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1452,6 +1494,9 @@
       <c r="V15" t="n">
         <v>-0.002683191974782187</v>
       </c>
+      <c r="W15" t="n">
+        <v>-0.01837048235946984</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1520,6 +1565,9 @@
       <c r="V16" t="n">
         <v>0.4330539883572228</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.4145996567608871</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1588,6 +1636,9 @@
       <c r="V17" t="n">
         <v>0.5175774920565842</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.5025425088076846</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1656,6 +1707,9 @@
       <c r="V18" t="n">
         <v>-0.1196603862186987</v>
       </c>
+      <c r="W18" t="n">
+        <v>-0.1258672561209113</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1724,6 +1778,9 @@
       <c r="V19" t="n">
         <v>0.3468583166480112</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.3382369659795992</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1792,6 +1849,9 @@
       <c r="V20" t="n">
         <v>0.3240309838610204</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.30502287780305</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1860,6 +1920,9 @@
       <c r="V21" t="n">
         <v>0.5687751277637497</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.5549012573147135</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1928,6 +1991,9 @@
       <c r="V22" t="n">
         <v>0.3372517061725743</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.3235200245782092</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1996,6 +2062,9 @@
       <c r="V23" t="n">
         <v>-0.1020881769486257</v>
       </c>
+      <c r="W23" t="n">
+        <v>-0.1138646613601212</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2064,6 +2133,9 @@
       <c r="V24" t="n">
         <v>1.179275168847549</v>
       </c>
+      <c r="W24" t="n">
+        <v>1.118049181872055</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2132,6 +2204,9 @@
       <c r="V25" t="n">
         <v>0.2969503399134832</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.2991289861465323</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2275,9 @@
       <c r="V26" t="n">
         <v>0.1208194960830801</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.1199147007815351</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2268,6 +2346,9 @@
       <c r="V27" t="n">
         <v>0.02008028397695797</v>
       </c>
+      <c r="W27" t="n">
+        <v>0.01963087613518422</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2417,9 @@
       <c r="V28" t="n">
         <v>0.7800473733306703</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.7828993626673993</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2404,6 +2488,9 @@
       <c r="V29" t="n">
         <v>1.424767935065953</v>
       </c>
+      <c r="W29" t="n">
+        <v>1.409088280344498</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2472,6 +2559,9 @@
       <c r="V30" t="n">
         <v>0.6264421812012944</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.6292146709403788</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2540,6 +2630,9 @@
       <c r="V31" t="n">
         <v>-0.4716353762912016</v>
       </c>
+      <c r="W31" t="n">
+        <v>-0.4662355328551898</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2608,6 +2701,9 @@
       <c r="V32" t="n">
         <v>0.5146637701241372</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.5170323077600449</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2676,6 +2772,9 @@
       <c r="V33" t="n">
         <v>0.7371458109593029</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.7395405838293541</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2744,6 +2843,9 @@
       <c r="V34" t="n">
         <v>-0.8621682086991185</v>
       </c>
+      <c r="W34" t="n">
+        <v>-0.8607321732273088</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2812,6 +2914,9 @@
       <c r="V35" t="n">
         <v>0.7943058272928291</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.7976467361883741</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2880,6 +2985,9 @@
       <c r="V36" t="n">
         <v>0.7507849781926835</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.7562784852623464</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2948,6 +3056,9 @@
       <c r="V37" t="n">
         <v>0.7148583512534861</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.7205608750368261</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3016,6 +3127,9 @@
       <c r="V38" t="n">
         <v>0.6362223625670134</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.6387813767634429</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3084,6 +3198,9 @@
       <c r="V39" t="n">
         <v>0.5951356227195613</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.5975759885866954</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3152,6 +3269,9 @@
       <c r="V40" t="n">
         <v>0.7578477044736285</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.7609140529280927</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3220,6 +3340,9 @@
       <c r="V41" t="n">
         <v>0.5700321062309504</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.5723455590258942</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3288,6 +3411,9 @@
       <c r="V42" t="n">
         <v>0.6032110162157505</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.6087702896582035</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3356,6 +3482,9 @@
       <c r="V43" t="n">
         <v>0.6674173755022264</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.6701551531595668</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3424,6 +3553,9 @@
       <c r="V44" t="n">
         <v>0.6911053486110315</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.6944742806786068</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3492,6 +3624,9 @@
       <c r="V45" t="n">
         <v>0.6779475095892878</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.6853360722322505</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3560,6 +3695,9 @@
       <c r="V46" t="n">
         <v>-1.308024817000957</v>
       </c>
+      <c r="W46" t="n">
+        <v>-1.311313843024826</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3628,6 +3766,9 @@
       <c r="V47" t="n">
         <v>-1.020632703117456</v>
       </c>
+      <c r="W47" t="n">
+        <v>-1.023029288120656</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3696,6 +3837,9 @@
       <c r="V48" t="n">
         <v>-0.8833913292412124</v>
       </c>
+      <c r="W48" t="n">
+        <v>-0.8848343663630772</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3764,6 +3908,9 @@
       <c r="V49" t="n">
         <v>-0.6467515716876883</v>
       </c>
+      <c r="W49" t="n">
+        <v>-0.6482173494881347</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3832,6 +3979,9 @@
       <c r="V50" t="n">
         <v>-0.0721807429302041</v>
       </c>
+      <c r="W50" t="n">
+        <v>-0.07377530574611765</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3900,6 +4050,9 @@
       <c r="V51" t="n">
         <v>-0.8655994278441552</v>
       </c>
+      <c r="W51" t="n">
+        <v>-0.8662069951719916</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3968,6 +4121,9 @@
       <c r="V52" t="n">
         <v>-0.8655994278441552</v>
       </c>
+      <c r="W52" t="n">
+        <v>-0.8662069951719916</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4036,6 +4192,9 @@
       <c r="V53" t="n">
         <v>-1.14987400468552</v>
       </c>
+      <c r="W53" t="n">
+        <v>-1.151821674315478</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4104,6 +4263,9 @@
       <c r="V54" t="n">
         <v>-0.1809872725447224</v>
       </c>
+      <c r="W54" t="n">
+        <v>-0.1823565322530843</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4172,6 +4334,9 @@
       <c r="V55" t="n">
         <v>-1.04229783946834</v>
       </c>
+      <c r="W55" t="n">
+        <v>-1.045036556754221</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4240,6 +4405,9 @@
       <c r="V56" t="n">
         <v>-0.9171079521426658</v>
       </c>
+      <c r="W56" t="n">
+        <v>-0.9201975853859573</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4308,6 +4476,9 @@
       <c r="V57" t="n">
         <v>-0.950474655249496</v>
       </c>
+      <c r="W57" t="n">
+        <v>-0.9577040540963844</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4376,6 +4547,9 @@
       <c r="V58" t="n">
         <v>-1.092626196072601</v>
       </c>
+      <c r="W58" t="n">
+        <v>-1.099770513398447</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4444,6 +4618,9 @@
       <c r="V59" t="n">
         <v>-0.7955807588335606</v>
       </c>
+      <c r="W59" t="n">
+        <v>-0.7991535501817801</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4512,6 +4689,9 @@
       <c r="V60" t="n">
         <v>-0.4270422197208167</v>
       </c>
+      <c r="W60" t="n">
+        <v>-0.4315510336416373</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4580,6 +4760,9 @@
       <c r="V61" t="n">
         <v>0.3839993638394311</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.3831115134049407</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4648,6 +4831,9 @@
       <c r="V62" t="n">
         <v>-1.209408078663484</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1.217975303158797</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4716,6 +4902,9 @@
       <c r="V63" t="n">
         <v>-0.5565939480805064</v>
       </c>
+      <c r="W63" t="n">
+        <v>-0.5587059756405069</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4784,6 +4973,9 @@
       <c r="V64" t="n">
         <v>-0.8538798899701024</v>
       </c>
+      <c r="W64" t="n">
+        <v>-0.8583470848687624</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4852,6 +5044,9 @@
       <c r="V65" t="n">
         <v>-0.03976592053764496</v>
       </c>
+      <c r="W65" t="n">
+        <v>-0.04324486257519296</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4920,6 +5115,9 @@
       <c r="V66" t="n">
         <v>-0.7844239594510978</v>
       </c>
+      <c r="W66" t="n">
+        <v>-0.791911392954231</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4987,6 +5185,9 @@
       </c>
       <c r="V67" t="n">
         <v>-0.7674637182780775</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7761384352031692</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.2216302224560985</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.2244853979423709</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>0.2640660159984126</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.260652192164132</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>0.2453852632937526</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.2430575134038943</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>-0.05118753304636973</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.05432946081906871</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>0.2107357866140098</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.2075078751949047</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.3778248864361516</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.3805753888069109</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.1268872523460466</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.127508718923326</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>-0.2856845786463625</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.2892893928463438</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.4102331244816939</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.4071718019489267</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>-0.1869206991280086</v>
       </c>
+      <c r="X11" t="n">
+        <v>-0.1894140196454214</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.06071485549817619</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.06756207488323984</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1355,6 +1391,9 @@
       <c r="W13" t="n">
         <v>-0.04020389376412065</v>
       </c>
+      <c r="X13" t="n">
+        <v>-0.04273100773242845</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1465,9 @@
       <c r="W14" t="n">
         <v>0.1146677966268946</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.1031307221090301</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1497,6 +1539,9 @@
       <c r="W15" t="n">
         <v>-0.01837048235946984</v>
       </c>
+      <c r="X15" t="n">
+        <v>-0.03330017539515002</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1568,6 +1613,9 @@
       <c r="W16" t="n">
         <v>0.4145996567608871</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.396947551586316</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1639,6 +1687,9 @@
       <c r="W17" t="n">
         <v>0.5025425088076846</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.4885359184859003</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1710,6 +1761,9 @@
       <c r="W18" t="n">
         <v>-0.1258672561209113</v>
       </c>
+      <c r="X18" t="n">
+        <v>-0.1316713036499347</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1835,9 @@
       <c r="W19" t="n">
         <v>0.3382369659795992</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.3300779784365365</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,6 +1909,9 @@
       <c r="W20" t="n">
         <v>0.30502287780305</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2869742665614395</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1923,6 +1983,9 @@
       <c r="W21" t="n">
         <v>0.5549012573147135</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.541903239167892</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1994,6 +2057,9 @@
       <c r="W22" t="n">
         <v>0.3235200245782092</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.3106655117920161</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2065,6 +2131,9 @@
       <c r="W23" t="n">
         <v>-0.1138646613601212</v>
       </c>
+      <c r="X23" t="n">
+        <v>-0.1248883734915708</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2136,6 +2205,9 @@
       <c r="W24" t="n">
         <v>1.118049181872055</v>
       </c>
+      <c r="X24" t="n">
+        <v>1.072091856257565</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2207,6 +2279,9 @@
       <c r="W25" t="n">
         <v>0.2991289861465323</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.3015084809687812</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2278,6 +2353,9 @@
       <c r="W26" t="n">
         <v>0.1199147007815351</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.1196715667009336</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2349,6 +2427,9 @@
       <c r="W27" t="n">
         <v>0.01963087613518422</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.01987744871950083</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2420,6 +2501,9 @@
       <c r="W28" t="n">
         <v>0.7828993626673993</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.7864674512392207</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2491,6 +2575,9 @@
       <c r="W29" t="n">
         <v>1.409088280344498</v>
       </c>
+      <c r="X29" t="n">
+        <v>1.402963664030008</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2562,6 +2649,9 @@
       <c r="W30" t="n">
         <v>0.6292146709403788</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.6325026767371487</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2633,6 +2723,9 @@
       <c r="W31" t="n">
         <v>-0.4662355328551898</v>
       </c>
+      <c r="X31" t="n">
+        <v>-0.4608749622044537</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2704,6 +2797,9 @@
       <c r="W32" t="n">
         <v>0.5170323077600449</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.5198840145328987</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2775,6 +2871,9 @@
       <c r="W33" t="n">
         <v>0.7395405838293541</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.7421694152787829</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2846,6 +2945,9 @@
       <c r="W34" t="n">
         <v>-0.8607321732273088</v>
       </c>
+      <c r="X34" t="n">
+        <v>-0.8590617868304201</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2917,6 +3019,9 @@
       <c r="W35" t="n">
         <v>0.7976467361883741</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.8009284038539349</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2988,6 +3093,9 @@
       <c r="W36" t="n">
         <v>0.7562784852623464</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.7615333418561466</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3059,6 +3167,9 @@
       <c r="W37" t="n">
         <v>0.7205608750368261</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.7260274478998625</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3130,6 +3241,9 @@
       <c r="W38" t="n">
         <v>0.6387813767634429</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.6413440257749241</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3201,6 +3315,9 @@
       <c r="W39" t="n">
         <v>0.5975759885866954</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.5998777114160254</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3272,6 +3389,9 @@
       <c r="W40" t="n">
         <v>0.7609140529280927</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.7639273564240436</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3343,6 +3463,9 @@
       <c r="W41" t="n">
         <v>0.5723455590258942</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.574461105820002</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3414,6 +3537,9 @@
       <c r="W42" t="n">
         <v>0.6087702896582035</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.6141879782634356</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3485,6 +3611,9 @@
       <c r="W43" t="n">
         <v>0.6701551531595668</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.6728058441144994</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3556,6 +3685,9 @@
       <c r="W44" t="n">
         <v>0.6944742806786068</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.6976288811013768</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3627,6 +3759,9 @@
       <c r="W45" t="n">
         <v>0.6853360722322505</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.6922854596326526</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3698,6 +3833,9 @@
       <c r="W46" t="n">
         <v>-1.311313843024826</v>
       </c>
+      <c r="X46" t="n">
+        <v>-1.314710877231801</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3769,6 +3907,9 @@
       <c r="W47" t="n">
         <v>-1.023029288120656</v>
       </c>
+      <c r="X47" t="n">
+        <v>-1.025527586237145</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3840,6 +3981,9 @@
       <c r="W48" t="n">
         <v>-0.8848343663630772</v>
       </c>
+      <c r="X48" t="n">
+        <v>-0.8865396903259811</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3911,6 +4055,9 @@
       <c r="W49" t="n">
         <v>-0.6482173494881347</v>
       </c>
+      <c r="X49" t="n">
+        <v>-0.6498828021733889</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3982,6 +4129,9 @@
       <c r="W50" t="n">
         <v>-0.07377530574611765</v>
       </c>
+      <c r="X50" t="n">
+        <v>-0.07537856979181511</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4053,6 +4203,9 @@
       <c r="W51" t="n">
         <v>-0.8662069951719916</v>
       </c>
+      <c r="X51" t="n">
+        <v>-0.8670781845122812</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4124,6 +4277,9 @@
       <c r="W52" t="n">
         <v>-0.8662069951719916</v>
       </c>
+      <c r="X52" t="n">
+        <v>-0.8670781845122812</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4195,6 +4351,9 @@
       <c r="W53" t="n">
         <v>-1.151821674315478</v>
       </c>
+      <c r="X53" t="n">
+        <v>-1.154019909161793</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4266,6 +4425,9 @@
       <c r="W54" t="n">
         <v>-0.1823565322530843</v>
       </c>
+      <c r="X54" t="n">
+        <v>-0.1838450754460699</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4337,6 +4499,9 @@
       <c r="W55" t="n">
         <v>-1.045036556754221</v>
       </c>
+      <c r="X55" t="n">
+        <v>-1.0478643418312</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4408,6 +4573,9 @@
       <c r="W56" t="n">
         <v>-0.9201975853859573</v>
       </c>
+      <c r="X56" t="n">
+        <v>-0.9232321226632652</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4479,6 +4647,9 @@
       <c r="W57" t="n">
         <v>-0.9577040540963844</v>
       </c>
+      <c r="X57" t="n">
+        <v>-0.9647871566948858</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4550,6 +4721,9 @@
       <c r="W58" t="n">
         <v>-1.099770513398447</v>
       </c>
+      <c r="X58" t="n">
+        <v>-1.106791904338452</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4621,6 +4795,9 @@
       <c r="W59" t="n">
         <v>-0.7991535501817801</v>
       </c>
+      <c r="X59" t="n">
+        <v>-0.802876697903486</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4692,6 +4869,9 @@
       <c r="W60" t="n">
         <v>-0.4315510336416373</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.436074499274283</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4763,6 +4943,9 @@
       <c r="W61" t="n">
         <v>0.3831115134049407</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.3821858295087796</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4834,6 +5017,9 @@
       <c r="W62" t="n">
         <v>-1.217975303158797</v>
       </c>
+      <c r="X62" t="n">
+        <v>-1.226371127913551</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4905,6 +5091,9 @@
       <c r="W63" t="n">
         <v>-0.5587059756405069</v>
       </c>
+      <c r="X63" t="n">
+        <v>-0.5612114553363325</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4976,6 +5165,9 @@
       <c r="W64" t="n">
         <v>-0.8583470848687624</v>
       </c>
+      <c r="X64" t="n">
+        <v>-0.8630765367177153</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5047,6 +5239,9 @@
       <c r="W65" t="n">
         <v>-0.04324486257519296</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.04673582004357759</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5118,6 +5313,9 @@
       <c r="W66" t="n">
         <v>-0.791911392954231</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.7991061915405592</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5188,6 +5386,9 @@
       </c>
       <c r="W67" t="n">
         <v>-0.7761384352031692</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7843088421740858</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.2244853979423709</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.2274641440992538</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>0.260652192164132</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.2572041960177538</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>0.2430575134038943</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.2405311218524476</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>-0.05432946081906871</v>
       </c>
+      <c r="Y5" t="n">
+        <v>-0.0574239962522619</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>0.2075078751949047</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.2043276743371381</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.3805753888069109</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.3835067765759376</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.127508718923326</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.1284544702052346</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>-0.2892893928463438</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.2932054680493653</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.4071718019489267</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.4041833761600617</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>-0.1894140196454214</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.1920048864246285</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.06756207488323984</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.07411894781610248</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1394,6 +1430,9 @@
       <c r="X13" t="n">
         <v>-0.04273100773242845</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.04518330178187201</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,6 +1507,9 @@
       <c r="X14" t="n">
         <v>0.1031307221090301</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.09214828774712681</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1584,9 @@
       <c r="X15" t="n">
         <v>-0.03330017539515002</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-0.04734588993466197</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1616,6 +1661,9 @@
       <c r="X16" t="n">
         <v>0.396947551586316</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.3802765717060985</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1690,6 +1738,9 @@
       <c r="X17" t="n">
         <v>0.4885359184859003</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.4756357819259381</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1764,6 +1815,9 @@
       <c r="X18" t="n">
         <v>-0.1316713036499347</v>
       </c>
+      <c r="Y18" t="n">
+        <v>-0.1370645064255047</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1838,6 +1892,9 @@
       <c r="X19" t="n">
         <v>0.3300779784365365</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.3224312280537094</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1912,6 +1969,9 @@
       <c r="X20" t="n">
         <v>0.2869742665614395</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2700413608340199</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1986,6 +2046,9 @@
       <c r="X21" t="n">
         <v>0.541903239167892</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.5298802853731722</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2060,6 +2123,9 @@
       <c r="X22" t="n">
         <v>0.3106655117920161</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.2987715649271788</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2134,6 +2200,9 @@
       <c r="X23" t="n">
         <v>-0.1248883734915708</v>
       </c>
+      <c r="Y23" t="n">
+        <v>-0.1350943761367677</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2208,6 +2277,9 @@
       <c r="X24" t="n">
         <v>1.072091856257565</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1.039889160037953</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2282,6 +2354,9 @@
       <c r="X25" t="n">
         <v>0.3015084809687812</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.3040057633285421</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2356,6 +2431,9 @@
       <c r="X26" t="n">
         <v>0.1196715667009336</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.1199805329572191</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2430,6 +2508,9 @@
       <c r="X27" t="n">
         <v>0.01987744871950083</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.02069899396028845</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2504,6 +2585,9 @@
       <c r="X28" t="n">
         <v>0.7864674512392207</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.7905892408209895</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2578,6 +2662,9 @@
       <c r="X29" t="n">
         <v>1.402963664030008</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1.404852428755103</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2652,6 +2739,9 @@
       <c r="X30" t="n">
         <v>0.6325026767371487</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.6361531026546128</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2726,6 +2816,9 @@
       <c r="X31" t="n">
         <v>-0.4608749622044537</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.45567570280207</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2800,6 +2893,9 @@
       <c r="X32" t="n">
         <v>0.5198840145328987</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.52308400754816</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2874,6 +2970,9 @@
       <c r="X33" t="n">
         <v>0.7421694152787829</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.7449433083536485</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2948,6 +3047,9 @@
       <c r="X34" t="n">
         <v>-0.8590617868304201</v>
       </c>
+      <c r="Y34" t="n">
+        <v>-0.8572511683977524</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3022,6 +3124,9 @@
       <c r="X35" t="n">
         <v>0.8009284038539349</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.8041095983209149</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3096,6 +3201,9 @@
       <c r="X36" t="n">
         <v>0.7615333418561466</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.7664986645681944</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3170,6 +3278,9 @@
       <c r="X37" t="n">
         <v>0.7260274478998625</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.7312024586254158</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3244,6 +3355,9 @@
       <c r="X38" t="n">
         <v>0.6413440257749241</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.6438613766117181</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3318,6 +3432,9 @@
       <c r="X39" t="n">
         <v>0.5998777114160254</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.6020231997648633</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3392,6 +3509,9 @@
       <c r="X40" t="n">
         <v>0.7639273564240436</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.7668532149683517</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3466,6 +3586,9 @@
       <c r="X41" t="n">
         <v>0.574461105820002</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.5763737129945767</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3540,6 +3663,9 @@
       <c r="X42" t="n">
         <v>0.6141879782634356</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.619386943267842</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3614,6 +3740,9 @@
       <c r="X43" t="n">
         <v>0.6728058441144994</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.6753349792697473</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3688,6 +3817,9 @@
       <c r="X44" t="n">
         <v>0.6976288811013768</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.7005500195799103</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3762,6 +3894,9 @@
       <c r="X45" t="n">
         <v>0.6922854596326526</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.6987450129322466</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3836,6 +3971,9 @@
       <c r="X46" t="n">
         <v>-1.314710877231801</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-1.318196514520907</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3910,6 +4048,9 @@
       <c r="X47" t="n">
         <v>-1.025527586237145</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-1.028115636190015</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3984,6 +4125,9 @@
       <c r="X48" t="n">
         <v>-0.8865396903259811</v>
       </c>
+      <c r="Y48" t="n">
+        <v>-0.8884853925419489</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4058,6 +4202,9 @@
       <c r="X49" t="n">
         <v>-0.6498828021733889</v>
       </c>
+      <c r="Y49" t="n">
+        <v>-0.6517273956380574</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4132,6 +4279,9 @@
       <c r="X50" t="n">
         <v>-0.07537856979181511</v>
       </c>
+      <c r="Y50" t="n">
+        <v>-0.07698472847525165</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4206,6 +4356,9 @@
       <c r="X51" t="n">
         <v>-0.8670781845122812</v>
       </c>
+      <c r="Y51" t="n">
+        <v>-0.8681980141927795</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4280,6 +4433,9 @@
       <c r="X52" t="n">
         <v>-0.8670781845122812</v>
       </c>
+      <c r="Y52" t="n">
+        <v>-0.8681980141927795</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4354,6 +4510,9 @@
       <c r="X53" t="n">
         <v>-1.154019909161793</v>
       </c>
+      <c r="Y53" t="n">
+        <v>-1.156453200279934</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4428,6 +4587,9 @@
       <c r="X54" t="n">
         <v>-0.1838450754460699</v>
       </c>
+      <c r="Y54" t="n">
+        <v>-0.185435148717546</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4502,6 +4664,9 @@
       <c r="X55" t="n">
         <v>-1.0478643418312</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-1.050767865938185</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4576,6 +4741,9 @@
       <c r="X56" t="n">
         <v>-0.9232321226632652</v>
       </c>
+      <c r="Y56" t="n">
+        <v>-0.9262034776520556</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4650,6 +4818,9 @@
       <c r="X57" t="n">
         <v>-0.9647871566948858</v>
       </c>
+      <c r="Y57" t="n">
+        <v>-0.9716674211407783</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4724,6 +4895,9 @@
       <c r="X58" t="n">
         <v>-1.106791904338452</v>
       </c>
+      <c r="Y58" t="n">
+        <v>-1.113622167936308</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4798,6 +4972,9 @@
       <c r="X59" t="n">
         <v>-0.802876697903486</v>
       </c>
+      <c r="Y59" t="n">
+        <v>-0.8066964523843657</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4872,6 +5049,9 @@
       <c r="X60" t="n">
         <v>-0.436074499274283</v>
       </c>
+      <c r="Y60" t="n">
+        <v>-0.4405506888460808</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4946,6 +5126,9 @@
       <c r="X61" t="n">
         <v>0.3821858295087796</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.3812362298274355</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5020,6 +5203,9 @@
       <c r="X62" t="n">
         <v>-1.226371127913551</v>
       </c>
+      <c r="Y62" t="n">
+        <v>-1.234525056327323</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5094,6 +5280,9 @@
       <c r="X63" t="n">
         <v>-0.5612114553363325</v>
       </c>
+      <c r="Y63" t="n">
+        <v>-0.5640199230034986</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5168,6 +5357,9 @@
       <c r="X64" t="n">
         <v>-0.8630765367177153</v>
       </c>
+      <c r="Y64" t="n">
+        <v>-0.8679917184426837</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5242,6 +5434,9 @@
       <c r="X65" t="n">
         <v>-0.04673582004357759</v>
       </c>
+      <c r="Y65" t="n">
+        <v>-0.0501883518869246</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5316,6 +5511,9 @@
       <c r="X66" t="n">
         <v>-0.7991061915405592</v>
       </c>
+      <c r="Y66" t="n">
+        <v>-0.8059569545021616</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5389,6 +5587,9 @@
       </c>
       <c r="X67" t="n">
         <v>-0.7843088421740858</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.79193391554675</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.2274641440992538</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.2305105118228222</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>0.2572041960177538</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.2537784546833329</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>0.2405311218524476</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.2378695591070376</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>-0.0574239962522619</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.06043829724019673</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>0.2043276743371381</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.201241135435208</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.3835067765759376</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.3865622019531827</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.1284544702052346</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.1296654010072448</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>-0.2932054680493653</v>
       </c>
+      <c r="Z9" t="n">
+        <v>-0.297335763480798</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.4041833761600617</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.401304318019036</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>-0.1920048864246285</v>
       </c>
+      <c r="Z11" t="n">
+        <v>-0.1946520162862141</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.07411894781610248</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.08033224533101511</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1433,6 +1469,9 @@
       <c r="Y13" t="n">
         <v>-0.04518330178187201</v>
       </c>
+      <c r="Z13" t="n">
+        <v>-0.04754772917964717</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1510,6 +1549,9 @@
       <c r="Y14" t="n">
         <v>0.09214828774712681</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.08181772570798523</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1587,6 +1629,9 @@
       <c r="Y15" t="n">
         <v>-0.04734588993466197</v>
       </c>
+      <c r="Z15" t="n">
+        <v>-0.06041656606599734</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1664,6 +1709,9 @@
       <c r="Y16" t="n">
         <v>0.3802765717060985</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.3647199091562363</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1741,6 +1789,9 @@
       <c r="Y17" t="n">
         <v>0.4756357819259381</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.4638882613956649</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1818,6 +1869,9 @@
       <c r="Y18" t="n">
         <v>-0.1370645064255047</v>
       </c>
+      <c r="Z18" t="n">
+        <v>-0.1420448450951037</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1895,6 +1949,9 @@
       <c r="Y19" t="n">
         <v>0.3224312280537094</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0.3153303174750146</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1972,6 +2029,9 @@
       <c r="Y20" t="n">
         <v>0.2700413608340199</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0.2543358348647929</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2049,6 +2109,9 @@
       <c r="Y21" t="n">
         <v>0.5298802853731722</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0.5188965662868155</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2126,6 +2189,9 @@
       <c r="Y22" t="n">
         <v>0.2987715649271788</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0.2878912050803061</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2203,6 +2269,9 @@
       <c r="Y23" t="n">
         <v>-0.1350943761367677</v>
       </c>
+      <c r="Z23" t="n">
+        <v>-0.1444427413042063</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2280,6 +2349,9 @@
       <c r="Y24" t="n">
         <v>1.039889160037953</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1.019893552787678</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2357,6 +2429,9 @@
       <c r="Y25" t="n">
         <v>0.3040057633285421</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0.3065503852347668</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2434,6 +2509,9 @@
       <c r="Y26" t="n">
         <v>0.1199805329572191</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0.1207393457955137</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2511,6 +2589,9 @@
       <c r="Y27" t="n">
         <v>0.02069899396028845</v>
       </c>
+      <c r="Z27" t="n">
+        <v>0.0219837923504284</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2588,6 +2669,9 @@
       <c r="Y28" t="n">
         <v>0.7905892408209895</v>
       </c>
+      <c r="Z28" t="n">
+        <v>0.795117397555782</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2665,6 +2749,9 @@
       <c r="Y29" t="n">
         <v>1.404852428755103</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.413328023112587</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2742,6 +2829,9 @@
       <c r="Y30" t="n">
         <v>0.6361531026546128</v>
       </c>
+      <c r="Z30" t="n">
+        <v>0.6400323668889621</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2819,6 +2909,9 @@
       <c r="Y31" t="n">
         <v>-0.45567570280207</v>
       </c>
+      <c r="Z31" t="n">
+        <v>-0.4507343013028582</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2896,6 +2989,9 @@
       <c r="Y32" t="n">
         <v>0.52308400754816</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0.5265128572125586</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2973,6 +3069,9 @@
       <c r="Y33" t="n">
         <v>0.7449433083536485</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0.7477854058462241</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3050,6 +3149,9 @@
       <c r="Y34" t="n">
         <v>-0.8572511683977524</v>
       </c>
+      <c r="Z34" t="n">
+        <v>-0.8553808813392414</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3127,6 +3229,9 @@
       <c r="Y35" t="n">
         <v>0.8041095983209149</v>
       </c>
+      <c r="Z35" t="n">
+        <v>0.8071568225030079</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3204,6 +3309,9 @@
       <c r="Y36" t="n">
         <v>0.7664986645681944</v>
       </c>
+      <c r="Z36" t="n">
+        <v>0.7711365961733855</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3281,6 +3389,9 @@
       <c r="Y37" t="n">
         <v>0.7312024586254158</v>
       </c>
+      <c r="Z37" t="n">
+        <v>0.7360442109939078</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3358,6 +3469,9 @@
       <c r="Y38" t="n">
         <v>0.6438613766117181</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0.6462935598024347</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3435,6 +3549,9 @@
       <c r="Y39" t="n">
         <v>0.6020231997648633</v>
       </c>
+      <c r="Z39" t="n">
+        <v>0.6040000405339018</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3512,6 +3629,9 @@
       <c r="Y40" t="n">
         <v>0.7668532149683517</v>
       </c>
+      <c r="Z40" t="n">
+        <v>0.769663182963783</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3589,6 +3709,9 @@
       <c r="Y41" t="n">
         <v>0.5763737129945767</v>
       </c>
+      <c r="Z41" t="n">
+        <v>0.5780830681030367</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3666,6 +3789,9 @@
       <c r="Y42" t="n">
         <v>0.619386943267842</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.6243064922232898</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3743,6 +3869,9 @@
       <c r="Y43" t="n">
         <v>0.6753349792697473</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.6777160511091106</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3820,6 +3949,9 @@
       <c r="Y44" t="n">
         <v>0.7005500195799103</v>
       </c>
+      <c r="Z44" t="n">
+        <v>0.703225613703207</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3897,6 +4029,9 @@
       <c r="Y45" t="n">
         <v>0.6987450129322466</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.7046805140278438</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3974,6 +4109,9 @@
       <c r="Y46" t="n">
         <v>-1.318196514520907</v>
       </c>
+      <c r="Z46" t="n">
+        <v>-1.321751039546887</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4051,6 +4189,9 @@
       <c r="Y47" t="n">
         <v>-1.028115636190015</v>
       </c>
+      <c r="Z47" t="n">
+        <v>-1.030780246373989</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4128,6 +4269,9 @@
       <c r="Y48" t="n">
         <v>-0.8884853925419489</v>
       </c>
+      <c r="Z48" t="n">
+        <v>-0.8906470277067068</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4205,6 +4349,9 @@
       <c r="Y49" t="n">
         <v>-0.6517273956380574</v>
       </c>
+      <c r="Z49" t="n">
+        <v>-0.653729333298315</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4282,6 +4429,9 @@
       <c r="Y50" t="n">
         <v>-0.07698472847525165</v>
       </c>
+      <c r="Z50" t="n">
+        <v>-0.07858821533504809</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4359,6 +4509,9 @@
       <c r="Y51" t="n">
         <v>-0.8681980141927795</v>
       </c>
+      <c r="Z51" t="n">
+        <v>-0.8695481496467096</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4436,6 +4589,9 @@
       <c r="Y52" t="n">
         <v>-0.8681980141927795</v>
       </c>
+      <c r="Z52" t="n">
+        <v>-0.8695481496467096</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,6 +4669,9 @@
       <c r="Y53" t="n">
         <v>-1.156453200279934</v>
       </c>
+      <c r="Z53" t="n">
+        <v>-1.159101793575674</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4590,6 +4749,9 @@
       <c r="Y54" t="n">
         <v>-0.185435148717546</v>
       </c>
+      <c r="Z54" t="n">
+        <v>-0.1871093101428064</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4667,6 +4829,9 @@
       <c r="Y55" t="n">
         <v>-1.050767865938185</v>
       </c>
+      <c r="Z55" t="n">
+        <v>-1.053733025790263</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4744,6 +4909,9 @@
       <c r="Y56" t="n">
         <v>-0.9262034776520556</v>
       </c>
+      <c r="Z56" t="n">
+        <v>-0.929105436023011</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4821,6 +4989,9 @@
       <c r="Y57" t="n">
         <v>-0.9716674211407783</v>
       </c>
+      <c r="Z57" t="n">
+        <v>-0.9782995953981648</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4898,6 +5069,9 @@
       <c r="Y58" t="n">
         <v>-1.113622167936308</v>
       </c>
+      <c r="Z58" t="n">
+        <v>-1.120206889407454</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4975,6 +5149,9 @@
       <c r="Y59" t="n">
         <v>-0.8066964523843657</v>
       </c>
+      <c r="Z59" t="n">
+        <v>-0.8105651481517254</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5052,6 +5229,9 @@
       <c r="Y60" t="n">
         <v>-0.4405506888460808</v>
       </c>
+      <c r="Z60" t="n">
+        <v>-0.444928313979582</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5129,6 +5309,9 @@
       <c r="Y61" t="n">
         <v>0.3812362298274355</v>
       </c>
+      <c r="Z61" t="n">
+        <v>0.3802750562766877</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5206,6 +5389,9 @@
       <c r="Y62" t="n">
         <v>-1.234525056327323</v>
       </c>
+      <c r="Z62" t="n">
+        <v>-1.24238094766197</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5283,6 +5469,9 @@
       <c r="Y63" t="n">
         <v>-0.5640199230034986</v>
       </c>
+      <c r="Z63" t="n">
+        <v>-0.5670501795348358</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5360,6 +5549,9 @@
       <c r="Y64" t="n">
         <v>-0.8679917184426837</v>
       </c>
+      <c r="Z64" t="n">
+        <v>-0.8730228941632834</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5437,6 +5629,9 @@
       <c r="Y65" t="n">
         <v>-0.0501883518869246</v>
       </c>
+      <c r="Z65" t="n">
+        <v>-0.05356106217356953</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5514,6 +5709,9 @@
       <c r="Y66" t="n">
         <v>-0.8059569545021616</v>
       </c>
+      <c r="Z66" t="n">
+        <v>-0.8124266266994405</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5590,6 +5788,9 @@
       </c>
       <c r="Y67" t="n">
         <v>-0.79193391554675</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7989899053500451</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.2305105118228222</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.2335759392024539</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>0.2537784546833329</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.2504228106219786</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>0.2378695591070376</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.2351291427508618</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>-0.06043829724019673</v>
       </c>
+      <c r="AA5" t="n">
+        <v>-0.06334581300625765</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>0.201241135435208</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.1982851822902231</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.3865622019531827</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.3896908284675416</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.1296654010072448</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1310869326376446</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>-0.297335763480798</v>
       </c>
+      <c r="AA9" t="n">
+        <v>-0.3015932886139303</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.401304318019036</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.3985632161490247</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>-0.1946520162862141</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.1973191850726862</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.08033224533101511</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.08616306135251822</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1472,6 +1508,9 @@
       <c r="Z13" t="n">
         <v>-0.04754772917964717</v>
       </c>
+      <c r="AA13" t="n">
+        <v>-0.04981412532361582</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1591,9 @@
       <c r="Z14" t="n">
         <v>0.08181772570798523</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.07220939840031629</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1632,6 +1674,9 @@
       <c r="Z15" t="n">
         <v>-0.06041656606599734</v>
       </c>
+      <c r="AA15" t="n">
+        <v>-0.07245262165793417</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,6 +1757,9 @@
       <c r="Z16" t="n">
         <v>0.3647199091562363</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.3503697301744115</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1792,6 +1840,9 @@
       <c r="Z17" t="n">
         <v>0.4638882613956649</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.4533117672850469</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +1923,9 @@
       <c r="Z18" t="n">
         <v>-0.1420448450951037</v>
       </c>
+      <c r="AA18" t="n">
+        <v>-0.1466157154906829</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1952,6 +2006,9 @@
       <c r="Z19" t="n">
         <v>0.3153303174750146</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.3087944745271003</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2032,6 +2089,9 @@
       <c r="Z20" t="n">
         <v>0.2543358348647929</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2399297612343867</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2112,6 +2172,9 @@
       <c r="Z21" t="n">
         <v>0.5188965662868155</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.5089858301665608</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2255,9 @@
       <c r="Z22" t="n">
         <v>0.2878912050803061</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.2780508883900421</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2272,6 +2338,9 @@
       <c r="Z23" t="n">
         <v>-0.1444427413042063</v>
       </c>
+      <c r="AA23" t="n">
+        <v>-0.1529152854854541</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2352,6 +2421,9 @@
       <c r="Z24" t="n">
         <v>1.019893552787678</v>
       </c>
+      <c r="AA24" t="n">
+        <v>1.010563344458076</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2432,6 +2504,9 @@
       <c r="Z25" t="n">
         <v>0.3065503852347668</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.3090836201534449</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2512,6 +2587,9 @@
       <c r="Z26" t="n">
         <v>0.1207393457955137</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.1218539332260857</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2592,6 +2670,9 @@
       <c r="Z27" t="n">
         <v>0.0219837923504284</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.02363003292006885</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2672,6 +2753,9 @@
       <c r="Z28" t="n">
         <v>0.795117397555782</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.7999201443431585</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2752,6 +2836,9 @@
       <c r="Z29" t="n">
         <v>1.413328023112587</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1.427086076846719</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2832,6 +2919,9 @@
       <c r="Z30" t="n">
         <v>0.6400323668889621</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.6440256111026128</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2912,6 +3002,9 @@
       <c r="Z31" t="n">
         <v>-0.4507343013028582</v>
       </c>
+      <c r="AA31" t="n">
+        <v>-0.4461244295041087</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2992,6 +3085,9 @@
       <c r="Z32" t="n">
         <v>0.5265128572125586</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.530066405784841</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3072,6 +3168,9 @@
       <c r="Z33" t="n">
         <v>0.7477854058462241</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.750630448459091</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3251,9 @@
       <c r="Z34" t="n">
         <v>-0.8553808813392414</v>
       </c>
+      <c r="AA34" t="n">
+        <v>-0.8535186076949144</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3232,6 +3334,9 @@
       <c r="Z35" t="n">
         <v>0.8071568225030079</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.8100438021454459</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3312,6 +3417,9 @@
       <c r="Z36" t="n">
         <v>0.7711365961733855</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.7754209872002946</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3392,6 +3500,9 @@
       <c r="Z37" t="n">
         <v>0.7360442109939078</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.7405235217607732</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3472,6 +3583,9 @@
       <c r="Z38" t="n">
         <v>0.6462935598024347</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.648609020923392</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3552,6 +3666,9 @@
       <c r="Z39" t="n">
         <v>0.6040000405339018</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.6058004871428485</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3632,6 +3749,9 @@
       <c r="Z40" t="n">
         <v>0.769663182963783</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.7723345122501691</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3712,6 +3832,9 @@
       <c r="Z41" t="n">
         <v>0.5780830681030367</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.5795927805461973</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3792,6 +3915,9 @@
       <c r="Z42" t="n">
         <v>0.6243064922232898</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.6289009000282846</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3872,6 +3998,9 @@
       <c r="Z43" t="n">
         <v>0.6777160511091106</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.6799297084780103</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3952,6 +4081,9 @@
       <c r="Z44" t="n">
         <v>0.703225613703207</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.7056497617532511</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4032,6 +4164,9 @@
       <c r="Z45" t="n">
         <v>0.7046805140278438</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.7100722917965356</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4247,9 @@
       <c r="Z46" t="n">
         <v>-1.321751039546887</v>
       </c>
+      <c r="AA46" t="n">
+        <v>-1.325354876050669</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4192,6 +4330,9 @@
       <c r="Z47" t="n">
         <v>-1.030780246373989</v>
       </c>
+      <c r="AA47" t="n">
+        <v>-1.033507463812457</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4272,6 +4413,9 @@
       <c r="Z48" t="n">
         <v>-0.8906470277067068</v>
       </c>
+      <c r="AA48" t="n">
+        <v>-0.8929985303219016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4352,6 +4496,9 @@
       <c r="Z49" t="n">
         <v>-0.653729333298315</v>
       </c>
+      <c r="AA49" t="n">
+        <v>-0.655866196707991</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4432,6 +4579,9 @@
       <c r="Z50" t="n">
         <v>-0.07858821533504809</v>
       </c>
+      <c r="AA50" t="n">
+        <v>-0.08018376011472357</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4512,6 +4662,9 @@
       <c r="Z51" t="n">
         <v>-0.8695481496467096</v>
       </c>
+      <c r="AA51" t="n">
+        <v>-0.8711077935754205</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4592,6 +4745,9 @@
       <c r="Z52" t="n">
         <v>-0.8695481496467096</v>
       </c>
+      <c r="AA52" t="n">
+        <v>-0.8711077935754205</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4672,6 +4828,9 @@
       <c r="Z53" t="n">
         <v>-1.159101793575674</v>
       </c>
+      <c r="AA53" t="n">
+        <v>-1.161942862708492</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4752,6 +4911,9 @@
       <c r="Z54" t="n">
         <v>-0.1871093101428064</v>
       </c>
+      <c r="AA54" t="n">
+        <v>-0.1888506918251042</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4832,6 +4994,9 @@
       <c r="Z55" t="n">
         <v>-1.053733025790263</v>
       </c>
+      <c r="AA55" t="n">
+        <v>-1.056745346818148</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4912,6 +5077,9 @@
       <c r="Z56" t="n">
         <v>-0.929105436023011</v>
       </c>
+      <c r="AA56" t="n">
+        <v>-0.9319333807092729</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4992,6 +5160,9 @@
       <c r="Z57" t="n">
         <v>-0.9782995953981648</v>
       </c>
+      <c r="AA57" t="n">
+        <v>-0.9846487928414889</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5072,6 +5243,9 @@
       <c r="Z58" t="n">
         <v>-1.120206889407454</v>
       </c>
+      <c r="AA58" t="n">
+        <v>-1.12650418486192</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5152,6 +5326,9 @@
       <c r="Z59" t="n">
         <v>-0.8105651481517254</v>
       </c>
+      <c r="AA59" t="n">
+        <v>-0.8144410887556016</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5232,6 +5409,9 @@
       <c r="Z60" t="n">
         <v>-0.444928313979582</v>
       </c>
+      <c r="AA60" t="n">
+        <v>-0.4491659157481667</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5312,6 +5492,9 @@
       <c r="Z61" t="n">
         <v>0.3802750562766877</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.3793130972884063</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5392,6 +5575,9 @@
       <c r="Z62" t="n">
         <v>-1.24238094766197</v>
       </c>
+      <c r="AA62" t="n">
+        <v>-1.249895758295609</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5472,6 +5658,9 @@
       <c r="Z63" t="n">
         <v>-0.5670501795348358</v>
       </c>
+      <c r="AA63" t="n">
+        <v>-0.5702302214180406</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5552,6 +5741,9 @@
       <c r="Z64" t="n">
         <v>-0.8730228941632834</v>
       </c>
+      <c r="AA64" t="n">
+        <v>-0.8781074876157257</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5632,6 +5824,9 @@
       <c r="Z65" t="n">
         <v>-0.05356106217356953</v>
       </c>
+      <c r="AA65" t="n">
+        <v>-0.05682082041022112</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5712,6 +5907,9 @@
       <c r="Z66" t="n">
         <v>-0.8124266266994405</v>
       </c>
+      <c r="AA66" t="n">
+        <v>-0.8184907713757247</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5791,6 +5989,9 @@
       </c>
       <c r="Z67" t="n">
         <v>-0.7989899053500451</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8054677431247314</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.2335759392024539</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.2366189651016099</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>0.2504228106219786</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.247176887435767</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>0.2351291427508618</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.232359081010003</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>-0.06334581300625765</v>
       </c>
+      <c r="AB5" t="n">
+        <v>-0.06612577922922086</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>0.1982851822902231</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0.195488467893308</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.3896908284675416</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.3928478604403844</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1310869326376446</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1326692995960186</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>-0.3015932886139303</v>
       </c>
+      <c r="AB9" t="n">
+        <v>-0.3059013226941667</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.3985632161490247</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.3959815361398532</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.1973191850726862</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.1999750944599496</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.08616306135251822</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.09158524242278616</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1511,6 +1547,9 @@
       <c r="AA13" t="n">
         <v>-0.04981412532361582</v>
       </c>
+      <c r="AB13" t="n">
+        <v>-0.05197498571061997</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1594,6 +1633,9 @@
       <c r="AA14" t="n">
         <v>0.07220939840031629</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0.06336972745793767</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1677,6 +1719,9 @@
       <c r="AA15" t="n">
         <v>-0.07245262165793417</v>
       </c>
+      <c r="AB15" t="n">
+        <v>-0.08342208334639202</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1805,9 @@
       <c r="AA16" t="n">
         <v>0.3503697301744115</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0.3372819488722851</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1843,6 +1891,9 @@
       <c r="AA17" t="n">
         <v>0.4533117672850469</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0.443901000362015</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1926,6 +1977,9 @@
       <c r="AA18" t="n">
         <v>-0.1466157154906829</v>
       </c>
+      <c r="AB18" t="n">
+        <v>-0.1507852818558663</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2009,6 +2063,9 @@
       <c r="AA19" t="n">
         <v>0.3087944745271003</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0.3028304392304886</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2092,6 +2149,9 @@
       <c r="AA20" t="n">
         <v>0.2399297612343867</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0.2268605585411834</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2175,6 +2235,9 @@
       <c r="AA21" t="n">
         <v>0.5089858301665608</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0.5001558518636432</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2258,6 +2321,9 @@
       <c r="AA22" t="n">
         <v>0.2780508883900421</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0.2692542394037868</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2341,6 +2407,9 @@
       <c r="AA23" t="n">
         <v>-0.1529152854854541</v>
       </c>
+      <c r="AB23" t="n">
+        <v>-0.1605124028740289</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2424,6 +2493,9 @@
       <c r="AA24" t="n">
         <v>1.010563344458076</v>
       </c>
+      <c r="AB24" t="n">
+        <v>1.010394513716646</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2507,6 +2579,9 @@
       <c r="AA25" t="n">
         <v>0.3090836201534449</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0.3115575016655979</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2590,6 +2665,9 @@
       <c r="AA26" t="n">
         <v>0.1218539332260857</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0.1232389373260732</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2673,6 +2751,9 @@
       <c r="AA27" t="n">
         <v>0.02363003292006885</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0.02554611484023108</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2756,6 +2837,9 @@
       <c r="AA28" t="n">
         <v>0.7999201443431585</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0.8048813216704275</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2839,6 +2923,9 @@
       <c r="AA29" t="n">
         <v>1.427086076846719</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1.444947840673563</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2922,6 +3009,9 @@
       <c r="AA30" t="n">
         <v>0.6440256111026128</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0.6480356708326462</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3005,6 +3095,9 @@
       <c r="AA31" t="n">
         <v>-0.4461244295041087</v>
       </c>
+      <c r="AB31" t="n">
+        <v>-0.4418994956837602</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3088,6 +3181,9 @@
       <c r="AA32" t="n">
         <v>0.530066405784841</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0.5336552843370308</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3171,6 +3267,9 @@
       <c r="AA33" t="n">
         <v>0.750630448459091</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0.7534240847790827</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,6 +3353,9 @@
       <c r="AA34" t="n">
         <v>-0.8535186076949144</v>
       </c>
+      <c r="AB34" t="n">
+        <v>-0.8517199834466452</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3337,6 +3439,9 @@
       <c r="AA35" t="n">
         <v>0.8100438021454459</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0.812750895259916</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3420,6 +3525,9 @@
       <c r="AA36" t="n">
         <v>0.7754209872002946</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0.7793360466849968</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3503,6 +3611,9 @@
       <c r="AA37" t="n">
         <v>0.7405235217607732</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0.7446222867935174</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3586,6 +3697,9 @@
       <c r="AA38" t="n">
         <v>0.648609020923392</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0.6507837298938839</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3669,6 +3783,9 @@
       <c r="AA39" t="n">
         <v>0.6058004871428485</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0.607420924283937</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3752,6 +3869,9 @@
       <c r="AA40" t="n">
         <v>0.7723345122501691</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0.7748497965165708</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3835,6 +3955,9 @@
       <c r="AA41" t="n">
         <v>0.5795927805461973</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0.5809096430702384</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3918,6 +4041,9 @@
       <c r="AA42" t="n">
         <v>0.6289009000282846</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0.633137862015167</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4001,6 +4127,9 @@
       <c r="AA43" t="n">
         <v>0.6799297084780103</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.6819629411219493</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4084,6 +4213,9 @@
       <c r="AA44" t="n">
         <v>0.7056497617532511</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0.7078218880897721</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4167,6 +4299,9 @@
       <c r="AA45" t="n">
         <v>0.7100722917965356</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.7149133292247229</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4250,6 +4385,9 @@
       <c r="AA46" t="n">
         <v>-1.325354876050669</v>
       </c>
+      <c r="AB46" t="n">
+        <v>-1.328988962052103</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4333,6 +4471,9 @@
       <c r="AA47" t="n">
         <v>-1.033507463812457</v>
       </c>
+      <c r="AB47" t="n">
+        <v>-1.036282983862274</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4416,6 +4557,9 @@
       <c r="AA48" t="n">
         <v>-0.8929985303219016</v>
       </c>
+      <c r="AB48" t="n">
+        <v>-0.8955130100372105</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4499,6 +4643,9 @@
       <c r="AA49" t="n">
         <v>-0.655866196707991</v>
       </c>
+      <c r="AB49" t="n">
+        <v>-0.6581154924785698</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4582,6 +4729,9 @@
       <c r="AA50" t="n">
         <v>-0.08018376011472357</v>
       </c>
+      <c r="AB50" t="n">
+        <v>-0.08176643405461469</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4665,6 +4815,9 @@
       <c r="AA51" t="n">
         <v>-0.8711077935754205</v>
       </c>
+      <c r="AB51" t="n">
+        <v>-0.8728544823367621</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,6 +4901,9 @@
       <c r="AA52" t="n">
         <v>-0.8711077935754205</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-0.8728544823367621</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4831,6 +4987,9 @@
       <c r="AA53" t="n">
         <v>-1.161942862708492</v>
       </c>
+      <c r="AB53" t="n">
+        <v>-1.164951539826133</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4914,6 +5073,9 @@
       <c r="AA54" t="n">
         <v>-0.1888506918251042</v>
       </c>
+      <c r="AB54" t="n">
+        <v>-0.1906432119071806</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4997,6 +5159,9 @@
       <c r="AA55" t="n">
         <v>-1.056745346818148</v>
       </c>
+      <c r="AB55" t="n">
+        <v>-1.059790331894438</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5080,6 +5245,9 @@
       <c r="AA56" t="n">
         <v>-0.9319333807092729</v>
       </c>
+      <c r="AB56" t="n">
+        <v>-0.9346840497216173</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5163,6 +5331,9 @@
       <c r="AA57" t="n">
         <v>-0.9846487928414889</v>
       </c>
+      <c r="AB57" t="n">
+        <v>-0.9906895079559781</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5246,6 +5417,9 @@
       <c r="AA58" t="n">
         <v>-1.12650418486192</v>
       </c>
+      <c r="AB58" t="n">
+        <v>-1.132483410390369</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5329,6 +5503,9 @@
       <c r="AA59" t="n">
         <v>-0.8144410887556016</v>
       </c>
+      <c r="AB59" t="n">
+        <v>-0.8182883357285194</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5412,6 +5589,9 @@
       <c r="AA60" t="n">
         <v>-0.4491659157481667</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-0.453230997535068</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5495,6 +5675,9 @@
       <c r="AA61" t="n">
         <v>0.3793130972884063</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0.3783596381249379</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5578,6 +5761,9 @@
       <c r="AA62" t="n">
         <v>-1.249895758295609</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-1.257038230084754</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5661,6 +5847,9 @@
       <c r="AA63" t="n">
         <v>-0.5702302214180406</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-0.5734970067342267</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5744,6 +5933,9 @@
       <c r="AA64" t="n">
         <v>-0.8781074876157257</v>
       </c>
+      <c r="AB64" t="n">
+        <v>-0.8831902223022318</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5827,6 +6019,9 @@
       <c r="AA65" t="n">
         <v>-0.05682082041022112</v>
       </c>
+      <c r="AB65" t="n">
+        <v>-0.05994195703363689</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,6 +6105,9 @@
       <c r="AA66" t="n">
         <v>-0.8184907713757247</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-0.824135892857202</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5992,6 +6190,9 @@
       </c>
       <c r="AA67" t="n">
         <v>-0.8054677431247314</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8113706237296712</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.2366189651016099</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2396048478695963</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>0.247176887435767</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.2440725801269357</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>0.232359081010003</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.2296016622804929</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>-0.06612577922922086</v>
       </c>
+      <c r="AC5" t="n">
+        <v>-0.06876267986027612</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>0.195488467893308</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0.1928721745431617</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.3928478604403844</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.39599443959431</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1326692995960186</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1343676900669361</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>-0.3059013226941667</v>
       </c>
+      <c r="AC9" t="n">
+        <v>-0.3101933568937444</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.3959815361398532</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.3935743940931828</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.1999750944599496</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.2025931622361503</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.09158524242278616</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.0965838217612221</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1550,6 +1586,9 @@
       <c r="AB13" t="n">
         <v>-0.05197498571061997</v>
       </c>
+      <c r="AC13" t="n">
+        <v>-0.05402522210952625</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1636,6 +1675,9 @@
       <c r="AB14" t="n">
         <v>0.06336972745793767</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0.05532413143191989</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1722,6 +1764,9 @@
       <c r="AB15" t="n">
         <v>-0.08342208334639202</v>
       </c>
+      <c r="AC15" t="n">
+        <v>-0.09331679359299251</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1808,6 +1853,9 @@
       <c r="AB16" t="n">
         <v>0.3372819488722851</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0.3254809557353749</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1894,6 +1942,9 @@
       <c r="AB17" t="n">
         <v>0.443901000362015</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0.4356308092384877</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2031,9 @@
       <c r="AB18" t="n">
         <v>-0.1507852818558663</v>
       </c>
+      <c r="AC18" t="n">
+        <v>-0.1545658038298771</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2066,6 +2120,9 @@
       <c r="AB19" t="n">
         <v>0.3028304392304886</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0.2974342953827701</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2152,6 +2209,9 @@
       <c r="AB20" t="n">
         <v>0.2268605585411834</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0.2151358262510489</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2238,6 +2298,9 @@
       <c r="AB21" t="n">
         <v>0.5001558518636432</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0.492392638155208</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2324,6 +2387,9 @@
       <c r="AB22" t="n">
         <v>0.2692542394037868</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0.26148562937333</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2410,6 +2476,9 @@
       <c r="AB23" t="n">
         <v>-0.1605124028740289</v>
       </c>
+      <c r="AC23" t="n">
+        <v>-0.167250054752506</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2496,6 +2565,9 @@
       <c r="AB24" t="n">
         <v>1.010394513716646</v>
       </c>
+      <c r="AC24" t="n">
+        <v>1.017945768625251</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2582,6 +2654,9 @@
       <c r="AB25" t="n">
         <v>0.3115575016655979</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0.3139338265514329</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2668,6 +2743,9 @@
       <c r="AB26" t="n">
         <v>0.1232389373260732</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0.1248179604905171</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2754,6 +2832,9 @@
       <c r="AB27" t="n">
         <v>0.02554611484023108</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0.02765068593188532</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2840,6 +2921,9 @@
       <c r="AB28" t="n">
         <v>0.8048813216704275</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0.8099001021594157</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2926,6 +3010,9 @@
       <c r="AB29" t="n">
         <v>1.444947840673563</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1.465860602957715</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3012,6 +3099,9 @@
       <c r="AB30" t="n">
         <v>0.6480356708326462</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0.6519818762827385</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3098,6 +3188,9 @@
       <c r="AB31" t="n">
         <v>-0.4418994956837602</v>
       </c>
+      <c r="AC31" t="n">
+        <v>-0.4380951925780455</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3184,6 +3277,9 @@
       <c r="AB32" t="n">
         <v>0.5336552843370308</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0.5372041999589316</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3270,6 +3366,9 @@
       <c r="AB33" t="n">
         <v>0.7534240847790827</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0.7561220781899193</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3356,6 +3455,9 @@
       <c r="AB34" t="n">
         <v>-0.8517199834466452</v>
       </c>
+      <c r="AC34" t="n">
+        <v>-0.850029542582442</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3442,6 +3544,9 @@
       <c r="AB35" t="n">
         <v>0.812750895259916</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0.8152644541355637</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3528,6 +3633,9 @@
       <c r="AB36" t="n">
         <v>0.7793360466849968</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0.7828750017900682</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3614,6 +3722,9 @@
       <c r="AB37" t="n">
         <v>0.7446222867935174</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0.7483320571435929</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3700,6 +3811,9 @@
       <c r="AB38" t="n">
         <v>0.6507837298938839</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0.6528003747297724</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3786,6 +3900,9 @@
       <c r="AB39" t="n">
         <v>0.607420924283937</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0.6088613280011084</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3872,6 +3989,9 @@
       <c r="AB40" t="n">
         <v>0.7748497965165708</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0.7771965474053562</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3958,6 +4078,9 @@
       <c r="AB41" t="n">
         <v>0.5809096430702384</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0.5820429591505384</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4044,6 +4167,9 @@
       <c r="AB42" t="n">
         <v>0.633137862015167</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0.6369969303726369</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4130,6 +4256,9 @@
       <c r="AB43" t="n">
         <v>0.6819629411219493</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.6838082752300811</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4216,6 +4345,9 @@
       <c r="AB44" t="n">
         <v>0.7078218880897721</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0.7097459197811743</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4302,6 +4434,9 @@
       <c r="AB45" t="n">
         <v>0.7149133292247229</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.7192074188573467</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4388,6 +4523,9 @@
       <c r="AB46" t="n">
         <v>-1.328988962052103</v>
       </c>
+      <c r="AC46" t="n">
+        <v>-1.332635056214857</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4474,6 +4612,9 @@
       <c r="AB47" t="n">
         <v>-1.036282983862274</v>
       </c>
+      <c r="AC47" t="n">
+        <v>-1.039092502241814</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4560,6 +4701,9 @@
       <c r="AB48" t="n">
         <v>-0.8955130100372105</v>
       </c>
+      <c r="AC48" t="n">
+        <v>-0.8981634306374442</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4646,6 +4790,9 @@
       <c r="AB49" t="n">
         <v>-0.6581154924785698</v>
       </c>
+      <c r="AC49" t="n">
+        <v>-0.6604551107654499</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4732,6 +4879,9 @@
       <c r="AB50" t="n">
         <v>-0.08176643405461469</v>
       </c>
+      <c r="AC50" t="n">
+        <v>-0.08333168527854447</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4818,6 +4968,9 @@
       <c r="AB51" t="n">
         <v>-0.8728544823367621</v>
       </c>
+      <c r="AC51" t="n">
+        <v>-0.8747647872888811</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4904,6 +5057,9 @@
       <c r="AB52" t="n">
         <v>-0.8728544823367621</v>
       </c>
+      <c r="AC52" t="n">
+        <v>-0.8747647872888811</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4990,6 +5146,9 @@
       <c r="AB53" t="n">
         <v>-1.164951539826133</v>
       </c>
+      <c r="AC53" t="n">
+        <v>-1.168101808301885</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,6 +5235,9 @@
       <c r="AB54" t="n">
         <v>-0.1906432119071806</v>
       </c>
+      <c r="AC54" t="n">
+        <v>-0.1924717405483181</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5162,6 +5324,9 @@
       <c r="AB55" t="n">
         <v>-1.059790331894438</v>
       </c>
+      <c r="AC55" t="n">
+        <v>-1.062853757525648</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5248,6 +5413,9 @@
       <c r="AB56" t="n">
         <v>-0.9346840497216173</v>
       </c>
+      <c r="AC56" t="n">
+        <v>-0.9373553242098751</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5334,6 +5502,9 @@
       <c r="AB57" t="n">
         <v>-0.9906895079559781</v>
       </c>
+      <c r="AC57" t="n">
+        <v>-0.9964046082813492</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5420,6 +5591,9 @@
       <c r="AB58" t="n">
         <v>-1.132483410390369</v>
       </c>
+      <c r="AC58" t="n">
+        <v>-1.138123872659605</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5506,6 +5680,9 @@
       <c r="AB59" t="n">
         <v>-0.8182883357285194</v>
       </c>
+      <c r="AC59" t="n">
+        <v>-0.8220764248371148</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5592,6 +5769,9 @@
       <c r="AB60" t="n">
         <v>-0.453230997535068</v>
       </c>
+      <c r="AC60" t="n">
+        <v>-0.4570991320145864</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5678,6 +5858,9 @@
       <c r="AB61" t="n">
         <v>0.3783596381249379</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0.3774225322677759</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5764,6 +5947,9 @@
       <c r="AB62" t="n">
         <v>-1.257038230084754</v>
       </c>
+      <c r="AC62" t="n">
+        <v>-1.26378756771769</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5850,6 +6036,9 @@
       <c r="AB63" t="n">
         <v>-0.5734970067342267</v>
       </c>
+      <c r="AC63" t="n">
+        <v>-0.5767960928653953</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5936,6 +6125,9 @@
       <c r="AB64" t="n">
         <v>-0.8831902223022318</v>
       </c>
+      <c r="AC64" t="n">
+        <v>-0.8882230768909475</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6022,6 +6214,9 @@
       <c r="AB65" t="n">
         <v>-0.05994195703363689</v>
       </c>
+      <c r="AC65" t="n">
+        <v>-0.06290545705606637</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6108,6 +6303,9 @@
       <c r="AB66" t="n">
         <v>-0.824135892857202</v>
       </c>
+      <c r="AC66" t="n">
+        <v>-0.8293578381667348</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6193,6 +6391,9 @@
       </c>
       <c r="AB67" t="n">
         <v>-0.8113706237296712</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8167117815825605</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2396048478695963</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2425051163064046</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>0.2440725801269357</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.241134632048326</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>0.2296016622804929</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.2268925569207834</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>-0.06876267986027612</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-0.07124569483215655</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>0.1928721745431617</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.1904508298230557</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.39599443959431</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.3990974374516436</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1343676900669361</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1361422651070066</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>-0.3101933568937444</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-0.3144128175200809</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.3935743940931828</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.3913513237169828</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.2025931622361503</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.2051512556703943</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.0965838217612221</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.1011534937183041</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1625,9 @@
       <c r="AC13" t="n">
         <v>-0.05402522210952625</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-0.05596190756741187</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1678,6 +1717,9 @@
       <c r="AC14" t="n">
         <v>0.05532413143191989</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.04807989986537153</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1767,6 +1809,9 @@
       <c r="AC15" t="n">
         <v>-0.09331679359299251</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-0.102148769758535</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1856,6 +1901,9 @@
       <c r="AC16" t="n">
         <v>0.3254809557353749</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.3149641962463585</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1945,6 +1993,9 @@
       <c r="AC17" t="n">
         <v>0.4356308092384877</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.4284598064697253</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2034,6 +2085,9 @@
       <c r="AC18" t="n">
         <v>-0.1545658038298771</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-0.1579729625335269</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2123,6 +2177,9 @@
       <c r="AC19" t="n">
         <v>0.2974342953827701</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.2925932132367625</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2212,6 +2269,9 @@
       <c r="AC20" t="n">
         <v>0.2151358262510489</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.2047379732047304</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2361,9 @@
       <c r="AC21" t="n">
         <v>0.492392638155208</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4856643404565191</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2453,9 @@
       <c r="AC22" t="n">
         <v>0.26148562937333</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.2547135442987522</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2479,6 +2545,9 @@
       <c r="AC23" t="n">
         <v>-0.167250054752506</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-0.1731569554902967</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2568,6 +2637,9 @@
       <c r="AC24" t="n">
         <v>1.017945768625251</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1.03185763557983</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2657,6 +2729,9 @@
       <c r="AC25" t="n">
         <v>0.3139338265514329</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.3161831499208611</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2746,6 +2821,9 @@
       <c r="AC26" t="n">
         <v>0.1248179604905171</v>
       </c>
+      <c r="AD26" t="n">
+        <v>0.126523576972562</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2835,6 +2913,9 @@
       <c r="AC27" t="n">
         <v>0.02765068593188532</v>
       </c>
+      <c r="AD27" t="n">
+        <v>0.02987246829372189</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2924,6 +3005,9 @@
       <c r="AC28" t="n">
         <v>0.8099001021594157</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.8148904340500613</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3013,6 +3097,9 @@
       <c r="AC29" t="n">
         <v>1.465860602957715</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1.488895641526383</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3102,6 +3189,9 @@
       <c r="AC30" t="n">
         <v>0.6519818762827385</v>
       </c>
+      <c r="AD30" t="n">
+        <v>0.6557987420056716</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3191,6 +3281,9 @@
       <c r="AC31" t="n">
         <v>-0.4380951925780455</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-0.4347319386721788</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3280,6 +3373,9 @@
       <c r="AC32" t="n">
         <v>0.5372041999589316</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0.5406510550675961</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AC33" t="n">
         <v>0.7561220781899193</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0.7586894485666729</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3458,6 +3557,9 @@
       <c r="AC34" t="n">
         <v>-0.850029542582442</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-0.8484817262917433</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3547,6 +3649,9 @@
       <c r="AC35" t="n">
         <v>0.8152644541355637</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0.8175761651558571</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3636,6 +3741,9 @@
       <c r="AC36" t="n">
         <v>0.7828750017900682</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0.786038796638808</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3725,6 +3833,9 @@
       <c r="AC37" t="n">
         <v>0.7483320571435929</v>
       </c>
+      <c r="AD37" t="n">
+        <v>0.7516526569959574</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3814,6 +3925,9 @@
       <c r="AC38" t="n">
         <v>0.6528003747297724</v>
       </c>
+      <c r="AD38" t="n">
+        <v>0.6546475609130771</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3903,6 +4017,9 @@
       <c r="AC39" t="n">
         <v>0.6088613280011084</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0.6101247356741017</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +4109,9 @@
       <c r="AC40" t="n">
         <v>0.7771965474053562</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0.7793667274346695</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4081,6 +4201,9 @@
       <c r="AC41" t="n">
         <v>0.5820429591505384</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0.5830039384448829</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4170,6 +4293,9 @@
       <c r="AC42" t="n">
         <v>0.6369969303726369</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0.6404679739919088</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4259,6 +4385,9 @@
       <c r="AC43" t="n">
         <v>0.6838082752300811</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.6854629961819177</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4348,6 +4477,9 @@
       <c r="AC44" t="n">
         <v>0.7097459197811743</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0.7114295080396148</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4437,6 +4569,9 @@
       <c r="AC45" t="n">
         <v>0.7192074188573467</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.722967401753933</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4526,6 +4661,9 @@
       <c r="AC46" t="n">
         <v>-1.332635056214857</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-1.336275980957407</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4615,6 +4753,9 @@
       <c r="AC47" t="n">
         <v>-1.039092502241814</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-1.041922011829333</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4704,6 +4845,9 @@
       <c r="AC48" t="n">
         <v>-0.8981634306374442</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.9009231791973196</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4793,6 +4937,9 @@
       <c r="AC49" t="n">
         <v>-0.6604551107654499</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.6628637014843285</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4882,6 +5029,9 @@
       <c r="AC50" t="n">
         <v>-0.08333168527854447</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.08487536500094035</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4971,6 +5121,9 @@
       <c r="AC51" t="n">
         <v>-0.8747647872888811</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.8768149224338537</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5060,6 +5213,9 @@
       <c r="AC52" t="n">
         <v>-0.8747647872888811</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.8768149224338537</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5149,6 +5305,9 @@
       <c r="AC53" t="n">
         <v>-1.168101808301885</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1.171367263938479</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5238,6 +5397,9 @@
       <c r="AC54" t="n">
         <v>-0.1924717405483181</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.194322224371035</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5327,6 +5489,9 @@
       <c r="AC55" t="n">
         <v>-1.062853757525648</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-1.065921920111347</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5416,6 +5581,9 @@
       <c r="AC56" t="n">
         <v>-0.9373553242098751</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.9399460439895088</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5505,6 +5673,9 @@
       <c r="AC57" t="n">
         <v>-0.9964046082813492</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-1.001784330707786</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5594,6 +5765,9 @@
       <c r="AC58" t="n">
         <v>-1.138123872659605</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-1.143413569440281</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5683,6 +5857,9 @@
       <c r="AC59" t="n">
         <v>-0.8220764248371148</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.8257800293073021</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5772,6 +5949,9 @@
       <c r="AC60" t="n">
         <v>-0.4570991320145864</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.4607530670177563</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5861,6 +6041,9 @@
       <c r="AC61" t="n">
         <v>0.3774225322677759</v>
       </c>
+      <c r="AD61" t="n">
+        <v>0.3765082880679936</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5950,6 +6133,9 @@
       <c r="AC62" t="n">
         <v>-1.26378756771769</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-1.270132137304594</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6039,6 +6225,9 @@
       <c r="AC63" t="n">
         <v>-0.5767960928653953</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.5800811774082695</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6128,6 +6317,9 @@
       <c r="AC64" t="n">
         <v>-0.8882230768909475</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.8931650940366106</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6217,6 +6409,9 @@
       <c r="AC65" t="n">
         <v>-0.06290545705606637</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.0656981695821079</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6306,6 +6501,9 @@
       <c r="AC66" t="n">
         <v>-0.8293578381667348</v>
       </c>
+      <c r="AD66" t="n">
+        <v>-0.8341602976457668</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6394,6 +6592,9 @@
       </c>
       <c r="AC67" t="n">
         <v>-0.8167117815825605</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8215124718040662</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2425051163064046</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.245297075561398</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>0.241134632048326</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.2383812672684957</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>0.2268925569207834</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.2242612024250417</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>-0.07124569483215655</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.07356814877386911</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>0.1904508298230557</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.1882331168241808</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.3990974374516436</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.4021291682724244</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1361422651070066</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1379580789484314</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>-0.3144128175200809</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.3185126209321443</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.3913513237169828</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.3893170211582729</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.2051512556703943</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.2076313845273314</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.1011534937183041</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.1052971553172042</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1628,6 +1664,9 @@
       <c r="AD13" t="n">
         <v>-0.05596190756741187</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.05778401858589138</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1720,6 +1759,9 @@
       <c r="AD14" t="n">
         <v>0.04807989986537153</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.04162894966996275</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1812,6 +1854,9 @@
       <c r="AD15" t="n">
         <v>-0.102148769758535</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.1099467696804508</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1904,6 +1949,9 @@
       <c r="AD16" t="n">
         <v>0.3149641962463585</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.3057065228420466</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1996,6 +2044,9 @@
       <c r="AD17" t="n">
         <v>0.4284598064697253</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.4223337061249536</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2088,6 +2139,9 @@
       <c r="AD18" t="n">
         <v>-0.1579729625335269</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.1610252049133958</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2180,6 +2234,9 @@
       <c r="AD19" t="n">
         <v>0.2925932132367625</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.2882870799988389</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2272,6 +2329,9 @@
       <c r="AD20" t="n">
         <v>0.2047379732047304</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.1956285731397211</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2364,6 +2424,9 @@
       <c r="AD21" t="n">
         <v>0.4856643404565191</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4799248444267222</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2519,9 @@
       <c r="AD22" t="n">
         <v>0.2547135442987522</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.2488937057484308</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2548,6 +2614,9 @@
       <c r="AD23" t="n">
         <v>-0.1731569554902967</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.1782719811540502</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2640,6 +2709,9 @@
       <c r="AD24" t="n">
         <v>1.03185763557983</v>
       </c>
+      <c r="AE24" t="n">
+        <v>1.050866338360337</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2732,6 +2804,9 @@
       <c r="AD25" t="n">
         <v>0.3161831499208611</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.3182837942227931</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2824,6 +2899,9 @@
       <c r="AD26" t="n">
         <v>0.126523576972562</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1282971556419452</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2916,6 +2994,9 @@
       <c r="AD27" t="n">
         <v>0.02987246829372189</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.03214991558536794</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3008,6 +3089,9 @@
       <c r="AD28" t="n">
         <v>0.8148904340500613</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.8197802789109446</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3100,6 +3184,9 @@
       <c r="AD29" t="n">
         <v>1.488895641526383</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1.513244209904954</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3192,6 +3279,9 @@
       <c r="AD30" t="n">
         <v>0.6557987420056716</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.659434593998712</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3284,6 +3374,9 @@
       <c r="AD31" t="n">
         <v>-0.4347319386721788</v>
       </c>
+      <c r="AE31" t="n">
+        <v>-0.431817181658544</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3376,6 +3469,9 @@
       <c r="AD32" t="n">
         <v>0.5406510550675961</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.5439459512094352</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3468,6 +3564,9 @@
       <c r="AD33" t="n">
         <v>0.7586894485666729</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.7610995799180462</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3560,6 +3659,9 @@
       <c r="AD34" t="n">
         <v>-0.8484817262917433</v>
       </c>
+      <c r="AE34" t="n">
+        <v>-0.8471019217184479</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3652,6 +3754,9 @@
       <c r="AD35" t="n">
         <v>0.8175761651558571</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.81968238648894</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3744,6 +3849,9 @@
       <c r="AD36" t="n">
         <v>0.786038796638808</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.7888348528118491</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3836,6 +3944,9 @@
       <c r="AD37" t="n">
         <v>0.7516526569959574</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.7545908671144681</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3928,6 +4039,9 @@
       <c r="AD38" t="n">
         <v>0.6546475609130771</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.6563190327258442</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4020,6 +4134,9 @@
       <c r="AD39" t="n">
         <v>0.6101247356741017</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.6112167369175957</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4112,6 +4229,9 @@
       <c r="AD40" t="n">
         <v>0.7793667274346695</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.7813562602062809</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4204,6 +4324,9 @@
       <c r="AD41" t="n">
         <v>0.5830039384448829</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.5838051602996662</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4296,6 +4419,9 @@
       <c r="AD42" t="n">
         <v>0.6404679739919088</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.6435496922053708</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4388,6 +4514,9 @@
       <c r="AD43" t="n">
         <v>0.6854629961819177</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.6869284104152458</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4480,6 +4609,9 @@
       <c r="AD44" t="n">
         <v>0.7114295080396148</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.7128833037943569</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4572,6 +4704,9 @@
       <c r="AD45" t="n">
         <v>0.722967401753933</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.7262135149344735</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4664,6 +4799,9 @@
       <c r="AD46" t="n">
         <v>-1.336275980957407</v>
       </c>
+      <c r="AE46" t="n">
+        <v>-1.339895808024868</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4756,6 +4894,9 @@
       <c r="AD47" t="n">
         <v>-1.041922011829333</v>
       </c>
+      <c r="AE47" t="n">
+        <v>-1.044758047351862</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4848,6 +4989,9 @@
       <c r="AD48" t="n">
         <v>-0.9009231791973196</v>
       </c>
+      <c r="AE48" t="n">
+        <v>-0.9037665330760891</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4940,6 +5084,9 @@
       <c r="AD49" t="n">
         <v>-0.6628637014843285</v>
       </c>
+      <c r="AE49" t="n">
+        <v>-0.6653209749753028</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5032,6 +5179,9 @@
       <c r="AD50" t="n">
         <v>-0.08487536500094035</v>
       </c>
+      <c r="AE50" t="n">
+        <v>-0.08639374520540244</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5124,6 +5274,9 @@
       <c r="AD51" t="n">
         <v>-0.8768149224338537</v>
       </c>
+      <c r="AE51" t="n">
+        <v>-0.8789812616863717</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5216,6 +5369,9 @@
       <c r="AD52" t="n">
         <v>-0.8768149224338537</v>
       </c>
+      <c r="AE52" t="n">
+        <v>-0.8789812616863717</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5308,6 +5464,9 @@
       <c r="AD53" t="n">
         <v>-1.171367263938479</v>
       </c>
+      <c r="AE53" t="n">
+        <v>-1.174721752723594</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5400,6 +5559,9 @@
       <c r="AD54" t="n">
         <v>-0.194322224371035</v>
       </c>
+      <c r="AE54" t="n">
+        <v>-0.1961817738011996</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5492,6 +5654,9 @@
       <c r="AD55" t="n">
         <v>-1.065921920111347</v>
       </c>
+      <c r="AE55" t="n">
+        <v>-1.068981835362129</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5584,6 +5749,9 @@
       <c r="AD56" t="n">
         <v>-0.9399460439895088</v>
       </c>
+      <c r="AE56" t="n">
+        <v>-0.9424558475764446</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5676,6 +5844,9 @@
       <c r="AD57" t="n">
         <v>-1.001784330707786</v>
       </c>
+      <c r="AE57" t="n">
+        <v>-1.006825303512122</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5768,6 +5939,9 @@
       <c r="AD58" t="n">
         <v>-1.143413569440281</v>
       </c>
+      <c r="AE58" t="n">
+        <v>-1.148347981181703</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5860,6 +6034,9 @@
       <c r="AD59" t="n">
         <v>-0.8257800293073021</v>
       </c>
+      <c r="AE59" t="n">
+        <v>-0.8293785865206057</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5952,6 +6129,9 @@
       <c r="AD60" t="n">
         <v>-0.4607530670177563</v>
       </c>
+      <c r="AE60" t="n">
+        <v>-0.4641818494236108</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6044,6 +6224,9 @@
       <c r="AD61" t="n">
         <v>0.3765082880679936</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.3756221658640837</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6136,6 +6319,9 @@
       <c r="AD62" t="n">
         <v>-1.270132137304594</v>
       </c>
+      <c r="AE62" t="n">
+        <v>-1.27606821037515</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6228,6 +6414,9 @@
       <c r="AD63" t="n">
         <v>-0.5800811774082695</v>
       </c>
+      <c r="AE63" t="n">
+        <v>-0.5833135692615039</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6320,6 +6509,9 @@
       <c r="AD64" t="n">
         <v>-0.8931650940366106</v>
       </c>
+      <c r="AE64" t="n">
+        <v>-0.8979820756726998</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6412,6 +6604,9 @@
       <c r="AD65" t="n">
         <v>-0.0656981695821079</v>
       </c>
+      <c r="AE65" t="n">
+        <v>-0.06831204647411174</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6504,6 +6699,9 @@
       <c r="AD66" t="n">
         <v>-0.8341602976457668</v>
       </c>
+      <c r="AE66" t="n">
+        <v>-0.8385534174824983</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6595,6 +6793,9 @@
       </c>
       <c r="AD67" t="n">
         <v>-0.8215124718040662</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8258001590645971</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.245297075561398</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2479632866827486</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>0.2383812672684957</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.2358248528320201</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>0.2242612024250417</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.2217312475580602</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>-0.07356814877386911</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-0.07572697238042236</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>0.1882331168241808</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.1862226620057608</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.4021291682724244</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.4050670436618048</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1379580789484314</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.1397849203205454</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>-0.3185126209321443</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-0.3224546035165416</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.3893170211582729</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.3874720558912966</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.2076313845273314</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.2100193675385126</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.1052971553172042</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.1090245338537886</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,6 +1703,9 @@
       <c r="AE13" t="n">
         <v>-0.05778401858589138</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-0.05949218089129962</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1801,9 @@
       <c r="AE14" t="n">
         <v>0.04162894966996275</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.03595042488410097</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1857,6 +1899,9 @@
       <c r="AE15" t="n">
         <v>-0.1099467696804508</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-0.1167531007207576</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1952,6 +1997,9 @@
       <c r="AE16" t="n">
         <v>0.3057065228420466</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.2976642664343288</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2047,6 +2095,9 @@
       <c r="AE17" t="n">
         <v>0.4223337061249536</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.4171883611504824</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2142,6 +2193,9 @@
       <c r="AE18" t="n">
         <v>-0.1610252049133958</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-0.1637431203855362</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2291,9 @@
       <c r="AE19" t="n">
         <v>0.2882870799988389</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.2844900030867541</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE20" t="n">
         <v>0.1956285731397211</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.1877524024970854</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2427,6 +2487,9 @@
       <c r="AE21" t="n">
         <v>0.4799248444267222</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.4751170208058026</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2522,6 +2585,9 @@
       <c r="AE22" t="n">
         <v>0.2488937057484308</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.2439719220764146</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2617,6 +2683,9 @@
       <c r="AE23" t="n">
         <v>-0.1782719811540502</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-0.1826418152766053</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2712,6 +2781,9 @@
       <c r="AE24" t="n">
         <v>1.050866338360337</v>
       </c>
+      <c r="AF24" t="n">
+        <v>1.073813187143882</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2807,6 +2879,9 @@
       <c r="AE25" t="n">
         <v>0.3182837942227931</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.3202208889756313</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2902,6 +2977,9 @@
       <c r="AE26" t="n">
         <v>0.1282971556419452</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1300885344022764</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,6 +3075,9 @@
       <c r="AE27" t="n">
         <v>0.03214991558536794</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.03443074087175391</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3092,6 +3173,9 @@
       <c r="AE28" t="n">
         <v>0.8197802789109446</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.8245106994668144</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,6 +3271,9 @@
       <c r="AE29" t="n">
         <v>1.513244209904954</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1.53821199750949</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3282,6 +3369,9 @@
       <c r="AE30" t="n">
         <v>0.659434593998712</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.6628501737794711</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,6 +3467,9 @@
       <c r="AE31" t="n">
         <v>-0.431817181658544</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-0.4293475429623989</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3472,6 +3565,9 @@
       <c r="AE32" t="n">
         <v>0.5439459512094352</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.5470501210495682</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3567,6 +3663,9 @@
       <c r="AE33" t="n">
         <v>0.7610995799180462</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.7633333191955702</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3662,6 +3761,9 @@
       <c r="AE34" t="n">
         <v>-0.8471019217184479</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-0.8459075018247111</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3757,6 +3859,9 @@
       <c r="AE35" t="n">
         <v>0.81968238648894</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.821583499274154</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3852,6 +3957,9 @@
       <c r="AE36" t="n">
         <v>0.7888348528118491</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.7912759074054907</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +4055,9 @@
       <c r="AE37" t="n">
         <v>0.7545908671144681</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.7571591905045991</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4042,6 +4153,9 @@
       <c r="AE38" t="n">
         <v>0.6563190327258442</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.657812928812221</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4137,6 +4251,9 @@
       <c r="AE39" t="n">
         <v>0.6112167369175957</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.612144993413301</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4232,6 +4349,9 @@
       <c r="AE40" t="n">
         <v>0.7813562602062809</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.7831645342849171</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4327,6 +4447,9 @@
       <c r="AE41" t="n">
         <v>0.5838051602996662</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.584460103665734</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4422,6 +4545,9 @@
       <c r="AE42" t="n">
         <v>0.6435496922053708</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.6462482048015293</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4517,6 +4643,9 @@
       <c r="AE43" t="n">
         <v>0.6869284104152458</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.6882091547837557</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4612,6 +4741,9 @@
       <c r="AE44" t="n">
         <v>0.7128833037943569</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.714120293319299</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4707,6 +4839,9 @@
       <c r="AE45" t="n">
         <v>0.7262135149344735</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.7289718639690907</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4802,6 +4937,9 @@
       <c r="AE46" t="n">
         <v>-1.339895808024868</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-1.343479992271633</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4897,6 +5035,9 @@
       <c r="AE47" t="n">
         <v>-1.044758047351862</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-1.047587881577801</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4992,6 +5133,9 @@
       <c r="AE48" t="n">
         <v>-0.9037665330760891</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-0.9066690331282354</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5087,6 +5231,9 @@
       <c r="AE49" t="n">
         <v>-0.6653209749753028</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-0.6678079341100372</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5182,6 +5329,9 @@
       <c r="AE50" t="n">
         <v>-0.08639374520540244</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-0.08788352842481867</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5277,6 +5427,9 @@
       <c r="AE51" t="n">
         <v>-0.8789812616863717</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-0.8812407705320183</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5372,6 +5525,9 @@
       <c r="AE52" t="n">
         <v>-0.8789812616863717</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-0.8812407705320183</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5467,6 +5623,9 @@
       <c r="AE53" t="n">
         <v>-1.174721752723594</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-1.178139894285646</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5562,6 +5721,9 @@
       <c r="AE54" t="n">
         <v>-0.1961817738011996</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-0.198038717586529</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5657,6 +5819,9 @@
       <c r="AE55" t="n">
         <v>-1.068981835362129</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-1.072021394333067</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5752,6 +5917,9 @@
       <c r="AE56" t="n">
         <v>-0.9424558475764446</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-0.9448850338119087</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5847,6 +6015,9 @@
       <c r="AE57" t="n">
         <v>-1.006825303512122</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-1.011529609973417</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5942,6 +6113,9 @@
       <c r="AE58" t="n">
         <v>-1.148347981181703</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-1.152928928755153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6037,6 +6211,9 @@
       <c r="AE59" t="n">
         <v>-0.8293785865206057</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-0.8328559018768218</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6132,6 +6309,9 @@
       <c r="AE60" t="n">
         <v>-0.4641818494236108</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-0.467379981503382</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6227,6 +6407,9 @@
       <c r="AE61" t="n">
         <v>0.3756221658640837</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.3747682816510932</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6322,6 +6505,9 @@
       <c r="AE62" t="n">
         <v>-1.27606821037515</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-1.281598770828091</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6417,6 +6603,9 @@
       <c r="AE63" t="n">
         <v>-0.5833135692615039</v>
       </c>
+      <c r="AF63" t="n">
+        <v>-0.5864616126831478</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6512,6 +6701,9 @@
       <c r="AE64" t="n">
         <v>-0.8979820756726998</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-0.902646193091956</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6607,6 +6799,9 @@
       <c r="AE65" t="n">
         <v>-0.06831204647411174</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-0.0707434197775046</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6702,6 +6897,9 @@
       <c r="AE66" t="n">
         <v>-0.8385534174824983</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-0.8425525313855666</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6796,6 +6994,9 @@
       </c>
       <c r="AE67" t="n">
         <v>-0.8258001590645971</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8296069112372282</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2479632866827486</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2504910350728138</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>0.2358248528320201</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.2334725703958444</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>0.2217312475580602</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.2193210350373859</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>-0.07572697238042236</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-0.07772218520481267</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>0.1862226620057608</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.1844187882707103</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.4050670436618048</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.4078931867078641</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.1397849203205454</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.1415970922460933</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>-0.3224546035165416</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-0.3262088634089721</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.3874720558912966</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.3858135393630392</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.2100193675385126</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.2123044837357979</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.1090245338537886</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.112350913280092</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1742,9 @@
       <c r="AF13" t="n">
         <v>-0.05949218089129962</v>
       </c>
+      <c r="AG13" t="n">
+        <v>-0.06108842365114051</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1804,6 +1843,9 @@
       <c r="AF14" t="n">
         <v>0.03595042488410097</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.03101311325033007</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1902,6 +1944,9 @@
       <c r="AF15" t="n">
         <v>-0.1167531007207576</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-0.1226206952204512</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2000,6 +2045,9 @@
       <c r="AF16" t="n">
         <v>0.2976642664343288</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.290778992340862</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,6 +2146,9 @@
       <c r="AF17" t="n">
         <v>0.4171883611504824</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.4129524909239474</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2196,6 +2247,9 @@
       <c r="AF18" t="n">
         <v>-0.1637431203855362</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-0.1661488596651303</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2294,6 +2348,9 @@
       <c r="AF19" t="n">
         <v>0.2844900030867541</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.2811716775645426</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2392,6 +2449,9 @@
       <c r="AF20" t="n">
         <v>0.1877524024970854</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.1810411333009573</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,6 +2550,9 @@
       <c r="AF21" t="n">
         <v>0.4751170208058026</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.4711756332476479</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2588,6 +2651,9 @@
       <c r="AF22" t="n">
         <v>0.2439719220764146</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.2398866591042495</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2686,6 +2752,9 @@
       <c r="AF23" t="n">
         <v>-0.1826418152766053</v>
       </c>
+      <c r="AG23" t="n">
+        <v>-0.1863188374453741</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2784,6 +2853,9 @@
       <c r="AF24" t="n">
         <v>1.073813187143882</v>
       </c>
+      <c r="AG24" t="n">
+        <v>1.099650144689834</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2882,6 +2954,9 @@
       <c r="AF25" t="n">
         <v>0.3202208889756313</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3219854538481175</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2980,6 +3055,9 @@
       <c r="AF26" t="n">
         <v>0.1300885344022764</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.1318555814076362</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3078,6 +3156,9 @@
       <c r="AF27" t="n">
         <v>0.03443074087175391</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.03667134858571553</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3176,6 +3257,9 @@
       <c r="AF28" t="n">
         <v>0.8245106994668144</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.8290348448092728</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3274,6 +3358,9 @@
       <c r="AF29" t="n">
         <v>1.53821199750949</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1.563212445734417</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3372,6 +3459,9 @@
       <c r="AF30" t="n">
         <v>0.6628501737794711</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.6660172511669153</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3470,6 +3560,9 @@
       <c r="AF31" t="n">
         <v>-0.4293475429623989</v>
       </c>
+      <c r="AG31" t="n">
+        <v>-0.4273107903454695</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3568,6 +3661,9 @@
       <c r="AF32" t="n">
         <v>0.5470501210495682</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.5499348244751761</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3666,6 +3762,9 @@
       <c r="AF33" t="n">
         <v>0.7633333191955702</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.7653780863107739</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3764,6 +3863,9 @@
       <c r="AF34" t="n">
         <v>-0.8459075018247111</v>
       </c>
+      <c r="AG34" t="n">
+        <v>-0.8449088440831366</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3862,6 +3964,9 @@
       <c r="AF35" t="n">
         <v>0.821583499274154</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.8232832841707143</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3960,6 +4065,9 @@
       <c r="AF36" t="n">
         <v>0.7912759074054907</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.7933789392273511</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4058,6 +4166,9 @@
       <c r="AF37" t="n">
         <v>0.7571591905045991</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.7593747114087769</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4156,6 +4267,9 @@
       <c r="AF38" t="n">
         <v>0.657812928812221</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6591310808302435</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4254,6 +4368,9 @@
       <c r="AF39" t="n">
         <v>0.612144993413301</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.6129187932294234</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4352,6 +4469,9 @@
       <c r="AF40" t="n">
         <v>0.7831645342849171</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.7847939136291535</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4450,6 +4570,9 @@
       <c r="AF41" t="n">
         <v>0.584460103665734</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.5849827406210801</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4548,6 +4671,9 @@
       <c r="AF42" t="n">
         <v>0.6462482048015293</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.6485757340334484</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4646,6 +4772,9 @@
       <c r="AF43" t="n">
         <v>0.6882091547837557</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.6893125588847347</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4744,6 +4873,9 @@
       <c r="AF44" t="n">
         <v>0.714120293319299</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.7151551971185458</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4842,6 +4974,9 @@
       <c r="AF45" t="n">
         <v>0.7289718639690907</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.7312730306989368</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4940,6 +5075,9 @@
       <c r="AF46" t="n">
         <v>-1.343479992271633</v>
       </c>
+      <c r="AG46" t="n">
+        <v>-1.347015459350861</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5038,6 +5176,9 @@
       <c r="AF47" t="n">
         <v>-1.047587881577801</v>
       </c>
+      <c r="AG47" t="n">
+        <v>-1.050399676961123</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5136,6 +5277,9 @@
       <c r="AF48" t="n">
         <v>-0.9066690331282354</v>
       </c>
+      <c r="AG48" t="n">
+        <v>-0.9096077718586912</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5234,6 +5378,9 @@
       <c r="AF49" t="n">
         <v>-0.6678079341100372</v>
       </c>
+      <c r="AG49" t="n">
+        <v>-0.6703070449021752</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5332,6 +5479,9 @@
       <c r="AF50" t="n">
         <v>-0.08788352842481867</v>
       </c>
+      <c r="AG50" t="n">
+        <v>-0.08934185026600205</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5430,6 +5580,9 @@
       <c r="AF51" t="n">
         <v>-0.8812407705320183</v>
       </c>
+      <c r="AG51" t="n">
+        <v>-0.8835713578302633</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5528,6 +5681,9 @@
       <c r="AF52" t="n">
         <v>-0.8812407705320183</v>
       </c>
+      <c r="AG52" t="n">
+        <v>-0.8835713578302633</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5626,6 +5782,9 @@
       <c r="AF53" t="n">
         <v>-1.178139894285646</v>
       </c>
+      <c r="AG53" t="n">
+        <v>-1.18159750081299</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5724,6 +5883,9 @@
       <c r="AF54" t="n">
         <v>-0.198038717586529</v>
       </c>
+      <c r="AG54" t="n">
+        <v>-0.199882628599957</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5822,6 +5984,9 @@
       <c r="AF55" t="n">
         <v>-1.072021394333067</v>
       </c>
+      <c r="AG55" t="n">
+        <v>-1.075029479778869</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5920,6 +6085,9 @@
       <c r="AF56" t="n">
         <v>-0.9448850338119087</v>
       </c>
+      <c r="AG56" t="n">
+        <v>-0.9472344423365701</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6018,6 +6186,9 @@
       <c r="AF57" t="n">
         <v>-1.011529609973417</v>
       </c>
+      <c r="AG57" t="n">
+        <v>-1.015903904904091</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6116,6 +6287,9 @@
       <c r="AF58" t="n">
         <v>-1.152928928755153</v>
       </c>
+      <c r="AG58" t="n">
+        <v>-1.157163507660021</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6214,6 +6388,9 @@
       <c r="AF59" t="n">
         <v>-0.8328559018768218</v>
       </c>
+      <c r="AG59" t="n">
+        <v>-0.8361997410955673</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6312,6 +6489,9 @@
       <c r="AF60" t="n">
         <v>-0.467379981503382</v>
       </c>
+      <c r="AG60" t="n">
+        <v>-0.4703466202636936</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6410,6 +6590,9 @@
       <c r="AF61" t="n">
         <v>0.3747682816510932</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.373949714128038</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6508,6 +6691,9 @@
       <c r="AF62" t="n">
         <v>-1.281598770828091</v>
       </c>
+      <c r="AG62" t="n">
+        <v>-1.286732397034222</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6606,6 +6792,9 @@
       <c r="AF63" t="n">
         <v>-0.5864616126831478</v>
       </c>
+      <c r="AG63" t="n">
+        <v>-0.5895000833756714</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6704,6 +6893,9 @@
       <c r="AF64" t="n">
         <v>-0.902646193091956</v>
       </c>
+      <c r="AG64" t="n">
+        <v>-0.9071355358613101</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6802,6 +6994,9 @@
       <c r="AF65" t="n">
         <v>-0.0707434197775046</v>
       </c>
+      <c r="AG65" t="n">
+        <v>-0.07299232454899381</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6900,6 +7095,9 @@
       <c r="AF66" t="n">
         <v>-0.8425525313855666</v>
       </c>
+      <c r="AG66" t="n">
+        <v>-0.8461770142922049</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6997,6 +7195,9 @@
       </c>
       <c r="AF67" t="n">
         <v>-0.8296069112372282</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8329679908806238</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2504910350728138</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.2528718001307931</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>0.2334725703958444</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.2313270809934358</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>0.2193210350373859</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.2170441058702185</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>-0.07772218520481267</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-0.07955640627670695</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>0.1844187882707103</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.1828172242858725</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.4078931867078641</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.4105940206149772</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.1415970922460933</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.1433731454774825</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>-0.3262088634089721</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-0.3297530446928434</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.3858135393630392</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.3843357458278288</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.2123044837357979</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.2144791179768621</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.112350913280092</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.115295967129019</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1745,6 +1781,9 @@
       <c r="AG13" t="n">
         <v>-0.06108842365114051</v>
       </c>
+      <c r="AH13" t="n">
+        <v>-0.06257594571539035</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1846,6 +1885,9 @@
       <c r="AG14" t="n">
         <v>0.03101311325033007</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.02677766295578034</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1989,9 @@
       <c r="AG15" t="n">
         <v>-0.1226206952204512</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-0.1276104642609246</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2048,6 +2093,9 @@
       <c r="AG16" t="n">
         <v>0.290778992340862</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2849809202661184</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2149,6 +2197,9 @@
       <c r="AG17" t="n">
         <v>0.4129524909239474</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.409550098618489</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2250,6 +2301,9 @@
       <c r="AG18" t="n">
         <v>-0.1661488596651303</v>
       </c>
+      <c r="AH18" t="n">
+        <v>-0.1682656023423534</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2351,6 +2405,9 @@
       <c r="AG19" t="n">
         <v>0.2811716775645426</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.2782986141845638</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2452,6 +2509,9 @@
       <c r="AG20" t="n">
         <v>0.1810411333009573</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.1754166676477133</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2553,6 +2613,9 @@
       <c r="AG21" t="n">
         <v>0.4711756332476479</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.4680299075131322</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2654,6 +2717,9 @@
       <c r="AG22" t="n">
         <v>0.2398866591042495</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.2365713281275401</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2755,6 +2821,9 @@
       <c r="AG23" t="n">
         <v>-0.1863188374453741</v>
       </c>
+      <c r="AH23" t="n">
+        <v>-0.1893592536315059</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2856,6 +2925,9 @@
       <c r="AG24" t="n">
         <v>1.099650144689834</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.127442179065412</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,6 +3029,9 @@
       <c r="AG25" t="n">
         <v>0.3219854538481175</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.3235735342225787</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3058,6 +3133,9 @@
       <c r="AG26" t="n">
         <v>0.1318555814076362</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.1335636732735449</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3159,6 +3237,9 @@
       <c r="AG27" t="n">
         <v>0.03667134858571553</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.03883619923928158</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3260,6 +3341,9 @@
       <c r="AG28" t="n">
         <v>0.8290348448092728</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.8333168725261552</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3361,6 +3445,9 @@
       <c r="AG29" t="n">
         <v>1.563212445734417</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1.587759248206434</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3462,6 +3549,9 @@
       <c r="AG30" t="n">
         <v>0.6660172511669153</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.6689172707491385</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3563,6 +3653,9 @@
       <c r="AG31" t="n">
         <v>-0.4273107903454695</v>
       </c>
+      <c r="AH31" t="n">
+        <v>-0.4256876320212124</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3664,6 +3757,9 @@
       <c r="AG32" t="n">
         <v>0.5499348244751761</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.5525802379382843</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3765,6 +3861,9 @@
       <c r="AG33" t="n">
         <v>0.7653780863107739</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.7672270109725814</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3866,6 +3965,9 @@
       <c r="AG34" t="n">
         <v>-0.8449088440831366</v>
       </c>
+      <c r="AH34" t="n">
+        <v>-0.8441103109487188</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3967,6 +4069,9 @@
       <c r="AG35" t="n">
         <v>0.8232832841707143</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.8247883320073123</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4068,6 +4173,9 @@
       <c r="AG36" t="n">
         <v>0.7933789392273511</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.795164189447422</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4169,6 +4277,9 @@
       <c r="AG37" t="n">
         <v>0.7593747114087769</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.761258054267498</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4270,6 +4381,9 @@
       <c r="AG38" t="n">
         <v>0.6591310808302435</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.6602783612658636</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4371,6 +4485,9 @@
       <c r="AG39" t="n">
         <v>0.6129187932294234</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.6135486431853782</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4472,6 +4589,9 @@
       <c r="AG40" t="n">
         <v>0.7847939136291535</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.7862492644877295</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4573,6 +4693,9 @@
       <c r="AG41" t="n">
         <v>0.5849827406210801</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.5853871899088865</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4674,6 +4797,9 @@
       <c r="AG42" t="n">
         <v>0.6485757340334484</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.650549388930154</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4775,6 +4901,9 @@
       <c r="AG43" t="n">
         <v>0.6893125588847347</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.6902480635263094</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4876,6 +5005,9 @@
       <c r="AG44" t="n">
         <v>0.7151551971185458</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.7160039331614594</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4977,6 +5109,9 @@
       <c r="AG45" t="n">
         <v>0.7312730306989368</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.7331508208348529</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5078,6 +5213,9 @@
       <c r="AG46" t="n">
         <v>-1.347015459350861</v>
       </c>
+      <c r="AH46" t="n">
+        <v>-1.350490652879008</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5179,6 +5317,9 @@
       <c r="AG47" t="n">
         <v>-1.050399676961123</v>
       </c>
+      <c r="AH47" t="n">
+        <v>-1.053182596884194</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5280,6 +5421,9 @@
       <c r="AG48" t="n">
         <v>-0.9096077718586912</v>
       </c>
+      <c r="AH48" t="n">
+        <v>-0.9125616053331208</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5381,6 +5525,9 @@
       <c r="AG49" t="n">
         <v>-0.6703070449021752</v>
       </c>
+      <c r="AH49" t="n">
+        <v>-0.6728023525862173</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5482,6 +5629,9 @@
       <c r="AG50" t="n">
         <v>-0.08934185026600205</v>
       </c>
+      <c r="AH50" t="n">
+        <v>-0.09076627535216365</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5583,6 +5733,9 @@
       <c r="AG51" t="n">
         <v>-0.8835713578302633</v>
       </c>
+      <c r="AH51" t="n">
+        <v>-0.8859521541459427</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5684,6 +5837,9 @@
       <c r="AG52" t="n">
         <v>-0.8835713578302633</v>
       </c>
+      <c r="AH52" t="n">
+        <v>-0.8859521541459427</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5785,6 +5941,9 @@
       <c r="AG53" t="n">
         <v>-1.18159750081299</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-1.185071901462009</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5886,6 +6045,9 @@
       <c r="AG54" t="n">
         <v>-0.199882628599957</v>
       </c>
+      <c r="AH54" t="n">
+        <v>-0.2017043248296957</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5987,6 +6149,9 @@
       <c r="AG55" t="n">
         <v>-1.075029479778869</v>
       </c>
+      <c r="AH55" t="n">
+        <v>-1.077996046683864</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6088,6 +6253,9 @@
       <c r="AG56" t="n">
         <v>-0.9472344423365701</v>
       </c>
+      <c r="AH56" t="n">
+        <v>-0.9495053504304026</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6189,6 +6357,9 @@
       <c r="AG57" t="n">
         <v>-1.015903904904091</v>
       </c>
+      <c r="AH57" t="n">
+        <v>-1.019958591829165</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6290,6 +6461,9 @@
       <c r="AG58" t="n">
         <v>-1.157163507660021</v>
       </c>
+      <c r="AH58" t="n">
+        <v>-1.161063105158392</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6391,6 +6565,9 @@
       <c r="AG59" t="n">
         <v>-0.8361997410955673</v>
       </c>
+      <c r="AH59" t="n">
+        <v>-0.8394014201616007</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6492,6 +6669,9 @@
       <c r="AG60" t="n">
         <v>-0.4703466202636936</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-0.4730848271863519</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6593,6 +6773,9 @@
       <c r="AG61" t="n">
         <v>0.373949714128038</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.3731686125704985</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6694,6 +6877,9 @@
       <c r="AG62" t="n">
         <v>-1.286732397034222</v>
       </c>
+      <c r="AH62" t="n">
+        <v>-1.291482227049005</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6795,6 +6981,9 @@
       <c r="AG63" t="n">
         <v>-0.5895000833756714</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-0.592409572366479</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6896,6 +7085,9 @@
       <c r="AG64" t="n">
         <v>-0.9071355358613101</v>
       </c>
+      <c r="AH64" t="n">
+        <v>-0.9114336198324156</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6997,6 +7189,9 @@
       <c r="AG65" t="n">
         <v>-0.07299232454899381</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-0.07506187136567964</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7098,6 +7293,9 @@
       <c r="AG66" t="n">
         <v>-0.8461770142922049</v>
       </c>
+      <c r="AH66" t="n">
+        <v>-0.8494492577286297</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7198,6 +7396,9 @@
       </c>
       <c r="AG67" t="n">
         <v>-0.8329679908806238</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8359206347781218</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.2528718001307931</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2551007358396809</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>0.2313270809934358</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.229387170280246</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>0.2170441058702185</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.2149097115058529</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>-0.07955640627670695</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-0.08123439703716906</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>0.1828172242858725</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.1814107638817077</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.4105940206149772</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.413159844267444</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.1433731454774825</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.1450955786403886</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>-0.3297530446928434</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-0.3330715895735523</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.3843357458278288</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.383030681974364</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.2144791179768621</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.2165384082221752</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.115295967129019</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.1178827018439246</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1784,6 +1820,9 @@
       <c r="AH13" t="n">
         <v>-0.06257594571539035</v>
       </c>
+      <c r="AI13" t="n">
+        <v>-0.06395889643821472</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1888,6 +1927,9 @@
       <c r="AH14" t="n">
         <v>0.02677766295578034</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.02319859070666422</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1992,6 +2034,9 @@
       <c r="AH15" t="n">
         <v>-0.1276104642609246</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-0.1317889330942979</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2096,6 +2141,9 @@
       <c r="AH16" t="n">
         <v>0.2849809202661184</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2801919995512008</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2200,6 +2248,9 @@
       <c r="AH17" t="n">
         <v>0.409550098618489</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.4069025848829779</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,6 +2355,9 @@
       <c r="AH18" t="n">
         <v>-0.1682656023423534</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-0.1701170771344908</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2408,6 +2462,9 @@
       <c r="AH19" t="n">
         <v>0.2782986141845638</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.2758352282756489</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2512,6 +2569,9 @@
       <c r="AH20" t="n">
         <v>0.1754166676477133</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.1707941109528632</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2616,6 +2676,9 @@
       <c r="AH21" t="n">
         <v>0.4680299075131322</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.4656057726948614</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2720,6 +2783,9 @@
       <c r="AH22" t="n">
         <v>0.2365713281275401</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.233956295725592</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2824,6 +2890,9 @@
       <c r="AH23" t="n">
         <v>-0.1893592536315059</v>
       </c>
+      <c r="AI23" t="n">
+        <v>-0.1918214621844045</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2928,6 +2997,9 @@
       <c r="AH24" t="n">
         <v>1.127442179065412</v>
       </c>
+      <c r="AI24" t="n">
+        <v>1.156366953120166</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3032,6 +3104,9 @@
       <c r="AH25" t="n">
         <v>0.3235735342225787</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.3249853955097333</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3211,9 @@
       <c r="AH26" t="n">
         <v>0.1335636732735449</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.1351851159747637</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3240,6 +3318,9 @@
       <c r="AH27" t="n">
         <v>0.03883619923928158</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.04089713107561536</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3344,6 +3425,9 @@
       <c r="AH28" t="n">
         <v>0.8333168725261552</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8373308404730764</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3448,6 +3532,9 @@
       <c r="AH29" t="n">
         <v>1.587759248206434</v>
       </c>
+      <c r="AI29" t="n">
+        <v>1.611458314661084</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3552,6 +3639,9 @@
       <c r="AH30" t="n">
         <v>0.6689172707491385</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.6715400513044141</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3656,6 +3746,9 @@
       <c r="AH31" t="n">
         <v>-0.4256876320212124</v>
       </c>
+      <c r="AI31" t="n">
+        <v>-0.4244533307136139</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3760,6 +3853,9 @@
       <c r="AH32" t="n">
         <v>0.5525802379382843</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.5549743602996242</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3864,6 +3960,9 @@
       <c r="AH33" t="n">
         <v>0.7672270109725814</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.7688781082216064</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3968,6 +4067,9 @@
       <c r="AH34" t="n">
         <v>-0.8441103109487188</v>
       </c>
+      <c r="AI34" t="n">
+        <v>-0.8435111794393713</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4072,6 +4174,9 @@
       <c r="AH35" t="n">
         <v>0.8247883320073123</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.8261074946997626</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4176,6 +4281,9 @@
       <c r="AH36" t="n">
         <v>0.795164189447422</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.796654279667088</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4280,6 +4388,9 @@
       <c r="AH37" t="n">
         <v>0.761258054267498</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.7628324457481573</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4384,6 +4495,9 @@
       <c r="AH38" t="n">
         <v>0.6602783612658636</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.6612620842261492</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4488,6 +4602,9 @@
       <c r="AH39" t="n">
         <v>0.6135486431853782</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.6140459012235658</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4592,6 +4709,9 @@
       <c r="AH40" t="n">
         <v>0.7862492644877295</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.7875375061957089</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4696,6 +4816,9 @@
       <c r="AH41" t="n">
         <v>0.5853871899088865</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.5856874263968611</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4800,6 +4923,9 @@
       <c r="AH42" t="n">
         <v>0.650549388930154</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.6521900578947982</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4904,6 +5030,9 @@
       <c r="AH43" t="n">
         <v>0.6902480635263094</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.6910266966820906</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5008,6 +5137,9 @@
       <c r="AH44" t="n">
         <v>0.7160039331614594</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.7166831439422339</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5112,6 +5244,9 @@
       <c r="AH45" t="n">
         <v>0.7331508208348529</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.734641152128533</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5216,6 +5351,9 @@
       <c r="AH46" t="n">
         <v>-1.350490652879008</v>
       </c>
+      <c r="AI46" t="n">
+        <v>-1.3538955464553</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5320,6 +5458,9 @@
       <c r="AH47" t="n">
         <v>-1.053182596884194</v>
       </c>
+      <c r="AI47" t="n">
+        <v>-1.055926880732054</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5424,6 +5565,9 @@
       <c r="AH48" t="n">
         <v>-0.9125616053331208</v>
       </c>
+      <c r="AI48" t="n">
+        <v>-0.9155112975339659</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5528,6 +5672,9 @@
       <c r="AH49" t="n">
         <v>-0.6728023525862173</v>
       </c>
+      <c r="AI49" t="n">
+        <v>-0.6752795499186662</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5632,6 +5779,9 @@
       <c r="AH50" t="n">
         <v>-0.09076627535216365</v>
       </c>
+      <c r="AI50" t="n">
+        <v>-0.09215478739184636</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5736,6 +5886,9 @@
       <c r="AH51" t="n">
         <v>-0.8859521541459427</v>
       </c>
+      <c r="AI51" t="n">
+        <v>-0.888363723336647</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5840,6 +5993,9 @@
       <c r="AH52" t="n">
         <v>-0.8859521541459427</v>
       </c>
+      <c r="AI52" t="n">
+        <v>-0.888363723336647</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5944,6 +6100,9 @@
       <c r="AH53" t="n">
         <v>-1.185071901462009</v>
       </c>
+      <c r="AI53" t="n">
+        <v>-1.188542182273329</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6048,6 +6207,9 @@
       <c r="AH54" t="n">
         <v>-0.2017043248296957</v>
       </c>
+      <c r="AI54" t="n">
+        <v>-0.2034958492363596</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6152,6 +6314,9 @@
       <c r="AH55" t="n">
         <v>-1.077996046683864</v>
       </c>
+      <c r="AI55" t="n">
+        <v>-1.080912170877427</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6256,6 +6421,9 @@
       <c r="AH56" t="n">
         <v>-0.9495053504304026</v>
       </c>
+      <c r="AI56" t="n">
+        <v>-0.9516993840270749</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6360,6 +6528,9 @@
       <c r="AH57" t="n">
         <v>-1.019958591829165</v>
       </c>
+      <c r="AI57" t="n">
+        <v>-1.023707065693486</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +6635,9 @@
       <c r="AH58" t="n">
         <v>-1.161063105158392</v>
       </c>
+      <c r="AI58" t="n">
+        <v>-1.164642503805254</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6568,6 +6742,9 @@
       <c r="AH59" t="n">
         <v>-0.8394014201616007</v>
       </c>
+      <c r="AI59" t="n">
+        <v>-0.8424554003683054</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6672,6 +6849,9 @@
       <c r="AH60" t="n">
         <v>-0.4730848271863519</v>
       </c>
+      <c r="AI60" t="n">
+        <v>-0.4756008732380775</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6776,6 +6956,9 @@
       <c r="AH61" t="n">
         <v>0.3731686125704985</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.3724263034878034</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6880,6 +7063,9 @@
       <c r="AH62" t="n">
         <v>-1.291482227049005</v>
       </c>
+      <c r="AI62" t="n">
+        <v>-1.295865011556681</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6984,6 +7170,9 @@
       <c r="AH63" t="n">
         <v>-0.592409572366479</v>
       </c>
+      <c r="AI63" t="n">
+        <v>-0.5951758705981012</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7088,6 +7277,9 @@
       <c r="AH64" t="n">
         <v>-0.9114336198324156</v>
       </c>
+      <c r="AI64" t="n">
+        <v>-0.9155288711966594</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7192,6 +7384,9 @@
       <c r="AH65" t="n">
         <v>-0.07506187136567964</v>
       </c>
+      <c r="AI65" t="n">
+        <v>-0.07695767093410807</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7296,6 +7491,9 @@
       <c r="AH66" t="n">
         <v>-0.8494492577286297</v>
       </c>
+      <c r="AI66" t="n">
+        <v>-0.8523937640346219</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7399,6 +7597,9 @@
       </c>
       <c r="AH67" t="n">
         <v>-0.8359206347781218</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8385030099493596</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2551007358396809</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.2571761699287807</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>0.229387170280246</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.2276483646236941</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>0.2149097115058529</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.2129233225853138</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>-0.08123439703716906</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-0.08276263953932333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>0.1814107638817077</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.1801898716251719</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.413159844267444</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.4155844049669175</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.1450955786403886</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.1467505162623991</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>-0.3330715895735523</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-0.3361549794787514</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.383030681974364</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.3818886036567838</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.2165384082221752</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.2184799006221711</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.1178827018439246</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.1201365113619924</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1823,6 +1859,9 @@
       <c r="AI13" t="n">
         <v>-0.06395889643821472</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>-0.06524217281883421</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1930,6 +1969,9 @@
       <c r="AI14" t="n">
         <v>0.02319859070666422</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.02022607841465877</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2037,6 +2079,9 @@
       <c r="AI15" t="n">
         <v>-0.1317889330942979</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>-0.1352261550984933</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2189,9 @@
       <c r="AI16" t="n">
         <v>0.2801919995512008</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.2763286398443403</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,6 +2299,9 @@
       <c r="AI17" t="n">
         <v>0.4069025848829779</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.4049305693700461</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2358,6 +2409,9 @@
       <c r="AI18" t="n">
         <v>-0.1701170771344908</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>-0.1717271366857496</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2465,6 +2519,9 @@
       <c r="AI19" t="n">
         <v>0.2758352282756489</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.2737447925596979</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2572,6 +2629,9 @@
       <c r="AI20" t="n">
         <v>0.1707941109528632</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.1670843891617344</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2679,6 +2739,9 @@
       <c r="AI21" t="n">
         <v>0.4656057726948614</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.4638277896397414</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2786,6 +2849,9 @@
       <c r="AI22" t="n">
         <v>0.233956295725592</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.2319706247273988</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2893,6 +2959,9 @@
       <c r="AI23" t="n">
         <v>-0.1918214621844045</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>-0.1937646458028991</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3000,6 +3069,9 @@
       <c r="AI24" t="n">
         <v>1.156366953120166</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1.185712343023113</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3107,6 +3179,9 @@
       <c r="AI25" t="n">
         <v>0.3249853955097333</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.3262247801657334</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3214,6 +3289,9 @@
       <c r="AI26" t="n">
         <v>0.1351851159747637</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.1366985300945653</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3321,6 +3399,9 @@
       <c r="AI27" t="n">
         <v>0.04089713107561536</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.04283265891740747</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3428,6 +3509,9 @@
       <c r="AI28" t="n">
         <v>0.8373308404730764</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.8410595949812651</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3535,6 +3619,9 @@
       <c r="AI29" t="n">
         <v>1.611458314661084</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1.633999434244801</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3642,6 +3729,9 @@
       <c r="AI30" t="n">
         <v>0.6715400513044141</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.6738825526493414</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3749,6 +3839,9 @@
       <c r="AI31" t="n">
         <v>-0.4244533307136139</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>-0.4235791399158542</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3856,6 +3949,9 @@
       <c r="AI32" t="n">
         <v>0.5549743602996242</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.5571119534369677</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3963,6 +4059,9 @@
       <c r="AI33" t="n">
         <v>0.7688781082216064</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.7703335014199766</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4070,6 +4169,9 @@
       <c r="AI34" t="n">
         <v>-0.8435111794393713</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>-0.8431065107726989</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4177,6 +4279,9 @@
       <c r="AI35" t="n">
         <v>0.8261074946997626</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.8272513805090574</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4284,6 +4389,9 @@
       <c r="AI36" t="n">
         <v>0.796654279667088</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.7978734277584875</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4391,6 +4499,9 @@
       <c r="AI37" t="n">
         <v>0.7628324457481573</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.764122880197757</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4498,6 +4609,9 @@
       <c r="AI38" t="n">
         <v>0.6612620842261492</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.6620914612245686</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4605,6 +4719,9 @@
       <c r="AI39" t="n">
         <v>0.6140459012235658</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.6144224494894839</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4712,6 +4829,9 @@
       <c r="AI40" t="n">
         <v>0.7875375061957089</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.7886671912511946</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4819,6 +4939,9 @@
       <c r="AI41" t="n">
         <v>0.5856874263968611</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.5858970420770071</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4926,6 +5049,9 @@
       <c r="AI42" t="n">
         <v>0.6521900578947982</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.6535214121544448</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5033,6 +5159,9 @@
       <c r="AI43" t="n">
         <v>0.6910266966820906</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.6916606068644058</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5140,6 +5269,9 @@
       <c r="AI44" t="n">
         <v>0.7166831439422339</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.717209785624203</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5247,6 +5379,9 @@
       <c r="AI45" t="n">
         <v>0.734641152128533</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.7357810807288745</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5354,6 +5489,9 @@
       <c r="AI46" t="n">
         <v>-1.3538955464553</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>-1.357221625679119</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5461,6 +5599,9 @@
       <c r="AI47" t="n">
         <v>-1.055926880732054</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>-1.058623887023761</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5568,6 +5709,9 @@
       <c r="AI48" t="n">
         <v>-0.9155112975339659</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>-0.918439605586259</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5675,6 +5819,9 @@
       <c r="AI49" t="n">
         <v>-0.6752795499186662</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>-0.6777260041613029</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5782,6 +5929,9 @@
       <c r="AI50" t="n">
         <v>-0.09215478739184636</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>-0.09350577411427084</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5889,6 +6039,9 @@
       <c r="AI51" t="n">
         <v>-0.888363723336647</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>-0.8907882142475553</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5996,6 +6149,9 @@
       <c r="AI52" t="n">
         <v>-0.888363723336647</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>-0.8907882142475553</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6103,6 +6259,9 @@
       <c r="AI53" t="n">
         <v>-1.188542182273329</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>-1.191989351409237</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6210,6 +6369,9 @@
       <c r="AI54" t="n">
         <v>-0.2034958492363596</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>-0.2052504319255606</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6317,6 +6479,9 @@
       <c r="AI55" t="n">
         <v>-1.080912170877427</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>-1.08377006962691</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6424,6 +6589,9 @@
       <c r="AI56" t="n">
         <v>-0.9516993840270749</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>-0.9538184410081765</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6531,6 +6699,9 @@
       <c r="AI57" t="n">
         <v>-1.023707065693486</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>-1.027165023736258</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6638,6 +6809,9 @@
       <c r="AI58" t="n">
         <v>-1.164642503805254</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>-1.167919072516644</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6745,6 +6919,9 @@
       <c r="AI59" t="n">
         <v>-0.8424554003683054</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>-0.8453588944372598</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6852,6 +7029,9 @@
       <c r="AI60" t="n">
         <v>-0.4756008732380775</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>-0.4779036020171509</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6959,6 +7139,9 @@
       <c r="AI61" t="n">
         <v>0.3724263034878034</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.371723394446133</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7066,6 +7249,9 @@
       <c r="AI62" t="n">
         <v>-1.295865011556681</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>-1.299900256572685</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7173,6 +7359,9 @@
       <c r="AI63" t="n">
         <v>-0.5951758705981012</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>-0.5977893646891013</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7280,6 +7469,9 @@
       <c r="AI64" t="n">
         <v>-0.9155288711966594</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>-0.919414100657747</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7387,6 +7579,9 @@
       <c r="AI65" t="n">
         <v>-0.07695767093410807</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>-0.0786873117725243</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7494,6 +7689,9 @@
       <c r="AI66" t="n">
         <v>-0.8523937640346219</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>-0.8550363549360546</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7600,6 +7798,9 @@
       </c>
       <c r="AI67" t="n">
         <v>-0.8385030099493596</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8407533334817845</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.2571761699287807</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2590991274608088</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>0.2276483646236941</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.2261035109007181</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>0.2129233225853138</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.2110871253061085</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>-0.08276263953932333</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-0.08414895163389183</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>0.1801898716251719</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.1791432324643542</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.4155844049669175</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.4178644766994506</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.1467505162623991</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.1483273741800951</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>-0.3361549794787514</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-0.3389989821113708</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.3818886036567838</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.3808984793731837</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.2184799006221711</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.2203032172051544</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.1201365113619924</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.1220843414921754</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1862,6 +1898,9 @@
       <c r="AJ13" t="n">
         <v>-0.06524217281883421</v>
       </c>
+      <c r="AK13" t="n">
+        <v>-0.06643123404959048</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1972,6 +2011,9 @@
       <c r="AJ14" t="n">
         <v>0.02022607841465877</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.01780756048393745</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2124,9 @@
       <c r="AJ15" t="n">
         <v>-0.1352261550984933</v>
       </c>
+      <c r="AK15" t="n">
+        <v>-0.1379938962307551</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2192,6 +2237,9 @@
       <c r="AJ16" t="n">
         <v>0.2763286398443403</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.2733041041454516</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2302,6 +2350,9 @@
       <c r="AJ17" t="n">
         <v>0.4049305693700461</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.4035554352114332</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2412,6 +2463,9 @@
       <c r="AJ18" t="n">
         <v>-0.1717271366857496</v>
       </c>
+      <c r="AK18" t="n">
+        <v>-0.1731193871890148</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2522,6 +2576,9 @@
       <c r="AJ19" t="n">
         <v>0.2737447925596979</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.271990259062738</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2632,6 +2689,9 @@
       <c r="AJ20" t="n">
         <v>0.1670843891617344</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.164196521150087</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2742,6 +2802,9 @@
       <c r="AJ21" t="n">
         <v>0.4638277896397414</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.462620784823317</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2852,6 +2915,9 @@
       <c r="AJ22" t="n">
         <v>0.2319706247273988</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.230543559191273</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2962,6 +3028,9 @@
       <c r="AJ23" t="n">
         <v>-0.1937646458028991</v>
       </c>
+      <c r="AK23" t="n">
+        <v>-0.1952475772586647</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3072,6 +3141,9 @@
       <c r="AJ24" t="n">
         <v>1.185712343023113</v>
       </c>
+      <c r="AK24" t="n">
+        <v>1.214872223129418</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3182,6 +3254,9 @@
       <c r="AJ25" t="n">
         <v>0.3262247801657334</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.3272982294997431</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3292,6 +3367,9 @@
       <c r="AJ26" t="n">
         <v>0.1366985300945653</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.1380882185309441</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3402,6 +3480,9 @@
       <c r="AJ27" t="n">
         <v>0.04283265891740747</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.04462726701397891</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3593,9 @@
       <c r="AJ28" t="n">
         <v>0.8410595949812651</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.8444936771771312</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3622,6 +3706,9 @@
       <c r="AJ29" t="n">
         <v>1.633999434244801</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1.655147835452006</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3732,6 +3819,9 @@
       <c r="AJ30" t="n">
         <v>0.6738825526493414</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.6759477203982847</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3842,6 +3932,9 @@
       <c r="AJ31" t="n">
         <v>-0.4235791399158542</v>
       </c>
+      <c r="AK31" t="n">
+        <v>-0.4230335674830203</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3952,6 +4045,9 @@
       <c r="AJ32" t="n">
         <v>0.5571119534369677</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.5589935316543577</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4062,6 +4158,9 @@
       <c r="AJ33" t="n">
         <v>0.7703335014199766</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.7715986988722114</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4172,6 +4271,9 @@
       <c r="AJ34" t="n">
         <v>-0.8431065107726989</v>
       </c>
+      <c r="AK34" t="n">
+        <v>-0.8428879539719391</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4282,6 +4384,9 @@
       <c r="AJ35" t="n">
         <v>0.8272513805090574</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.8282318960184266</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4392,6 +4497,9 @@
       <c r="AJ36" t="n">
         <v>0.7978734277584875</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.7988467598210285</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4502,6 +4610,9 @@
       <c r="AJ37" t="n">
         <v>0.764122880197757</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.7651553867669283</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4612,6 +4723,9 @@
       <c r="AJ38" t="n">
         <v>0.6620914612245686</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.6627771125417431</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4722,6 +4836,9 @@
       <c r="AJ39" t="n">
         <v>0.6144224494894839</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.6146904078371986</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4832,6 +4949,9 @@
       <c r="AJ40" t="n">
         <v>0.7886671912511946</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.7896481183636057</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4942,6 +5062,9 @@
       <c r="AJ41" t="n">
         <v>0.5858970420770071</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.586029054097151</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5052,6 +5175,9 @@
       <c r="AJ42" t="n">
         <v>0.6535214121544448</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.6545690199524586</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5162,6 +5288,9 @@
       <c r="AJ43" t="n">
         <v>0.6916606068644058</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.6921626527596566</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5272,6 +5401,9 @@
       <c r="AJ44" t="n">
         <v>0.717209785624203</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.7176007766339287</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5382,6 +5514,9 @@
       <c r="AJ45" t="n">
         <v>0.7357810807288745</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.7366079610309562</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5492,6 +5627,9 @@
       <c r="AJ46" t="n">
         <v>-1.357221625679119</v>
       </c>
+      <c r="AK46" t="n">
+        <v>-1.360461845032764</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5602,6 +5740,9 @@
       <c r="AJ47" t="n">
         <v>-1.058623887023761</v>
       </c>
+      <c r="AK47" t="n">
+        <v>-1.06126610874417</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5712,6 +5853,9 @@
       <c r="AJ48" t="n">
         <v>-0.918439605586259</v>
       </c>
+      <c r="AK48" t="n">
+        <v>-0.9213313139064992</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5822,6 +5966,9 @@
       <c r="AJ49" t="n">
         <v>-0.6777260041613029</v>
       </c>
+      <c r="AK49" t="n">
+        <v>-0.6801307488559531</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5932,6 +6079,9 @@
       <c r="AJ50" t="n">
         <v>-0.09350577411427084</v>
       </c>
+      <c r="AK50" t="n">
+        <v>-0.09481800783243063</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6042,6 +6192,9 @@
       <c r="AJ51" t="n">
         <v>-0.8907882142475553</v>
       </c>
+      <c r="AK51" t="n">
+        <v>-0.8932094593233313</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6152,6 +6305,9 @@
       <c r="AJ52" t="n">
         <v>-0.8907882142475553</v>
       </c>
+      <c r="AK52" t="n">
+        <v>-0.8932094593233313</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6262,6 +6418,9 @@
       <c r="AJ53" t="n">
         <v>-1.191989351409237</v>
       </c>
+      <c r="AK53" t="n">
+        <v>-1.195396439174307</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6372,6 +6531,9 @@
       <c r="AJ54" t="n">
         <v>-0.2052504319255606</v>
       </c>
+      <c r="AK54" t="n">
+        <v>-0.2069624378459406</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6482,6 +6644,9 @@
       <c r="AJ55" t="n">
         <v>-1.08377006962691</v>
       </c>
+      <c r="AK55" t="n">
+        <v>-1.086563098017945</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6592,6 +6757,9 @@
       <c r="AJ56" t="n">
         <v>-0.9538184410081765</v>
       </c>
+      <c r="AK56" t="n">
+        <v>-0.9558646251627007</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6702,6 +6870,9 @@
       <c r="AJ57" t="n">
         <v>-1.027165023736258</v>
       </c>
+      <c r="AK57" t="n">
+        <v>-1.030349845420956</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6812,6 +6983,9 @@
       <c r="AJ58" t="n">
         <v>-1.167919072516644</v>
       </c>
+      <c r="AK58" t="n">
+        <v>-1.170912044529415</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6922,6 +7096,9 @@
       <c r="AJ59" t="n">
         <v>-0.8453588944372598</v>
       </c>
+      <c r="AK59" t="n">
+        <v>-0.8481114884461548</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7032,6 +7209,9 @@
       <c r="AJ60" t="n">
         <v>-0.4779036020171509</v>
       </c>
+      <c r="AK60" t="n">
+        <v>-0.4800038523183573</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7142,6 +7322,9 @@
       <c r="AJ61" t="n">
         <v>0.371723394446133</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.3710598737865047</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7252,6 +7435,9 @@
       <c r="AJ62" t="n">
         <v>-1.299900256572685</v>
       </c>
+      <c r="AK62" t="n">
+        <v>-1.303609455923412</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7362,6 +7548,9 @@
       <c r="AJ63" t="n">
         <v>-0.5977893646891013</v>
       </c>
+      <c r="AK63" t="n">
+        <v>-0.600244452228723</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7472,6 +7661,9 @@
       <c r="AJ64" t="n">
         <v>-0.919414100657747</v>
       </c>
+      <c r="AK64" t="n">
+        <v>-0.9230859793084042</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7582,6 +7774,9 @@
       <c r="AJ65" t="n">
         <v>-0.0786873117725243</v>
       </c>
+      <c r="AK65" t="n">
+        <v>-0.080259890824189</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7692,6 +7887,9 @@
       <c r="AJ66" t="n">
         <v>-0.8550363549360546</v>
       </c>
+      <c r="AK66" t="n">
+        <v>-0.8574034887406301</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7801,6 +7999,9 @@
       </c>
       <c r="AJ67" t="n">
         <v>-0.8407533334817845</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8427091430016365</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2590991274608088</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2608728832003097</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>0.2261035109007181</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.2247433149352457</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>0.2110871253061085</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.2094004983229372</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>-0.08414895163389183</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-0.08540213987696221</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>0.1791432324643542</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.1782582447774498</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.4178644766994506</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.4199994506645801</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.1483273741800951</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.1498185203258339</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>-0.3389989821113708</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-0.3416039181114722</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.3808984793731837</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.3800484011657409</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.2203032172051544</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.2220097398843708</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.1220843414921754</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.1237539608797896</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1901,6 +1937,9 @@
       <c r="AK13" t="n">
         <v>-0.06643123404959048</v>
       </c>
+      <c r="AL13" t="n">
+        <v>-0.06753193404051359</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2014,6 +2053,9 @@
       <c r="AK14" t="n">
         <v>0.01780756048393745</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.01588910728215682</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2127,6 +2169,9 @@
       <c r="AK15" t="n">
         <v>-0.1379938962307551</v>
       </c>
+      <c r="AL15" t="n">
+        <v>-0.1401640783503378</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2240,6 +2285,9 @@
       <c r="AK16" t="n">
         <v>0.2733041041454516</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.271030576284963</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2401,9 @@
       <c r="AK17" t="n">
         <v>0.4035554352114332</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.4027006139825844</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2466,6 +2517,9 @@
       <c r="AK18" t="n">
         <v>-0.1731193871890148</v>
       </c>
+      <c r="AL18" t="n">
+        <v>-0.1743168718745543</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2579,6 +2633,9 @@
       <c r="AK19" t="n">
         <v>0.271990259062738</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.2705349567809765</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2692,6 +2749,9 @@
       <c r="AK20" t="n">
         <v>0.164196521150087</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.1620395619570157</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2805,6 +2865,9 @@
       <c r="AK21" t="n">
         <v>0.462620784823317</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.4619112099431898</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2918,6 +2981,9 @@
       <c r="AK22" t="n">
         <v>0.230543559191273</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.229605768696654</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3031,6 +3097,9 @@
       <c r="AK23" t="n">
         <v>-0.1952475772586647</v>
       </c>
+      <c r="AL23" t="n">
+        <v>-0.1963276249388179</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3213,9 @@
       <c r="AK24" t="n">
         <v>1.214872223129418</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1.243340903086277</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3257,6 +3329,9 @@
       <c r="AK25" t="n">
         <v>0.3272982294997431</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.3282144708731562</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3370,6 +3445,9 @@
       <c r="AK26" t="n">
         <v>0.1380882185309441</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.1393435316451808</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3483,6 +3561,9 @@
       <c r="AK27" t="n">
         <v>0.04462726701397891</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.04627070967911327</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3596,6 +3677,9 @@
       <c r="AK28" t="n">
         <v>0.8444936771771312</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.8476302646915692</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3709,6 +3793,9 @@
       <c r="AK29" t="n">
         <v>1.655147835452006</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1.674735806026873</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3822,6 +3909,9 @@
       <c r="AK30" t="n">
         <v>0.6759477203982847</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.6777434158125303</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3935,6 +4025,9 @@
       <c r="AK31" t="n">
         <v>-0.4230335674830203</v>
       </c>
+      <c r="AL31" t="n">
+        <v>-0.4227834738196494</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4048,6 +4141,9 @@
       <c r="AK32" t="n">
         <v>0.5589935316543577</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.5606244103716935</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4161,6 +4257,9 @@
       <c r="AK33" t="n">
         <v>0.7715986988722114</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.7726819281234052</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4274,6 +4373,9 @@
       <c r="AK34" t="n">
         <v>-0.8428879539719391</v>
       </c>
+      <c r="AL34" t="n">
+        <v>-0.8428444797679404</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4387,6 +4489,9 @@
       <c r="AK35" t="n">
         <v>0.8282318960184266</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.8290618358462956</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4500,6 +4605,9 @@
       <c r="AK36" t="n">
         <v>0.7988467598210285</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.7995997150803098</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4613,6 +4721,9 @@
       <c r="AK37" t="n">
         <v>0.7651553867669283</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.7659563948534999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4726,6 +4837,9 @@
       <c r="AK38" t="n">
         <v>0.6627771125417431</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.6633306336214303</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4839,6 +4953,9 @@
       <c r="AK39" t="n">
         <v>0.6146904078371986</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.6148618867174901</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4952,6 +5069,9 @@
       <c r="AK40" t="n">
         <v>0.7896481183636057</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7904909807810367</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5065,6 +5185,9 @@
       <c r="AK41" t="n">
         <v>0.586029054097151</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.586095755302831</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5178,6 +5301,9 @@
       <c r="AK42" t="n">
         <v>0.6545690199524586</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.6553595693038793</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5291,6 +5417,9 @@
       <c r="AK43" t="n">
         <v>0.6921626527596566</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.6925460471454599</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5404,6 +5533,9 @@
       <c r="AK44" t="n">
         <v>0.7176007766339287</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.7178727024262916</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5517,6 +5649,9 @@
       <c r="AK45" t="n">
         <v>0.7366079610309562</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.7371587326340064</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5630,6 +5765,9 @@
       <c r="AK46" t="n">
         <v>-1.360461845032764</v>
       </c>
+      <c r="AL46" t="n">
+        <v>-1.363610564191338</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5743,6 +5881,9 @@
       <c r="AK47" t="n">
         <v>-1.06126610874417</v>
       </c>
+      <c r="AL47" t="n">
+        <v>-1.063847164877599</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5856,6 +5997,9 @@
       <c r="AK48" t="n">
         <v>-0.9213313139064992</v>
       </c>
+      <c r="AL48" t="n">
+        <v>-0.9241732248857509</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5969,6 +6113,9 @@
       <c r="AK49" t="n">
         <v>-0.6801307488559531</v>
       </c>
+      <c r="AL49" t="n">
+        <v>-0.6824844461122066</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6082,6 +6229,9 @@
       <c r="AK50" t="n">
         <v>-0.09481800783243063</v>
       </c>
+      <c r="AL50" t="n">
+        <v>-0.0960906224032485</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6195,6 +6345,9 @@
       <c r="AK51" t="n">
         <v>-0.8932094593233313</v>
       </c>
+      <c r="AL51" t="n">
+        <v>-0.8956130267813396</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6461,9 @@
       <c r="AK52" t="n">
         <v>-0.8932094593233313</v>
       </c>
+      <c r="AL52" t="n">
+        <v>-0.8956130267813396</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6421,6 +6577,9 @@
       <c r="AK53" t="n">
         <v>-1.195396439174307</v>
       </c>
+      <c r="AL53" t="n">
+        <v>-1.198748541827618</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6534,6 +6693,9 @@
       <c r="AK54" t="n">
         <v>-0.2069624378459406</v>
       </c>
+      <c r="AL54" t="n">
+        <v>-0.208627302980219</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6647,6 +6809,9 @@
       <c r="AK55" t="n">
         <v>-1.086563098017945</v>
       </c>
+      <c r="AL55" t="n">
+        <v>-1.089285724797365</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6760,6 +6925,9 @@
       <c r="AK56" t="n">
         <v>-0.9558646251627007</v>
       </c>
+      <c r="AL56" t="n">
+        <v>-0.9578401894488183</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6873,6 +7041,9 @@
       <c r="AK57" t="n">
         <v>-1.030349845420956</v>
       </c>
+      <c r="AL57" t="n">
+        <v>-1.033280040943199</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6986,6 +7157,9 @@
       <c r="AK58" t="n">
         <v>-1.170912044529415</v>
       </c>
+      <c r="AL58" t="n">
+        <v>-1.173641880238228</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7099,6 +7273,9 @@
       <c r="AK59" t="n">
         <v>-0.8481114884461548</v>
       </c>
+      <c r="AL59" t="n">
+        <v>-0.8507147832425511</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7212,6 +7389,9 @@
       <c r="AK60" t="n">
         <v>-0.4800038523183573</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-0.4819139401486537</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7325,6 +7505,9 @@
       <c r="AK61" t="n">
         <v>0.3710598737865047</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.3704352052545722</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7438,6 +7621,9 @@
       <c r="AK62" t="n">
         <v>-1.303609455923412</v>
       </c>
+      <c r="AL62" t="n">
+        <v>-1.307015411975346</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7551,6 +7737,9 @@
       <c r="AK63" t="n">
         <v>-0.600244452228723</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-0.6025389831770408</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7664,6 +7853,9 @@
       <c r="AK64" t="n">
         <v>-0.9230859793084042</v>
       </c>
+      <c r="AL64" t="n">
+        <v>-0.9265445256496079</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7777,6 +7969,9 @@
       <c r="AK65" t="n">
         <v>-0.080259890824189</v>
       </c>
+      <c r="AL65" t="n">
+        <v>-0.08168559600407366</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7890,6 +8085,9 @@
       <c r="AK66" t="n">
         <v>-0.8574034887406301</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-0.8595216796157038</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8002,6 +8200,9 @@
       </c>
       <c r="AK67" t="n">
         <v>-0.8427091430016365</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8444067044623766</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2608728832003097</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2625025458691493</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>0.2247433149352457</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.2235568352185705</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>0.2094004983229372</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.2078604647243283</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>-0.08540213987696221</v>
       </c>
+      <c r="AM5" t="n">
+        <v>-0.08653169011534204</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>0.1782582447774498</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.177521457293091</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.4199994506645801</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.4219909434015768</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.1498185203258339</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.1512189375769265</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>-0.3416039181114722</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.343973958091827</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.3800484011657409</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.3793259444092333</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.2220097398843708</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.2236023135935721</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.1237539608797896</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.125173334040129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1940,6 +1976,9 @@
       <c r="AL13" t="n">
         <v>-0.06753193404051359</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.06855037207480853</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2056,6 +2095,9 @@
       <c r="AL14" t="n">
         <v>0.01588910728215682</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.0144166130885458</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2172,6 +2214,9 @@
       <c r="AL15" t="n">
         <v>-0.1401640783503378</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.1418074671768542</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2288,6 +2333,9 @@
       <c r="AL16" t="n">
         <v>0.271030576284963</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.2694209186692231</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2404,6 +2452,9 @@
       <c r="AL17" t="n">
         <v>0.4027006139825844</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.4022926302803652</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2520,6 +2571,9 @@
       <c r="AL18" t="n">
         <v>-0.1743168718745543</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.1753418064729513</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2636,6 +2690,9 @@
       <c r="AL19" t="n">
         <v>0.2705349567809765</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.2693431728043424</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2752,6 +2809,9 @@
       <c r="AL20" t="n">
         <v>0.1620395619570157</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.1605242356577357</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2868,6 +2928,9 @@
       <c r="AL21" t="n">
         <v>0.4619112099431898</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.4616282487004191</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2984,6 +3047,9 @@
       <c r="AL22" t="n">
         <v>0.229605768696654</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.2290903688714945</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3100,6 +3166,9 @@
       <c r="AL23" t="n">
         <v>-0.1963276249388179</v>
       </c>
+      <c r="AM23" t="n">
+        <v>-0.1970599431946258</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3216,6 +3285,9 @@
       <c r="AL24" t="n">
         <v>1.243340903086277</v>
       </c>
+      <c r="AM24" t="n">
+        <v>1.270706555746597</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3332,6 +3404,9 @@
       <c r="AL25" t="n">
         <v>0.3282144708731562</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.3289838697091138</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3448,6 +3523,9 @@
       <c r="AL26" t="n">
         <v>0.1393435316451808</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.1404582421154725</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3564,6 +3642,9 @@
       <c r="AL27" t="n">
         <v>0.04627070967911327</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.04775733089625119</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3680,6 +3761,9 @@
       <c r="AL28" t="n">
         <v>0.8476302646915692</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.8504721622672111</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3796,6 +3880,9 @@
       <c r="AL29" t="n">
         <v>1.674735806026873</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1.692654506520963</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3912,6 +3999,9 @@
       <c r="AL30" t="n">
         <v>0.6777434158125303</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.6792814351851088</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4028,6 +4118,9 @@
       <c r="AL31" t="n">
         <v>-0.4227834738196494</v>
       </c>
+      <c r="AM31" t="n">
+        <v>-0.4227950134598226</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4144,6 +4237,9 @@
       <c r="AL32" t="n">
         <v>0.5606244103716935</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.5620138215889333</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4260,6 +4356,9 @@
       <c r="AL33" t="n">
         <v>0.7726819281234052</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.7735935302313603</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4376,6 +4475,9 @@
       <c r="AL34" t="n">
         <v>-0.8428444797679404</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.8429630430798517</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4492,6 +4594,9 @@
       <c r="AL35" t="n">
         <v>0.8290618358462956</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.8297545200228104</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4608,6 +4713,9 @@
       <c r="AL36" t="n">
         <v>0.7995997150803098</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.8001575394174578</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4724,6 +4832,9 @@
       <c r="AL37" t="n">
         <v>0.7659563948534999</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.7665521933190367</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4840,6 +4951,9 @@
       <c r="AL38" t="n">
         <v>0.6633306336214303</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.6637642150854296</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4956,6 +5070,9 @@
       <c r="AL39" t="n">
         <v>0.6148618867174901</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.6149487778276113</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5072,6 +5189,9 @@
       <c r="AL40" t="n">
         <v>0.7904909807810367</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.7912070510756135</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5188,6 +5308,9 @@
       <c r="AL41" t="n">
         <v>0.586095755302831</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.5861086028375341</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5304,6 +5427,9 @@
       <c r="AL42" t="n">
         <v>0.6553595693038793</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.6559201955477089</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5420,6 +5546,9 @@
       <c r="AL43" t="n">
         <v>0.6925460471454599</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.6928240524951341</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5536,6 +5665,9 @@
       <c r="AL44" t="n">
         <v>0.7178727024262916</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.7180415726943565</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5652,6 +5784,9 @@
       <c r="AL45" t="n">
         <v>0.7371587326340064</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.7374693268155155</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5768,6 +5903,9 @@
       <c r="AL46" t="n">
         <v>-1.363610564191338</v>
       </c>
+      <c r="AM46" t="n">
+        <v>-1.366663467992901</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5884,6 +6022,9 @@
       <c r="AL47" t="n">
         <v>-1.063847164877599</v>
       </c>
+      <c r="AM47" t="n">
+        <v>-1.066361771956128</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6000,6 +6141,9 @@
       <c r="AL48" t="n">
         <v>-0.9241732248857509</v>
       </c>
+      <c r="AM48" t="n">
+        <v>-0.9269541132285049</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6116,6 +6260,9 @@
       <c r="AL49" t="n">
         <v>-0.6824844461122066</v>
       </c>
+      <c r="AM49" t="n">
+        <v>-0.6847793247181445</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6232,6 +6379,9 @@
       <c r="AL50" t="n">
         <v>-0.0960906224032485</v>
       </c>
+      <c r="AM50" t="n">
+        <v>-0.0973230873471268</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6348,6 +6498,9 @@
       <c r="AL51" t="n">
         <v>-0.8956130267813396</v>
       </c>
+      <c r="AM51" t="n">
+        <v>-0.8979862327344879</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6464,6 +6617,9 @@
       <c r="AL52" t="n">
         <v>-0.8956130267813396</v>
       </c>
+      <c r="AM52" t="n">
+        <v>-0.8979862327344879</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6580,6 +6736,9 @@
       <c r="AL53" t="n">
         <v>-1.198748541827618</v>
       </c>
+      <c r="AM53" t="n">
+        <v>-1.202032817670861</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6696,6 +6855,9 @@
       <c r="AL54" t="n">
         <v>-0.208627302980219</v>
       </c>
+      <c r="AM54" t="n">
+        <v>-0.2102414617521251</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6812,6 +6974,9 @@
       <c r="AL55" t="n">
         <v>-1.089285724797365</v>
       </c>
+      <c r="AM55" t="n">
+        <v>-1.091933491177002</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6928,6 +7093,9 @@
       <c r="AL56" t="n">
         <v>-0.9578401894488183</v>
       </c>
+      <c r="AM56" t="n">
+        <v>-0.9597474874122054</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7044,6 +7212,9 @@
       <c r="AL57" t="n">
         <v>-1.033280040943199</v>
       </c>
+      <c r="AM57" t="n">
+        <v>-1.035974766775275</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7160,6 +7331,9 @@
       <c r="AL58" t="n">
         <v>-1.173641880238228</v>
       </c>
+      <c r="AM58" t="n">
+        <v>-1.176129711854468</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7276,6 +7450,9 @@
       <c r="AL59" t="n">
         <v>-0.8507147832425511</v>
       </c>
+      <c r="AM59" t="n">
+        <v>-0.8531720581223295</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7392,6 +7569,9 @@
       <c r="AL60" t="n">
         <v>-0.4819139401486537</v>
       </c>
+      <c r="AM60" t="n">
+        <v>-0.483647199243706</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7508,6 +7688,9 @@
       <c r="AL61" t="n">
         <v>0.3704352052545722</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.3698484167999333</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7624,6 +7807,9 @@
       <c r="AL62" t="n">
         <v>-1.307015411975346</v>
       </c>
+      <c r="AM62" t="n">
+        <v>-1.310141641896605</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7740,6 +7926,9 @@
       <c r="AL63" t="n">
         <v>-0.6025389831770408</v>
       </c>
+      <c r="AM63" t="n">
+        <v>-0.6046737324113913</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7856,6 +8045,9 @@
       <c r="AL64" t="n">
         <v>-0.9265445256496079</v>
       </c>
+      <c r="AM64" t="n">
+        <v>-0.9297926113319903</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7972,6 +8164,9 @@
       <c r="AL65" t="n">
         <v>-0.08168559600407366</v>
       </c>
+      <c r="AM65" t="n">
+        <v>-0.08297533902788654</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8088,6 +8283,9 @@
       <c r="AL66" t="n">
         <v>-0.8595216796157038</v>
       </c>
+      <c r="AM66" t="n">
+        <v>-0.8614170118833056</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8203,6 +8401,9 @@
       </c>
       <c r="AL67" t="n">
         <v>-0.8444067044623766</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8458805440566924</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2625025458691493</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.2639946763434638</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>0.2235568352185705</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.2225319299694921</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>0.2078604647243283</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.2064621150051829</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>-0.08653169011534204</v>
       </c>
+      <c r="AN5" t="n">
+        <v>-0.08754749508206311</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>0.177521457293091</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.1769189512426258</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.4219909434015768</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.4238424266422918</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.1512189375769265</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.1525258941846369</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>-0.343973958091827</v>
       </c>
+      <c r="AN9" t="n">
+        <v>-0.3461164583316388</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.3793259444092333</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.3787184785597689</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.2236023135935721</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.2250849705860234</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.125173334040129</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.1263700909771694</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1979,6 +2015,9 @@
       <c r="AM13" t="n">
         <v>-0.06855037207480853</v>
       </c>
+      <c r="AN13" t="n">
+        <v>-0.06949276141648282</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2098,6 +2137,9 @@
       <c r="AM14" t="n">
         <v>0.0144166130885458</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.01333679882320474</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2217,6 +2259,9 @@
       <c r="AM15" t="n">
         <v>-0.1418074671768542</v>
       </c>
+      <c r="AN15" t="n">
+        <v>-0.1429925888242446</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2336,6 +2381,9 @@
       <c r="AM16" t="n">
         <v>0.2694209186692231</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.2683901388487975</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2455,6 +2503,9 @@
       <c r="AM17" t="n">
         <v>0.4022926302803652</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.4022619259637902</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2625,9 @@
       <c r="AM18" t="n">
         <v>-0.1753418064729513</v>
       </c>
+      <c r="AN18" t="n">
+        <v>-0.1762153640526678</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2693,6 +2747,9 @@
       <c r="AM19" t="n">
         <v>0.2693431728043424</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.26838062529531</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2812,6 +2869,9 @@
       <c r="AM20" t="n">
         <v>0.1605242356577357</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.1595642788762302</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2931,6 +2991,9 @@
       <c r="AM21" t="n">
         <v>0.4616282487004191</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.4617046928289487</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3050,6 +3113,9 @@
       <c r="AM22" t="n">
         <v>0.2290903688714945</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.2289337360783732</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3169,6 +3235,9 @@
       <c r="AM23" t="n">
         <v>-0.1970599431946258</v>
       </c>
+      <c r="AN23" t="n">
+        <v>-0.197496831879594</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3288,6 +3357,9 @@
       <c r="AM24" t="n">
         <v>1.270706555746597</v>
       </c>
+      <c r="AN24" t="n">
+        <v>1.296643931127363</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3407,6 +3479,9 @@
       <c r="AM25" t="n">
         <v>0.3289838697091138</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.3296179447944846</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3526,6 +3601,9 @@
       <c r="AM26" t="n">
         <v>0.1404582421154725</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.14142993938696</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3645,6 +3723,9 @@
       <c r="AM27" t="n">
         <v>0.04775733089625119</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.04908541179702881</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3764,6 +3845,9 @@
       <c r="AM28" t="n">
         <v>0.8504721622672111</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.853026851540715</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3883,6 +3967,9 @@
       <c r="AM29" t="n">
         <v>1.692654506520963</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1.708846085292061</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4002,6 +4089,9 @@
       <c r="AM30" t="n">
         <v>0.6792814351851088</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.6805766209510954</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4121,6 +4211,9 @@
       <c r="AM31" t="n">
         <v>-0.4227950134598226</v>
       </c>
+      <c r="AN31" t="n">
+        <v>-0.4230344299140714</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4240,6 +4333,9 @@
       <c r="AM32" t="n">
         <v>0.5620138215889333</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.5631741011166191</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4359,6 +4455,9 @@
       <c r="AM33" t="n">
         <v>0.7735935302313603</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.7743454148747814</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4478,6 +4577,9 @@
       <c r="AM34" t="n">
         <v>-0.8429630430798517</v>
       </c>
+      <c r="AN34" t="n">
+        <v>-0.8432291739355858</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4597,6 +4699,9 @@
       <c r="AM35" t="n">
         <v>0.8297545200228104</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.8303234780911213</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4716,6 +4821,9 @@
       <c r="AM36" t="n">
         <v>0.8001575394174578</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.8005448623841888</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4835,6 +4943,9 @@
       <c r="AM37" t="n">
         <v>0.7665521933190367</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.7669684780570645</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4954,6 +5065,9 @@
       <c r="AM38" t="n">
         <v>0.6637642150854296</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.6640903142745282</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5073,6 +5187,9 @@
       <c r="AM39" t="n">
         <v>0.6149487778276113</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.6149625804692487</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5192,6 +5309,9 @@
       <c r="AM40" t="n">
         <v>0.7912070510756135</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.7918079026483994</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5311,6 +5431,9 @@
       <c r="AM41" t="n">
         <v>0.5861086028375341</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.5860781404767097</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5430,6 +5553,9 @@
       <c r="AM42" t="n">
         <v>0.6559201955477089</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.656277908730744</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5549,6 +5675,9 @@
       <c r="AM43" t="n">
         <v>0.6928240524951341</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.6930097252274192</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5668,6 +5797,9 @@
       <c r="AM44" t="n">
         <v>0.7180415726943565</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.7181226270035415</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5787,6 +5919,9 @@
       <c r="AM45" t="n">
         <v>0.7374693268155155</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.7375741840966982</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5906,6 +6041,9 @@
       <c r="AM46" t="n">
         <v>-1.366663467992901</v>
       </c>
+      <c r="AN46" t="n">
+        <v>-1.369617473956778</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6025,6 +6163,9 @@
       <c r="AM47" t="n">
         <v>-1.066361771956128</v>
       </c>
+      <c r="AN47" t="n">
+        <v>-1.06880569921078</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6144,6 +6285,9 @@
       <c r="AM48" t="n">
         <v>-0.9269541132285049</v>
       </c>
+      <c r="AN48" t="n">
+        <v>-0.9296646505493928</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6263,6 +6407,9 @@
       <c r="AM49" t="n">
         <v>-0.6847793247181445</v>
       </c>
+      <c r="AN49" t="n">
+        <v>-0.6870090989593198</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6382,6 +6529,9 @@
       <c r="AM50" t="n">
         <v>-0.0973230873471268</v>
       </c>
+      <c r="AN50" t="n">
+        <v>-0.09851517986725104</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6501,6 +6651,9 @@
       <c r="AM51" t="n">
         <v>-0.8979862327344879</v>
       </c>
+      <c r="AN51" t="n">
+        <v>-0.9003181193306525</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6620,6 +6773,9 @@
       <c r="AM52" t="n">
         <v>-0.8979862327344879</v>
       </c>
+      <c r="AN52" t="n">
+        <v>-0.9003181193306525</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6739,6 +6895,9 @@
       <c r="AM53" t="n">
         <v>-1.202032817670861</v>
       </c>
+      <c r="AN53" t="n">
+        <v>-1.205238443325998</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6858,6 +7017,9 @@
       <c r="AM54" t="n">
         <v>-0.2102414617521251</v>
       </c>
+      <c r="AN54" t="n">
+        <v>-0.2118022681263164</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6977,6 +7139,9 @@
       <c r="AM55" t="n">
         <v>-1.091933491177002</v>
       </c>
+      <c r="AN55" t="n">
+        <v>-1.094502955886004</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7096,6 +7261,9 @@
       <c r="AM56" t="n">
         <v>-0.9597474874122054</v>
       </c>
+      <c r="AN56" t="n">
+        <v>-0.9615889317966677</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7215,6 +7383,9 @@
       <c r="AM57" t="n">
         <v>-1.035974766775275</v>
       </c>
+      <c r="AN57" t="n">
+        <v>-1.038453405877877</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7334,6 +7505,9 @@
       <c r="AM58" t="n">
         <v>-1.176129711854468</v>
       </c>
+      <c r="AN58" t="n">
+        <v>-1.178396866045017</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7453,6 +7627,9 @@
       <c r="AM59" t="n">
         <v>-0.8531720581223295</v>
       </c>
+      <c r="AN59" t="n">
+        <v>-0.855487958780428</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7572,6 +7749,9 @@
       <c r="AM60" t="n">
         <v>-0.483647199243706</v>
       </c>
+      <c r="AN60" t="n">
+        <v>-0.4852175783638834</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7691,6 +7871,9 @@
       <c r="AM61" t="n">
         <v>0.3698484167999333</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.369298183006321</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7810,6 +7993,9 @@
       <c r="AM62" t="n">
         <v>-1.310141641896605</v>
       </c>
+      <c r="AN62" t="n">
+        <v>-1.313011865823233</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7929,6 +8115,9 @@
       <c r="AM63" t="n">
         <v>-0.6046737324113913</v>
       </c>
+      <c r="AN63" t="n">
+        <v>-0.6066519071476241</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8048,6 +8237,9 @@
       <c r="AM64" t="n">
         <v>-0.9297926113319903</v>
       </c>
+      <c r="AN64" t="n">
+        <v>-0.9328354915857217</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8167,6 +8359,9 @@
       <c r="AM65" t="n">
         <v>-0.08297533902788654</v>
       </c>
+      <c r="AN65" t="n">
+        <v>-0.08414043637574387</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8286,6 +8481,9 @@
       <c r="AM66" t="n">
         <v>-0.8614170118833056</v>
       </c>
+      <c r="AN66" t="n">
+        <v>-0.8631147419612112</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8404,6 +8602,9 @@
       </c>
       <c r="AM67" t="n">
         <v>-0.8458805440566924</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8471630913718684</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.2639946763434638</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2653569409600655</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>0.2225319299694921</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.2216556567596537</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>0.2064621150051829</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.2051989981344932</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>-0.08754749508206311</v>
       </c>
+      <c r="AO5" t="n">
+        <v>-0.08845961783928737</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>0.1769189512426258</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.1764366698045009</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.4238424266422918</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.4255588819762331</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.1525258941846369</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.1537386262689329</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>-0.3461164583316388</v>
       </c>
+      <c r="AO9" t="n">
+        <v>-0.3480413412822152</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.3787184785597689</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.3782134313924562</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.2250849705860234</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.2264626772690176</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.1263700909771694</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.1273710872069309</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2018,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>-0.06949276141648282</v>
       </c>
+      <c r="AO13" t="n">
+        <v>-0.07036531542286556</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2140,6 +2179,9 @@
       <c r="AN14" t="n">
         <v>0.01333679882320474</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.01259804131882264</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2262,6 +2304,9 @@
       <c r="AN15" t="n">
         <v>-0.1429925888242446</v>
       </c>
+      <c r="AO15" t="n">
+        <v>-0.1437848576317471</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2384,6 +2429,9 @@
       <c r="AN16" t="n">
         <v>0.2683901388487975</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.2678565853643203</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2506,6 +2554,9 @@
       <c r="AN17" t="n">
         <v>0.4022619259637902</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.4025434845320131</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2628,6 +2679,9 @@
       <c r="AN18" t="n">
         <v>-0.1762153640526678</v>
       </c>
+      <c r="AO18" t="n">
+        <v>-0.1769575061097161</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2750,6 +2804,9 @@
       <c r="AN19" t="n">
         <v>0.26838062529531</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.2676148371493948</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2872,6 +2929,9 @@
       <c r="AN20" t="n">
         <v>0.1595642788762302</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.1590775173707253</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2994,6 +3054,9 @@
       <c r="AN21" t="n">
         <v>0.4617046928289487</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.4620776095641378</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3116,6 +3179,9 @@
       <c r="AN22" t="n">
         <v>0.2289337360783732</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.2290761347017858</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3238,6 +3304,9 @@
       <c r="AN23" t="n">
         <v>-0.197496831879594</v>
       </c>
+      <c r="AO23" t="n">
+        <v>-0.1976872492188192</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3360,6 +3429,9 @@
       <c r="AN24" t="n">
         <v>1.296643931127363</v>
       </c>
+      <c r="AO24" t="n">
+        <v>1.320906612126862</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3482,6 +3554,9 @@
       <c r="AN25" t="n">
         <v>0.3296179447944846</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.3301289446184918</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3604,6 +3679,9 @@
       <c r="AN26" t="n">
         <v>0.14142993938696</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.1422594515444225</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3726,6 +3804,9 @@
       <c r="AN27" t="n">
         <v>0.04908541179702881</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.05025655294598482</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3848,6 +3929,9 @@
       <c r="AN28" t="n">
         <v>0.853026851540715</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.8553056075052707</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3970,6 +4054,9 @@
       <c r="AN29" t="n">
         <v>1.708846085292061</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1.72329618006529</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4092,6 +4179,9 @@
       <c r="AN30" t="n">
         <v>0.6805766209510954</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.6816460648517804</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4214,6 +4304,9 @@
       <c r="AN31" t="n">
         <v>-0.4230344299140714</v>
       </c>
+      <c r="AO31" t="n">
+        <v>-0.4234687143740584</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4336,6 +4429,9 @@
       <c r="AN32" t="n">
         <v>0.5631741011166191</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.5641199504674597</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4458,6 +4554,9 @@
       <c r="AN33" t="n">
         <v>0.7743454148747814</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.7749505759861436</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4580,6 +4679,9 @@
       <c r="AN34" t="n">
         <v>-0.8432291739355858</v>
       </c>
+      <c r="AO34" t="n">
+        <v>-0.8436274979616449</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4702,6 +4804,9 @@
       <c r="AN35" t="n">
         <v>0.8303234780911213</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.8307821783106156</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4824,6 +4929,9 @@
       <c r="AN36" t="n">
         <v>0.8005448623841888</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.8007853519684726</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4946,6 +5054,9 @@
       <c r="AN37" t="n">
         <v>0.7669684780570645</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.7672299818713944</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5068,6 +5179,9 @@
       <c r="AN38" t="n">
         <v>0.6640903142745282</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.6643213757072378</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5190,6 +5304,9 @@
       <c r="AN39" t="n">
         <v>0.6149625804692487</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.6149142612470188</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5312,6 +5429,9 @@
       <c r="AN40" t="n">
         <v>0.7918079026483994</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.7923051674731943</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5434,6 +5554,9 @@
       <c r="AN41" t="n">
         <v>0.5860781404767097</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.5860139505395087</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5556,6 +5679,9 @@
       <c r="AN42" t="n">
         <v>0.656277908730744</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.6564591149687392</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5678,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.6930097252274192</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.6931157052442184</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5800,6 +5929,9 @@
       <c r="AN44" t="n">
         <v>0.7181226270035415</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.7181301846556459</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5922,6 +6054,9 @@
       <c r="AN45" t="n">
         <v>0.7375741840966982</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.7375058739392658</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6044,6 +6179,9 @@
       <c r="AN46" t="n">
         <v>-1.369617473956778</v>
       </c>
+      <c r="AO46" t="n">
+        <v>-1.372470630881638</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6166,6 +6304,9 @@
       <c r="AN47" t="n">
         <v>-1.06880569921078</v>
       </c>
+      <c r="AO47" t="n">
+        <v>-1.071175710662416</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6288,6 +6429,9 @@
       <c r="AN48" t="n">
         <v>-0.9296646505493928</v>
       </c>
+      <c r="AO48" t="n">
+        <v>-0.9322973062932435</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6410,6 +6554,9 @@
       <c r="AN49" t="n">
         <v>-0.6870090989593198</v>
       </c>
+      <c r="AO49" t="n">
+        <v>-0.6891688726002638</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6532,6 +6679,9 @@
       <c r="AN50" t="n">
         <v>-0.09851517986725104</v>
       </c>
+      <c r="AO50" t="n">
+        <v>-0.09966695547305859</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6654,6 +6804,9 @@
       <c r="AN51" t="n">
         <v>-0.9003181193306525</v>
       </c>
+      <c r="AO51" t="n">
+        <v>-0.9025994046076498</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6776,6 +6929,9 @@
       <c r="AN52" t="n">
         <v>-0.9003181193306525</v>
       </c>
+      <c r="AO52" t="n">
+        <v>-0.9025994046076498</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6898,6 +7054,9 @@
       <c r="AN53" t="n">
         <v>-1.205238443325998</v>
       </c>
+      <c r="AO53" t="n">
+        <v>-1.20835653751648</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7020,6 +7179,9 @@
       <c r="AN54" t="n">
         <v>-0.2118022681263164</v>
       </c>
+      <c r="AO54" t="n">
+        <v>-0.2133079126326891</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7142,6 +7304,9 @@
       <c r="AN55" t="n">
         <v>-1.094502955886004</v>
       </c>
+      <c r="AO55" t="n">
+        <v>-1.096991629522993</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7264,6 +7429,9 @@
       <c r="AN56" t="n">
         <v>-0.9615889317966677</v>
       </c>
+      <c r="AO56" t="n">
+        <v>-0.9633669595301513</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7386,6 +7554,9 @@
       <c r="AN57" t="n">
         <v>-1.038453405877877</v>
       </c>
+      <c r="AO57" t="n">
+        <v>-1.040735209567125</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7508,6 +7679,9 @@
       <c r="AN58" t="n">
         <v>-1.178396866045017</v>
       </c>
+      <c r="AO58" t="n">
+        <v>-1.180464460120862</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7630,6 +7804,9 @@
       <c r="AN59" t="n">
         <v>-0.855487958780428</v>
       </c>
+      <c r="AO59" t="n">
+        <v>-0.8576682108747843</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7752,6 +7929,9 @@
       <c r="AN60" t="n">
         <v>-0.4852175783638834</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-0.4866392930439981</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7874,6 +8054,9 @@
       <c r="AN61" t="n">
         <v>0.369298183006321</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.3687829007884956</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7996,6 +8179,9 @@
       <c r="AN62" t="n">
         <v>-1.313011865823233</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-1.315649572609737</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8118,6 +8304,9 @@
       <c r="AN63" t="n">
         <v>-0.6066519071476241</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-0.6084786918358146</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8240,6 +8429,9 @@
       <c r="AN64" t="n">
         <v>-0.9328354915857217</v>
       </c>
+      <c r="AO64" t="n">
+        <v>-0.9356803648996997</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8362,6 +8554,9 @@
       <c r="AN65" t="n">
         <v>-0.08414043637574387</v>
       </c>
+      <c r="AO65" t="n">
+        <v>-0.0851923358681962</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8484,6 +8679,9 @@
       <c r="AN66" t="n">
         <v>-0.8631147419612112</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-0.864638980435293</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8605,6 +8803,9 @@
       </c>
       <c r="AN67" t="n">
         <v>-0.8471630913718684</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8482844213485377</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2653569409600655</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.2665978003514878</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>0.2216556567596537</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.220914624894205</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>0.2051989981344932</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.2040634788275572</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>-0.08845961783928737</v>
       </c>
+      <c r="AP5" t="n">
+        <v>-0.08927808951383814</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>0.1764366698045009</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.1760606974429442</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.4255588819762331</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.4271464825073086</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.1537386262689329</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.1548580359497836</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>-0.3480413412822152</v>
       </c>
+      <c r="AP9" t="n">
+        <v>-0.3497605252061661</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.3782134313924562</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.3777985095954708</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.2264626772690176</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.2277411043762504</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.1273710872069309</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.1282020475230181</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2057,6 +2093,9 @@
       <c r="AO13" t="n">
         <v>-0.07036531542286556</v>
       </c>
+      <c r="AP13" t="n">
+        <v>-0.07117415049845276</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2182,6 +2221,9 @@
       <c r="AO14" t="n">
         <v>0.01259804131882264</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.01215104190992981</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2307,6 +2349,9 @@
       <c r="AO15" t="n">
         <v>-0.1437848576317471</v>
       </c>
+      <c r="AP15" t="n">
+        <v>-0.144245897275148</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2432,6 +2477,9 @@
       <c r="AO16" t="n">
         <v>0.2678565853643203</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.2677428945661113</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2557,6 +2605,9 @@
       <c r="AO17" t="n">
         <v>0.4025434845320131</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.4030772761502456</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2682,6 +2733,9 @@
       <c r="AO18" t="n">
         <v>-0.1769575061097161</v>
       </c>
+      <c r="AP18" t="n">
+        <v>-0.1775868564123189</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2861,9 @@
       <c r="AO19" t="n">
         <v>0.2676148371493948</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.267015419384547</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2932,6 +2989,9 @@
       <c r="AO20" t="n">
         <v>0.1590775173707253</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1589866989589674</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3057,6 +3117,9 @@
       <c r="AO21" t="n">
         <v>0.4620776095641378</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.4626888225221116</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3182,6 +3245,9 @@
       <c r="AO22" t="n">
         <v>0.2290761347017858</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.2294621756251488</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3307,6 +3373,9 @@
       <c r="AO23" t="n">
         <v>-0.1976872492188192</v>
       </c>
+      <c r="AP23" t="n">
+        <v>-0.1976764621888817</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3432,6 +3501,9 @@
       <c r="AO24" t="n">
         <v>1.320906612126862</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1.343319031708075</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3557,6 +3629,9 @@
       <c r="AO25" t="n">
         <v>0.3301289446184918</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.3305294819155536</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3682,6 +3757,9 @@
       <c r="AO26" t="n">
         <v>0.1422594515444225</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.1429503006342615</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3807,6 +3885,9 @@
       <c r="AO27" t="n">
         <v>0.05025655294598482</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.05127509664696471</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3932,6 +4013,9 @@
       <c r="AO28" t="n">
         <v>0.8553056075052707</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.8573226867781939</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4057,6 +4141,9 @@
       <c r="AO29" t="n">
         <v>1.72329618006529</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1.736026871315908</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4182,6 +4269,9 @@
       <c r="AO30" t="n">
         <v>0.6816460648517804</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.6825084019480357</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4307,6 +4397,9 @@
       <c r="AO31" t="n">
         <v>-0.4234687143740584</v>
       </c>
+      <c r="AP31" t="n">
+        <v>-0.4240661392992301</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4432,6 +4525,9 @@
       <c r="AO32" t="n">
         <v>0.5641199504674597</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.5648677745481567</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4557,6 +4653,9 @@
       <c r="AO33" t="n">
         <v>0.7749505759861436</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.7754226666414923</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4682,6 +4781,9 @@
       <c r="AO34" t="n">
         <v>-0.8436274979616449</v>
       </c>
+      <c r="AP34" t="n">
+        <v>-0.8441421885852179</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4807,6 +4909,9 @@
       <c r="AO35" t="n">
         <v>0.8307821783106156</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.8311437998059177</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4932,6 +5037,9 @@
       <c r="AO36" t="n">
         <v>0.8007853519684726</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.8009014409799017</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5057,6 +5165,9 @@
       <c r="AO37" t="n">
         <v>0.7672299818713944</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.7673601802068868</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5182,6 +5293,9 @@
       <c r="AO38" t="n">
         <v>0.6643213757072378</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.6644695974639671</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,6 +5421,9 @@
       <c r="AO39" t="n">
         <v>0.6149142612470188</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.6148141445218288</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5432,6 +5549,9 @@
       <c r="AO40" t="n">
         <v>0.7923051674731943</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.7927103290024969</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5557,6 +5677,9 @@
       <c r="AO41" t="n">
         <v>0.5860139505395087</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.5859246314200107</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5682,6 +5805,9 @@
       <c r="AO42" t="n">
         <v>0.6564591149687392</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.6564892252928507</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5807,6 +5933,9 @@
       <c r="AO43" t="n">
         <v>0.6931157052442184</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.6931540471906806</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5932,6 +6061,9 @@
       <c r="AO44" t="n">
         <v>0.7181301846556459</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.7180775345097388</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6057,6 +6189,9 @@
       <c r="AO45" t="n">
         <v>0.7375058739392658</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.7372948073139115</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6182,6 +6317,9 @@
       <c r="AO46" t="n">
         <v>-1.372470630881638</v>
       </c>
+      <c r="AP46" t="n">
+        <v>-1.375222011692948</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6307,6 +6445,9 @@
       <c r="AO47" t="n">
         <v>-1.071175710662416</v>
       </c>
+      <c r="AP47" t="n">
+        <v>-1.073469497218819</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6432,6 +6573,9 @@
       <c r="AO48" t="n">
         <v>-0.9322973062932435</v>
       </c>
+      <c r="AP48" t="n">
+        <v>-0.9348462304997688</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6557,6 +6701,9 @@
       <c r="AO49" t="n">
         <v>-0.6891688726002638</v>
       </c>
+      <c r="AP49" t="n">
+        <v>-0.6912550320512461</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6682,6 +6829,9 @@
       <c r="AO50" t="n">
         <v>-0.09966695547305859</v>
       </c>
+      <c r="AP50" t="n">
+        <v>-0.1007787178641533</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6807,6 +6957,9 @@
       <c r="AO51" t="n">
         <v>-0.9025994046076498</v>
       </c>
+      <c r="AP51" t="n">
+        <v>-0.9048224093624857</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6932,6 +7085,9 @@
       <c r="AO52" t="n">
         <v>-0.9025994046076498</v>
       </c>
+      <c r="AP52" t="n">
+        <v>-0.9048224093624857</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7057,6 +7213,9 @@
       <c r="AO53" t="n">
         <v>-1.20835653751648</v>
       </c>
+      <c r="AP53" t="n">
+        <v>-1.211380059050595</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7182,6 +7341,9 @@
       <c r="AO54" t="n">
         <v>-0.2133079126326891</v>
       </c>
+      <c r="AP54" t="n">
+        <v>-0.2147573373022096</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7307,6 +7469,9 @@
       <c r="AO55" t="n">
         <v>-1.096991629522993</v>
       </c>
+      <c r="AP55" t="n">
+        <v>-1.099397901004325</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7432,6 +7597,9 @@
       <c r="AO56" t="n">
         <v>-0.9633669595301513</v>
       </c>
+      <c r="AP56" t="n">
+        <v>-0.965084002385901</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7557,6 +7725,9 @@
       <c r="AO57" t="n">
         <v>-1.040735209567125</v>
       </c>
+      <c r="AP57" t="n">
+        <v>-1.042838997531329</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7682,6 +7853,9 @@
       <c r="AO58" t="n">
         <v>-1.180464460120862</v>
       </c>
+      <c r="AP58" t="n">
+        <v>-1.182353066915677</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7807,6 +7981,9 @@
       <c r="AO59" t="n">
         <v>-0.8576682108747843</v>
       </c>
+      <c r="AP59" t="n">
+        <v>-0.8597193599650083</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7932,6 +8109,9 @@
       <c r="AO60" t="n">
         <v>-0.4866392930439981</v>
       </c>
+      <c r="AP60" t="n">
+        <v>-0.4879265290013798</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8057,6 +8237,9 @@
       <c r="AO61" t="n">
         <v>0.3687829007884956</v>
       </c>
+      <c r="AP61" t="n">
+        <v>0.3683007581426934</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8182,6 +8365,9 @@
       <c r="AO62" t="n">
         <v>-1.315649572609737</v>
       </c>
+      <c r="AP62" t="n">
+        <v>-1.318077658324104</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8307,6 +8493,9 @@
       <c r="AO63" t="n">
         <v>-0.6084786918358146</v>
       </c>
+      <c r="AP63" t="n">
+        <v>-0.6101608321559273</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8432,6 +8621,9 @@
       <c r="AO64" t="n">
         <v>-0.9356803648996997</v>
       </c>
+      <c r="AP64" t="n">
+        <v>-0.9383359652828467</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8557,6 +8749,9 @@
       <c r="AO65" t="n">
         <v>-0.0851923358681962</v>
       </c>
+      <c r="AP65" t="n">
+        <v>-0.08614238605408588</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8682,6 +8877,9 @@
       <c r="AO66" t="n">
         <v>-0.864638980435293</v>
       </c>
+      <c r="AP66" t="n">
+        <v>-0.8660124467284076</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8806,6 +9004,9 @@
       </c>
       <c r="AO67" t="n">
         <v>-0.8482844213485377</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8492720831299309</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.2665978003514878</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.267726233596314</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>0.220914624894205</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>0.2202953015312886</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>0.2040634788275572</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>0.2030470599979884</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>-0.08927808951383814</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-0.09001273946377986</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>0.1760606974429442</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>0.1757774921554815</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.4271464825073086</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.4286123028938096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.1548580359497836</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.1558864078723915</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>-0.3497605252061661</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>-0.351287405695804</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.3777985095954708</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.3774618788307971</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.2277411043762504</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.2289264207899237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.1282020475230181</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.1288872865333536</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2096,6 +2132,9 @@
       <c r="AP13" t="n">
         <v>-0.07117415049845276</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>-0.07192520505328619</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2224,6 +2263,9 @@
       <c r="AP14" t="n">
         <v>0.01215104190992981</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0.01194934776872546</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2352,6 +2394,9 @@
       <c r="AP15" t="n">
         <v>-0.144245897275148</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>-0.1444330367894535</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2480,6 +2525,9 @@
       <c r="AP16" t="n">
         <v>0.2677428945661113</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0.2679767108148919</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2608,6 +2656,9 @@
       <c r="AP17" t="n">
         <v>0.4030772761502456</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>0.403808543565782</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2736,6 +2787,9 @@
       <c r="AP18" t="n">
         <v>-0.1775868564123189</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>-0.1781206138504824</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2864,6 +2918,9 @@
       <c r="AP19" t="n">
         <v>0.267015419384547</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>0.2665542733625205</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2992,6 +3049,9 @@
       <c r="AP20" t="n">
         <v>0.1589866989589674</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>0.1592201064042173</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3120,6 +3180,9 @@
       <c r="AP21" t="n">
         <v>0.4626888225221116</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0.463485227470943</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3248,6 +3311,9 @@
       <c r="AP22" t="n">
         <v>0.2294621756251488</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>0.2300411243374025</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3376,6 +3442,9 @@
       <c r="AP23" t="n">
         <v>-0.1976764621888817</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>-0.1975058188433089</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3504,6 +3573,9 @@
       <c r="AP24" t="n">
         <v>1.343319031708075</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>1.363768438448027</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3632,6 +3704,9 @@
       <c r="AP25" t="n">
         <v>0.3305294819155536</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>0.33083222313623</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3760,6 +3835,9 @@
       <c r="AP26" t="n">
         <v>0.1429503006342615</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>0.1435081958929282</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3888,6 +3966,9 @@
       <c r="AP27" t="n">
         <v>0.05127509664696471</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>0.05214759299025735</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4016,6 +4097,9 @@
       <c r="AP28" t="n">
         <v>0.8573226867781939</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>0.8590945907542464</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4144,6 +4228,9 @@
       <c r="AP29" t="n">
         <v>1.736026871315908</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1.747090135301638</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4272,6 +4359,9 @@
       <c r="AP30" t="n">
         <v>0.6825084019480357</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>0.6831831930209158</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4400,6 +4490,9 @@
       <c r="AP31" t="n">
         <v>-0.4240661392992301</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>-0.4247966781164086</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4528,6 +4621,9 @@
       <c r="AP32" t="n">
         <v>0.5648677745481567</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>0.5654350948245842</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4656,6 +4752,9 @@
       <c r="AP33" t="n">
         <v>0.7754226666414923</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>0.7757756311654898</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4784,6 +4883,9 @@
       <c r="AP34" t="n">
         <v>-0.8441421885852179</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>-0.8447573538930004</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4912,6 +5014,9 @@
       <c r="AP35" t="n">
         <v>0.8311437998059177</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>0.8314210450978125</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5040,6 +5145,9 @@
       <c r="AP36" t="n">
         <v>0.8009014409799017</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>0.8009141186867048</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5168,6 +5276,9 @@
       <c r="AP37" t="n">
         <v>0.7673601802068868</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>0.767381066025169</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5296,6 +5407,9 @@
       <c r="AP38" t="n">
         <v>0.6644695974639671</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>0.6645467402284383</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5424,6 +5538,9 @@
       <c r="AP39" t="n">
         <v>0.6148141445218288</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>0.6146718308947312</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5552,6 +5669,9 @@
       <c r="AP40" t="n">
         <v>0.7927103290024969</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>0.7930345486859525</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5680,6 +5800,9 @@
       <c r="AP41" t="n">
         <v>0.5859246314200107</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>0.5858177969987076</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5808,6 +5931,9 @@
       <c r="AP42" t="n">
         <v>0.6564892252928507</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>0.6563923450570683</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5936,6 +6062,9 @@
       <c r="AP43" t="n">
         <v>0.6931540471906806</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>0.6931360897504074</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6064,6 +6193,9 @@
       <c r="AP44" t="n">
         <v>0.7180775345097388</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>0.7179768604852403</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6192,6 +6324,9 @@
       <c r="AP45" t="n">
         <v>0.7372948073139115</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>0.736969032771328</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6320,6 +6455,9 @@
       <c r="AP46" t="n">
         <v>-1.375222011692948</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>-1.377871603346544</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6448,6 +6586,9 @@
       <c r="AP47" t="n">
         <v>-1.073469497218819</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>-1.075685601561695</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6576,6 +6717,9 @@
       <c r="AP48" t="n">
         <v>-0.9348462304997688</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>-0.9373071233896412</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,6 +6848,9 @@
       <c r="AP49" t="n">
         <v>-0.6912550320512461</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>-0.6932651323153366</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6832,6 +6979,9 @@
       <c r="AP50" t="n">
         <v>-0.1007787178641533</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>-0.1018509886728951</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6960,6 +7110,9 @@
       <c r="AP51" t="n">
         <v>-0.9048224093624857</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>-0.9069809659120661</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7088,6 +7241,9 @@
       <c r="AP52" t="n">
         <v>-0.9048224093624857</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>-0.9069809659120661</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7216,6 +7372,9 @@
       <c r="AP53" t="n">
         <v>-1.211380059050595</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>-1.21430368508435</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7344,6 +7503,9 @@
       <c r="AP54" t="n">
         <v>-0.2147573373022096</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>-0.2161501502600916</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7472,6 +7634,9 @@
       <c r="AP55" t="n">
         <v>-1.099397901004325</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>-1.101720958637281</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7600,6 +7765,9 @@
       <c r="AP56" t="n">
         <v>-0.965084002385901</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>-0.9667424627090502</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7728,6 +7896,9 @@
       <c r="AP57" t="n">
         <v>-1.042838997531329</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>-1.044782912120502</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7856,6 +8027,9 @@
       <c r="AP58" t="n">
         <v>-1.182353066915677</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>-1.184082443193494</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7984,6 +8158,9 @@
       <c r="AP59" t="n">
         <v>-0.8597193599650083</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>-0.8616485380825762</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8112,6 +8289,9 @@
       <c r="AP60" t="n">
         <v>-0.4879265290013798</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>-0.4890931940477065</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8240,6 +8420,9 @@
       <c r="AP61" t="n">
         <v>0.3683007581426934</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>0.3678497958692288</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8368,6 +8551,9 @@
       <c r="AP62" t="n">
         <v>-1.318077658324104</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>-1.320318132270214</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8496,6 +8682,9 @@
       <c r="AP63" t="n">
         <v>-0.6101608321559273</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>-0.6117062588969371</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8624,6 +8813,9 @@
       <c r="AP64" t="n">
         <v>-0.9383359652828467</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>-0.9408121893657255</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8752,6 +8944,9 @@
       <c r="AP65" t="n">
         <v>-0.08614238605408588</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>-0.08700164540937588</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8880,6 +9075,9 @@
       <c r="AP66" t="n">
         <v>-0.8660124467284076</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>-0.8672562889077247</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9007,6 +9205,9 @@
       </c>
       <c r="AP67" t="n">
         <v>-0.8492720831299309</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8501510044767131</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.267726233596314</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2687514969391091</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>0.2202953015312886</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.2197842731711398</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>0.2030470599979884</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.2021406701061944</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>-0.09001273946377986</v>
       </c>
+      <c r="AR5" t="n">
+        <v>-0.09067305577960885</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>0.1757774921554815</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.1755740739474498</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.4286123028938096</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.429964058478887</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.1558864078723915</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.1568271461603335</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>-0.351287405695804</v>
       </c>
+      <c r="AR9" t="n">
+        <v>-0.3526363904632916</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.3774618788307971</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.3771923065351896</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.2289264207899237</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.2300251109028257</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.1288872865333536</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.1294494988321203</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2135,6 +2171,9 @@
       <c r="AQ13" t="n">
         <v>-0.07192520505328619</v>
       </c>
+      <c r="AR13" t="n">
+        <v>-0.07262417349249545</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2266,6 +2305,9 @@
       <c r="AQ14" t="n">
         <v>0.01194934776872546</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.01194973977270495</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2397,6 +2439,9 @@
       <c r="AQ15" t="n">
         <v>-0.1444330367894535</v>
       </c>
+      <c r="AR15" t="n">
+        <v>-0.1443989630981566</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2528,6 +2573,9 @@
       <c r="AQ16" t="n">
         <v>0.2679767108148919</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.2684912027459172</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2659,6 +2707,9 @@
       <c r="AQ17" t="n">
         <v>0.403808543565782</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0.4046879486434949</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2790,6 +2841,9 @@
       <c r="AQ18" t="n">
         <v>-0.1781206138504824</v>
       </c>
+      <c r="AR18" t="n">
+        <v>-0.1785745003889803</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2921,6 +2975,9 @@
       <c r="AQ19" t="n">
         <v>0.2665542733625205</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.2662057208670896</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3109,9 @@
       <c r="AQ20" t="n">
         <v>0.1592201064042173</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.1597119738446925</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3183,6 +3243,9 @@
       <c r="AQ21" t="n">
         <v>0.463485227470943</v>
       </c>
+      <c r="AR21" t="n">
+        <v>0.4644189637694223</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3314,6 +3377,9 @@
       <c r="AQ22" t="n">
         <v>0.2300411243374025</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.2307670767231877</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3445,6 +3511,9 @@
       <c r="AQ23" t="n">
         <v>-0.1975058188433089</v>
       </c>
+      <c r="AR23" t="n">
+        <v>-0.1972126274490845</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3576,6 +3645,9 @@
       <c r="AQ24" t="n">
         <v>1.363768438448027</v>
       </c>
+      <c r="AR24" t="n">
+        <v>1.382196967446788</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3707,6 +3779,9 @@
       <c r="AQ25" t="n">
         <v>0.33083222313623</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0.3310496292380146</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3838,6 +3913,9 @@
       <c r="AQ26" t="n">
         <v>0.1435081958929282</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.1439405679704747</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3969,6 +4047,9 @@
       <c r="AQ27" t="n">
         <v>0.05214759299025735</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.05288231205545302</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4100,6 +4181,9 @@
       <c r="AQ28" t="n">
         <v>0.8590945907542464</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.8606394049728452</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4231,6 +4315,9 @@
       <c r="AQ29" t="n">
         <v>1.747090135301638</v>
       </c>
+      <c r="AR29" t="n">
+        <v>1.756561829268376</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4362,6 +4449,9 @@
       <c r="AQ30" t="n">
         <v>0.6831831930209158</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.6836903918751974</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4493,6 +4583,9 @@
       <c r="AQ31" t="n">
         <v>-0.4247966781164086</v>
       </c>
+      <c r="AR31" t="n">
+        <v>-0.4256323222858289</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4624,6 +4717,9 @@
       <c r="AQ32" t="n">
         <v>0.5654350948245842</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.5658400364156835</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4755,6 +4851,9 @@
       <c r="AQ33" t="n">
         <v>0.7757756311654898</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.7760233917913134</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4886,6 +4985,9 @@
       <c r="AQ34" t="n">
         <v>-0.8447573538930004</v>
       </c>
+      <c r="AR34" t="n">
+        <v>-0.8454573617147166</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5017,6 +5119,9 @@
       <c r="AQ35" t="n">
         <v>0.8314210450978125</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.8316259901510612</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5148,6 +5253,9 @@
       <c r="AQ36" t="n">
         <v>0.8009141186867048</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.8008427812306351</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5279,6 +5387,9 @@
       <c r="AQ37" t="n">
         <v>0.767381066025169</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.7673129870057007</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5410,6 +5521,9 @@
       <c r="AQ38" t="n">
         <v>0.6645467402284383</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.6645639755330272</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5541,6 +5655,9 @@
       <c r="AQ39" t="n">
         <v>0.6146718308947312</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.6144961409243762</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5672,6 +5789,9 @@
       <c r="AQ40" t="n">
         <v>0.7930345486859525</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.7932885241836314</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5803,6 +5923,9 @@
       <c r="AQ41" t="n">
         <v>0.5858177969987076</v>
       </c>
+      <c r="AR41" t="n">
+        <v>0.5857000944295851</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5934,6 +6057,9 @@
       <c r="AQ42" t="n">
         <v>0.6563923450570683</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.6561910367211966</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6065,6 +6191,9 @@
       <c r="AQ43" t="n">
         <v>0.6931360897504074</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.6930723592391385</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6196,6 +6325,9 @@
       <c r="AQ44" t="n">
         <v>0.7179768604852403</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.7178391985338031</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6327,6 +6459,9 @@
       <c r="AQ45" t="n">
         <v>0.736969032771328</v>
       </c>
+      <c r="AR45" t="n">
+        <v>0.7365541066926622</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6458,6 +6593,9 @@
       <c r="AQ46" t="n">
         <v>-1.377871603346544</v>
       </c>
+      <c r="AR46" t="n">
+        <v>-1.380420196236144</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,6 +6727,9 @@
       <c r="AQ47" t="n">
         <v>-1.075685601561695</v>
       </c>
+      <c r="AR47" t="n">
+        <v>-1.077823338318171</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6720,6 +6861,9 @@
       <c r="AQ48" t="n">
         <v>-0.9373071233896412</v>
       </c>
+      <c r="AR48" t="n">
+        <v>-0.9396770962098155</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6851,6 +6995,9 @@
       <c r="AQ49" t="n">
         <v>-0.6932651323153366</v>
       </c>
+      <c r="AR49" t="n">
+        <v>-0.695197778890825</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6982,6 +7129,9 @@
       <c r="AQ50" t="n">
         <v>-0.1018509886728951</v>
       </c>
+      <c r="AR50" t="n">
+        <v>-0.1028844775984095</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7113,6 +7263,9 @@
       <c r="AQ51" t="n">
         <v>-0.9069809659120661</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-0.9090703131884023</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7244,6 +7397,9 @@
       <c r="AQ52" t="n">
         <v>-0.9069809659120661</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-0.9090703131884023</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7375,6 +7531,9 @@
       <c r="AQ53" t="n">
         <v>-1.21430368508435</v>
       </c>
+      <c r="AR53" t="n">
+        <v>-1.217123675122404</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7506,6 +7665,9 @@
       <c r="AQ54" t="n">
         <v>-0.2161501502600916</v>
       </c>
+      <c r="AR54" t="n">
+        <v>-0.2174865414856187</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7637,6 +7799,9 @@
       <c r="AQ55" t="n">
         <v>-1.101720958637281</v>
       </c>
+      <c r="AR55" t="n">
+        <v>-1.103960708072989</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7768,6 +7933,9 @@
       <c r="AQ56" t="n">
         <v>-0.9667424627090502</v>
       </c>
+      <c r="AR56" t="n">
+        <v>-0.9683446936680595</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7899,6 +8067,9 @@
       <c r="AQ57" t="n">
         <v>-1.044782912120502</v>
       </c>
+      <c r="AR57" t="n">
+        <v>-1.046584222763562</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8030,6 +8201,9 @@
       <c r="AQ58" t="n">
         <v>-1.184082443193494</v>
       </c>
+      <c r="AR58" t="n">
+        <v>-1.18567131623158</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8161,6 +8335,9 @@
       <c r="AQ59" t="n">
         <v>-0.8616485380825762</v>
       </c>
+      <c r="AR59" t="n">
+        <v>-0.8634632567503823</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8292,6 +8469,9 @@
       <c r="AQ60" t="n">
         <v>-0.4890931940477065</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-0.4901527150839867</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8423,6 +8603,9 @@
       <c r="AQ61" t="n">
         <v>0.3678497958692288</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.3674279623010691</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8554,6 +8737,9 @@
       <c r="AQ62" t="n">
         <v>-1.320318132270214</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-1.32239188506269</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8685,6 +8871,9 @@
       <c r="AQ63" t="n">
         <v>-0.6117062588969371</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-0.6131237517760986</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8816,6 +9005,9 @@
       <c r="AQ64" t="n">
         <v>-0.9408121893657255</v>
       </c>
+      <c r="AR64" t="n">
+        <v>-0.9431197596612995</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8947,6 +9139,9 @@
       <c r="AQ65" t="n">
         <v>-0.08700164540937588</v>
       </c>
+      <c r="AR65" t="n">
+        <v>-0.08778072821056594</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9078,6 +9273,9 @@
       <c r="AQ66" t="n">
         <v>-0.8672562889077247</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-0.8683899613271427</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9208,6 +9406,9 @@
       </c>
       <c r="AQ67" t="n">
         <v>-0.8501510044767131</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8509434610546764</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2687514969391091</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2696829158901749</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>0.2197842731711398</v>
       </c>
+      <c r="AS3" t="n">
+        <v>0.2193684646661764</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>0.2021406701061944</v>
       </c>
+      <c r="AS4" t="n">
+        <v>0.2013349157526092</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>-0.09067305577960885</v>
       </c>
+      <c r="AS5" t="n">
+        <v>-0.09126807385096586</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>0.1755740739474498</v>
       </c>
+      <c r="AS6" t="n">
+        <v>0.1754381730624405</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.429964058478887</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.4312098736268402</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.1568271461603335</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.1576845331880992</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>-0.3526363904632916</v>
       </c>
+      <c r="AS9" t="n">
+        <v>-0.3538224876384651</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.3771923065351896</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.3769792708306437</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.2300251109028257</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.2310438150503759</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.1294494988321203</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.1299096116272591</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2174,6 +2210,9 @@
       <c r="AR13" t="n">
         <v>-0.07262417349249545</v>
       </c>
+      <c r="AS13" t="n">
+        <v>-0.07327645415918832</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2308,6 +2347,9 @@
       <c r="AR14" t="n">
         <v>0.01194973977270495</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0.01211250079474293</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2442,6 +2484,9 @@
       <c r="AR15" t="n">
         <v>-0.1443989630981566</v>
       </c>
+      <c r="AS15" t="n">
+        <v>-0.1441915118722029</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2576,6 +2621,9 @@
       <c r="AR16" t="n">
         <v>0.2684912027459172</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0.2692253981887502</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2710,6 +2758,9 @@
       <c r="AR17" t="n">
         <v>0.4046879486434949</v>
       </c>
+      <c r="AS17" t="n">
+        <v>0.4056715985380665</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2844,6 +2895,9 @@
       <c r="AR18" t="n">
         <v>-0.1785745003889803</v>
       </c>
+      <c r="AS18" t="n">
+        <v>-0.1789627401570612</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2978,6 +3032,9 @@
       <c r="AR19" t="n">
         <v>0.2662057208670896</v>
       </c>
+      <c r="AS19" t="n">
+        <v>0.2659465708743568</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3112,6 +3169,9 @@
       <c r="AR20" t="n">
         <v>0.1597119738446925</v>
       </c>
+      <c r="AS20" t="n">
+        <v>0.1604027299847716</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3246,6 +3306,9 @@
       <c r="AR21" t="n">
         <v>0.4644189637694223</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0.4654474613709612</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3380,6 +3443,9 @@
       <c r="AR22" t="n">
         <v>0.2307670767231877</v>
       </c>
+      <c r="AS22" t="n">
+        <v>0.2315990200101984</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3514,6 +3580,9 @@
       <c r="AR23" t="n">
         <v>-0.1972126274490845</v>
       </c>
+      <c r="AS23" t="n">
+        <v>-0.1968301278725827</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3648,6 +3717,9 @@
       <c r="AR24" t="n">
         <v>1.382196967446788</v>
       </c>
+      <c r="AS24" t="n">
+        <v>1.398593946328697</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3782,6 +3854,9 @@
       <c r="AR25" t="n">
         <v>0.3310496292380146</v>
       </c>
+      <c r="AS25" t="n">
+        <v>0.3311937439510161</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3916,6 +3991,9 @@
       <c r="AR26" t="n">
         <v>0.1439405679704747</v>
       </c>
+      <c r="AS26" t="n">
+        <v>0.1442561460468711</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4050,6 +4128,9 @@
       <c r="AR27" t="n">
         <v>0.05288231205545302</v>
       </c>
+      <c r="AS27" t="n">
+        <v>0.0534888035510066</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4184,6 +4265,9 @@
       <c r="AR28" t="n">
         <v>0.8606394049728452</v>
       </c>
+      <c r="AS28" t="n">
+        <v>0.8619762145318536</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4318,6 +4402,9 @@
       <c r="AR29" t="n">
         <v>1.756561829268376</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1.764536227938239</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4452,6 +4539,9 @@
       <c r="AR30" t="n">
         <v>0.6836903918751974</v>
       </c>
+      <c r="AS30" t="n">
+        <v>0.6840498932427774</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4586,6 +4676,9 @@
       <c r="AR31" t="n">
         <v>-0.4256323222858289</v>
       </c>
+      <c r="AS31" t="n">
+        <v>-0.4265473068569214</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4720,6 +4813,9 @@
       <c r="AR32" t="n">
         <v>0.5658400364156835</v>
       </c>
+      <c r="AS32" t="n">
+        <v>0.5661008865696791</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4854,6 +4950,9 @@
       <c r="AR33" t="n">
         <v>0.7760233917913134</v>
       </c>
+      <c r="AS33" t="n">
+        <v>0.7761795867304802</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4988,6 +5087,9 @@
       <c r="AR34" t="n">
         <v>-0.8454573617147166</v>
       </c>
+      <c r="AS34" t="n">
+        <v>-0.8462271069711202</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5122,6 +5224,9 @@
       <c r="AR35" t="n">
         <v>0.8316259901510612</v>
       </c>
+      <c r="AS35" t="n">
+        <v>0.8317699688642137</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5256,6 +5361,9 @@
       <c r="AR36" t="n">
         <v>0.8008427812306351</v>
       </c>
+      <c r="AS36" t="n">
+        <v>0.8007051343508028</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5390,6 +5498,9 @@
       <c r="AR37" t="n">
         <v>0.7673129870057007</v>
       </c>
+      <c r="AS37" t="n">
+        <v>0.7671745382562883</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5524,6 +5635,9 @@
       <c r="AR38" t="n">
         <v>0.6645639755330272</v>
       </c>
+      <c r="AS38" t="n">
+        <v>0.664531769646757</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5658,6 +5772,9 @@
       <c r="AR39" t="n">
         <v>0.6144961409243762</v>
       </c>
+      <c r="AS39" t="n">
+        <v>0.6142950812644238</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5792,6 +5909,9 @@
       <c r="AR40" t="n">
         <v>0.7932885241836314</v>
       </c>
+      <c r="AS40" t="n">
+        <v>0.793482377079177</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5926,6 +6046,9 @@
       <c r="AR41" t="n">
         <v>0.5857000944295851</v>
       </c>
+      <c r="AS41" t="n">
+        <v>0.5855772370441978</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6060,6 +6183,9 @@
       <c r="AR42" t="n">
         <v>0.6561910367211966</v>
       </c>
+      <c r="AS42" t="n">
+        <v>0.6559061487073217</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6194,6 +6320,9 @@
       <c r="AR43" t="n">
         <v>0.6930723592391385</v>
       </c>
+      <c r="AS43" t="n">
+        <v>0.6929725037714674</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6328,6 +6457,9 @@
       <c r="AR44" t="n">
         <v>0.7178391985338031</v>
       </c>
+      <c r="AS44" t="n">
+        <v>0.7176744209801024</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6462,6 +6594,9 @@
       <c r="AR45" t="n">
         <v>0.7365541066926622</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.736073028571817</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6596,6 +6731,9 @@
       <c r="AR46" t="n">
         <v>-1.380420196236144</v>
       </c>
+      <c r="AS46" t="n">
+        <v>-1.38286927520204</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6730,6 +6868,9 @@
       <c r="AR47" t="n">
         <v>-1.077823338318171</v>
       </c>
+      <c r="AS47" t="n">
+        <v>-1.079882711721057</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6864,6 +7005,9 @@
       <c r="AR48" t="n">
         <v>-0.9396770962098155</v>
       </c>
+      <c r="AS48" t="n">
+        <v>-0.9419545272478271</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6998,6 +7142,9 @@
       <c r="AR49" t="n">
         <v>-0.695197778890825</v>
       </c>
+      <c r="AS49" t="n">
+        <v>-0.6970525083952918</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7132,6 +7279,9 @@
       <c r="AR50" t="n">
         <v>-0.1028844775984095</v>
       </c>
+      <c r="AS50" t="n">
+        <v>-0.1038800533944344</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7266,6 +7416,9 @@
       <c r="AR51" t="n">
         <v>-0.9090703131884023</v>
       </c>
+      <c r="AS51" t="n">
+        <v>-0.9110869821718254</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7400,6 +7553,9 @@
       <c r="AR52" t="n">
         <v>-0.9090703131884023</v>
       </c>
+      <c r="AS52" t="n">
+        <v>-0.9110869821718254</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7534,6 +7690,9 @@
       <c r="AR53" t="n">
         <v>-1.217123675122404</v>
       </c>
+      <c r="AS53" t="n">
+        <v>-1.219837725605752</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7668,6 +7827,9 @@
       <c r="AR54" t="n">
         <v>-0.2174865414856187</v>
       </c>
+      <c r="AS54" t="n">
+        <v>-0.2187672010182267</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7802,6 +7964,9 @@
       <c r="AR55" t="n">
         <v>-1.103960708072989</v>
       </c>
+      <c r="AS55" t="n">
+        <v>-1.106117689118536</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7936,6 +8101,9 @@
       <c r="AR56" t="n">
         <v>-0.9683446936680595</v>
       </c>
+      <c r="AS56" t="n">
+        <v>-0.9698929835429638</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8070,6 +8238,9 @@
       <c r="AR57" t="n">
         <v>-1.046584222763562</v>
       </c>
+      <c r="AS57" t="n">
+        <v>-1.048259176190087</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8204,6 +8375,9 @@
       <c r="AR58" t="n">
         <v>-1.18567131623158</v>
       </c>
+      <c r="AS58" t="n">
+        <v>-1.187137223124715</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8338,6 +8512,9 @@
       <c r="AR59" t="n">
         <v>-0.8634632567503823</v>
       </c>
+      <c r="AS59" t="n">
+        <v>-0.8651712258902542</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8472,6 +8649,9 @@
       <c r="AR60" t="n">
         <v>-0.4901527150839867</v>
       </c>
+      <c r="AS60" t="n">
+        <v>-0.4911178765726191</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8606,6 +8786,9 @@
       <c r="AR61" t="n">
         <v>0.3674279623010691</v>
       </c>
+      <c r="AS61" t="n">
+        <v>0.3670331611726255</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8740,6 +8923,9 @@
       <c r="AR62" t="n">
         <v>-1.32239188506269</v>
       </c>
+      <c r="AS62" t="n">
+        <v>-1.324318513125021</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8874,6 +9060,9 @@
       <c r="AR63" t="n">
         <v>-0.6131237517760986</v>
       </c>
+      <c r="AS63" t="n">
+        <v>-0.6144226426307012</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9008,6 +9197,9 @@
       <c r="AR64" t="n">
         <v>-0.9431197596612995</v>
       </c>
+      <c r="AS64" t="n">
+        <v>-0.9452699244858567</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9142,6 +9334,9 @@
       <c r="AR65" t="n">
         <v>-0.08778072821056594</v>
       </c>
+      <c r="AS65" t="n">
+        <v>-0.08848968386644478</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9276,6 +9471,9 @@
       <c r="AR66" t="n">
         <v>-0.8683899613271427</v>
       </c>
+      <c r="AS66" t="n">
+        <v>-0.8694311530214561</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9409,6 +9607,9 @@
       </c>
       <c r="AR67" t="n">
         <v>-0.8509434610546764</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8516691005680944</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2696829158901749</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2705297091504852</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>0.2193684646661764</v>
       </c>
+      <c r="AT3" t="n">
+        <v>0.2190353183124278</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>0.2013349157526092</v>
       </c>
+      <c r="AT4" t="n">
+        <v>0.2006203003971193</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>-0.09126807385096586</v>
       </c>
+      <c r="AT5" t="n">
+        <v>-0.09180629061202512</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>0.1754381730624405</v>
       </c>
+      <c r="AT6" t="n">
+        <v>0.1753583416277023</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.4312098736268402</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.4323580788726625</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.1576845331880992</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.1584635109961337</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>-0.3538224876384651</v>
       </c>
+      <c r="AT9" t="n">
+        <v>-0.3548609468296104</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.3769792708306437</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.3768130389508894</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.2310438150503759</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.2319891922382739</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.1299096116272591</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.1302866927045809</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2213,6 +2249,9 @@
       <c r="AS13" t="n">
         <v>-0.07327645415918832</v>
       </c>
+      <c r="AT13" t="n">
+        <v>-0.07388711007726578</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2350,6 +2389,9 @@
       <c r="AS14" t="n">
         <v>0.01211250079474293</v>
       </c>
+      <c r="AT14" t="n">
+        <v>0.01240157819746524</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2487,6 +2529,9 @@
       <c r="AS15" t="n">
         <v>-0.1441915118722029</v>
       </c>
+      <c r="AT15" t="n">
+        <v>-0.1438535789930941</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2624,6 +2669,9 @@
       <c r="AS16" t="n">
         <v>0.2692253981887502</v>
       </c>
+      <c r="AT16" t="n">
+        <v>0.2701243599350356</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2761,6 +2809,9 @@
       <c r="AS17" t="n">
         <v>0.4056715985380665</v>
       </c>
+      <c r="AT17" t="n">
+        <v>0.4067209696439122</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2898,6 +2949,9 @@
       <c r="AS18" t="n">
         <v>-0.1789627401570612</v>
       </c>
+      <c r="AT18" t="n">
+        <v>-0.1792980657170539</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3035,6 +3089,9 @@
       <c r="AS19" t="n">
         <v>0.2659465708743568</v>
       </c>
+      <c r="AT19" t="n">
+        <v>0.2657561315666206</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3172,6 +3229,9 @@
       <c r="AS20" t="n">
         <v>0.1604027299847716</v>
       </c>
+      <c r="AT20" t="n">
+        <v>0.1612390906267707</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3369,9 @@
       <c r="AS21" t="n">
         <v>0.4654474613709612</v>
       </c>
+      <c r="AT21" t="n">
+        <v>0.4665333822708564</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3446,6 +3509,9 @@
       <c r="AS22" t="n">
         <v>0.2315990200101984</v>
       </c>
+      <c r="AT22" t="n">
+        <v>0.2325007956057597</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3583,6 +3649,9 @@
       <c r="AS23" t="n">
         <v>-0.1968301278725827</v>
       </c>
+      <c r="AT23" t="n">
+        <v>-0.1963875413438039</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3720,6 +3789,9 @@
       <c r="AS24" t="n">
         <v>1.398593946328697</v>
       </c>
+      <c r="AT24" t="n">
+        <v>1.412988541245602</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3857,6 +3929,9 @@
       <c r="AS25" t="n">
         <v>0.3311937439510161</v>
       </c>
+      <c r="AT25" t="n">
+        <v>0.3312760255201993</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3994,6 +4069,9 @@
       <c r="AS26" t="n">
         <v>0.1442561460468711</v>
       </c>
+      <c r="AT26" t="n">
+        <v>0.1444645787065922</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4131,6 +4209,9 @@
       <c r="AS27" t="n">
         <v>0.0534888035510066</v>
       </c>
+      <c r="AT27" t="n">
+        <v>0.05397750419025493</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4268,6 +4349,9 @@
       <c r="AS28" t="n">
         <v>0.8619762145318536</v>
       </c>
+      <c r="AT28" t="n">
+        <v>0.8631245941151419</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4405,6 +4489,9 @@
       <c r="AS29" t="n">
         <v>1.764536227938239</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1.771121118680149</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4542,6 +4629,9 @@
       <c r="AS30" t="n">
         <v>0.6840498932427774</v>
       </c>
+      <c r="AT30" t="n">
+        <v>0.6842811563433353</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4679,6 +4769,9 @@
       <c r="AS31" t="n">
         <v>-0.4265473068569214</v>
       </c>
+      <c r="AT31" t="n">
+        <v>-0.4275182553782204</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4816,6 +4909,9 @@
       <c r="AS32" t="n">
         <v>0.5661008865696791</v>
       </c>
+      <c r="AT32" t="n">
+        <v>0.5662357211651662</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4953,6 +5049,9 @@
       <c r="AS33" t="n">
         <v>0.7761795867304802</v>
       </c>
+      <c r="AT33" t="n">
+        <v>0.7762573561408375</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5090,6 +5189,9 @@
       <c r="AS34" t="n">
         <v>-0.8462271069711202</v>
       </c>
+      <c r="AT34" t="n">
+        <v>-0.8470522256667983</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5227,6 +5329,9 @@
       <c r="AS35" t="n">
         <v>0.8317699688642137</v>
       </c>
+      <c r="AT35" t="n">
+        <v>0.8318634887960453</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5364,6 +5469,9 @@
       <c r="AS36" t="n">
         <v>0.8007051343508028</v>
       </c>
+      <c r="AT36" t="n">
+        <v>0.8005171420465116</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5501,6 +5609,9 @@
       <c r="AS37" t="n">
         <v>0.7671745382562883</v>
       </c>
+      <c r="AT37" t="n">
+        <v>0.7669825038194724</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5638,6 +5749,9 @@
       <c r="AS38" t="n">
         <v>0.664531769646757</v>
       </c>
+      <c r="AT38" t="n">
+        <v>0.6644597995033009</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5775,6 +5889,9 @@
       <c r="AS39" t="n">
         <v>0.6142950812644238</v>
       </c>
+      <c r="AT39" t="n">
+        <v>0.6140758304378979</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5912,6 +6029,9 @@
       <c r="AS40" t="n">
         <v>0.793482377079177</v>
       </c>
+      <c r="AT40" t="n">
+        <v>0.7936255676996908</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6049,6 +6169,9 @@
       <c r="AS41" t="n">
         <v>0.5855772370441978</v>
       </c>
+      <c r="AT41" t="n">
+        <v>0.5854540493683803</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6186,6 +6309,9 @@
       <c r="AS42" t="n">
         <v>0.6559061487073217</v>
       </c>
+      <c r="AT42" t="n">
+        <v>0.6555567030348066</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6323,6 +6449,9 @@
       <c r="AS43" t="n">
         <v>0.6929725037714674</v>
       </c>
+      <c r="AT43" t="n">
+        <v>0.692845254337999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6460,6 +6589,9 @@
       <c r="AS44" t="n">
         <v>0.7176744209801024</v>
       </c>
+      <c r="AT44" t="n">
+        <v>0.7174912442887874</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6597,6 +6729,9 @@
       <c r="AS45" t="n">
         <v>0.736073028571817</v>
       </c>
+      <c r="AT45" t="n">
+        <v>0.7355462324661636</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6734,6 +6869,9 @@
       <c r="AS46" t="n">
         <v>-1.38286927520204</v>
       </c>
+      <c r="AT46" t="n">
+        <v>-1.385220913900238</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6871,6 +7009,9 @@
       <c r="AS47" t="n">
         <v>-1.079882711721057</v>
       </c>
+      <c r="AT47" t="n">
+        <v>-1.081864332675312</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7008,6 +7149,9 @@
       <c r="AS48" t="n">
         <v>-0.9419545272478271</v>
       </c>
+      <c r="AT48" t="n">
+        <v>-0.9441389164120862</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7145,6 +7289,9 @@
       <c r="AS49" t="n">
         <v>-0.6970525083952918</v>
       </c>
+      <c r="AT49" t="n">
+        <v>-0.6988296702833743</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7282,6 +7429,9 @@
       <c r="AS50" t="n">
         <v>-0.1038800533944344</v>
       </c>
+      <c r="AT50" t="n">
+        <v>-0.1048387161007199</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7419,6 +7569,9 @@
       <c r="AS51" t="n">
         <v>-0.9110869821718254</v>
       </c>
+      <c r="AT51" t="n">
+        <v>-0.9130286752269531</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7556,6 +7709,9 @@
       <c r="AS52" t="n">
         <v>-0.9110869821718254</v>
       </c>
+      <c r="AT52" t="n">
+        <v>-0.9130286752269531</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7693,6 +7849,9 @@
       <c r="AS53" t="n">
         <v>-1.219837725605752</v>
       </c>
+      <c r="AT53" t="n">
+        <v>-1.222444819339978</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7830,6 +7989,9 @@
       <c r="AS54" t="n">
         <v>-0.2187672010182267</v>
       </c>
+      <c r="AT54" t="n">
+        <v>-0.2199932406687135</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7967,6 +8129,9 @@
       <c r="AS55" t="n">
         <v>-1.106117689118536</v>
       </c>
+      <c r="AT55" t="n">
+        <v>-1.108192993115789</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8104,6 +8269,9 @@
       <c r="AS56" t="n">
         <v>-0.9698929835429638</v>
       </c>
+      <c r="AT56" t="n">
+        <v>-0.9713895436026204</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8241,6 +8409,9 @@
       <c r="AS57" t="n">
         <v>-1.048259176190087</v>
       </c>
+      <c r="AT57" t="n">
+        <v>-1.049822888035375</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8378,6 +8549,9 @@
       <c r="AS58" t="n">
         <v>-1.187137223124715</v>
       </c>
+      <c r="AT58" t="n">
+        <v>-1.188496397339383</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8515,6 +8689,9 @@
       <c r="AS59" t="n">
         <v>-0.8651712258902542</v>
       </c>
+      <c r="AT59" t="n">
+        <v>-0.8667801977334588</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8652,6 +8829,9 @@
       <c r="AS60" t="n">
         <v>-0.4911178765726191</v>
       </c>
+      <c r="AT60" t="n">
+        <v>-0.4920006967662526</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8789,6 +8969,9 @@
       <c r="AS61" t="n">
         <v>0.3670331611726255</v>
       </c>
+      <c r="AT61" t="n">
+        <v>0.3666632928496973</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8926,6 +9109,9 @@
       <c r="AS62" t="n">
         <v>-1.324318513125021</v>
       </c>
+      <c r="AT62" t="n">
+        <v>-1.32611619391964</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9063,6 +9249,9 @@
       <c r="AS63" t="n">
         <v>-0.6144226426307012</v>
       </c>
+      <c r="AT63" t="n">
+        <v>-0.6156125568834057</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9200,6 +9389,9 @@
       <c r="AS64" t="n">
         <v>-0.9452699244858567</v>
       </c>
+      <c r="AT64" t="n">
+        <v>-0.947274194334754</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9337,6 +9529,9 @@
       <c r="AS65" t="n">
         <v>-0.08848968386644478</v>
       </c>
+      <c r="AT65" t="n">
+        <v>-0.08913790646110754</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9474,6 +9669,9 @@
       <c r="AS66" t="n">
         <v>-0.8694311530214561</v>
       </c>
+      <c r="AT66" t="n">
+        <v>-0.8703957600448761</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9610,6 +9808,9 @@
       </c>
       <c r="AS67" t="n">
         <v>-0.8516691005680944</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8523450124028467</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_9.xlsx
+++ b/predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2705297091504852</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2713008425145775</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>0.2190353183124278</v>
       </c>
+      <c r="AU3" t="n">
+        <v>0.2187729358920145</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>0.2006203003971193</v>
       </c>
+      <c r="AU4" t="n">
+        <v>0.1999874105295374</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>-0.09180629061202512</v>
       </c>
+      <c r="AU5" t="n">
+        <v>-0.09229560201012305</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>0.1753583416277023</v>
       </c>
+      <c r="AU6" t="n">
+        <v>0.1753240324326821</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.4323580788726625</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.4334170360620246</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.1584635109961337</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.1591694856721075</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>-0.3548609468296104</v>
       </c>
+      <c r="AU9" t="n">
+        <v>-0.3557669513815078</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.3768130389508894</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.3766847185762485</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.2319891922382739</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.2328678041388472</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.1302866927045809</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.1305979067610134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2252,6 +2288,9 @@
       <c r="AT13" t="n">
         <v>-0.07388711007726578</v>
       </c>
+      <c r="AU13" t="n">
+        <v>-0.07446084129143836</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2392,6 +2431,9 @@
       <c r="AT14" t="n">
         <v>0.01240157819746524</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0.01278465402035622</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2532,6 +2574,9 @@
       <c r="AT15" t="n">
         <v>-0.1438535789930941</v>
       </c>
+      <c r="AU15" t="n">
+        <v>-0.1434231355361767</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2672,6 +2717,9 @@
       <c r="AT16" t="n">
         <v>0.2701243599350356</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0.2711392238820558</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2812,6 +2860,9 @@
       <c r="AT17" t="n">
         <v>0.4067209696439122</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0.4078027464520492</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2952,6 +3003,9 @@
       <c r="AT18" t="n">
         <v>-0.1792980657170539</v>
       </c>
+      <c r="AU18" t="n">
+        <v>-0.1795917476268451</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3092,6 +3146,9 @@
       <c r="AT19" t="n">
         <v>0.2657561315666206</v>
       </c>
+      <c r="AU19" t="n">
+        <v>0.2656161757773535</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3232,6 +3289,9 @@
       <c r="AT20" t="n">
         <v>0.1612390906267707</v>
       </c>
+      <c r="AU20" t="n">
+        <v>0.1621740222493157</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3372,6 +3432,9 @@
       <c r="AT21" t="n">
         <v>0.4665333822708564</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0.4676444741407337</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3512,6 +3575,9 @@
       <c r="AT22" t="n">
         <v>0.2325007956057597</v>
       </c>
+      <c r="AU22" t="n">
+        <v>0.2334409796792933</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3652,6 +3718,9 @@
       <c r="AT23" t="n">
         <v>-0.1963875413438039</v>
       </c>
+      <c r="AU23" t="n">
+        <v>-0.1959101855153622</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3792,6 +3861,9 @@
       <c r="AT24" t="n">
         <v>1.412988541245602</v>
       </c>
+      <c r="AU24" t="n">
+        <v>1.425442825248811</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3932,6 +4004,9 @@
       <c r="AT25" t="n">
         <v>0.3312760255201993</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0.3313072178461744</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4072,6 +4147,9 @@
       <c r="AT26" t="n">
         <v>0.1444645787065922</v>
       </c>
+      <c r="AU26" t="n">
+        <v>0.1445760985490153</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4212,6 +4290,9 @@
       <c r="AT27" t="n">
         <v>0.05397750419025493</v>
       </c>
+      <c r="AU27" t="n">
+        <v>0.05435939226169388</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4352,6 +4433,9 @@
       <c r="AT28" t="n">
         <v>0.8631245941151419</v>
       </c>
+      <c r="AU28" t="n">
+        <v>0.8641041701441531</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4492,6 +4576,9 @@
       <c r="AT29" t="n">
         <v>1.771121118680149</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1.776433452619723</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4632,6 +4719,9 @@
       <c r="AT30" t="n">
         <v>0.6842811563433353</v>
       </c>
+      <c r="AU30" t="n">
+        <v>0.6844028986802443</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4772,6 +4862,9 @@
       <c r="AT31" t="n">
         <v>-0.4275182553782204</v>
       </c>
+      <c r="AU31" t="n">
+        <v>-0.4285242546574201</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4912,6 +5005,9 @@
       <c r="AT32" t="n">
         <v>0.5662357211651662</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0.5662620952389444</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5052,6 +5148,9 @@
       <c r="AT33" t="n">
         <v>0.7762573561408375</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0.7762691722185097</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5192,6 +5291,9 @@
       <c r="AT34" t="n">
         <v>-0.8470522256667983</v>
       </c>
+      <c r="AU34" t="n">
+        <v>-0.8479192601337211</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5332,6 +5434,9 @@
       <c r="AT35" t="n">
         <v>0.8318634887960453</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0.8319161748621188</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5472,6 +5577,9 @@
       <c r="AT36" t="n">
         <v>0.8005171420465116</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0.8002930149885502</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5612,6 +5720,9 @@
       <c r="AT37" t="n">
         <v>0.7669825038194724</v>
       </c>
+      <c r="AU37" t="n">
+        <v>0.7667518404478941</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5752,6 +5863,9 @@
       <c r="AT38" t="n">
         <v>0.6644597995033009</v>
       </c>
+      <c r="AU38" t="n">
+        <v>0.6643568970828346</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5892,6 +6006,9 @@
       <c r="AT39" t="n">
         <v>0.6140758304378979</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0.613844741536305</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6032,6 +6149,9 @@
       <c r="AT40" t="n">
         <v>0.7936255676996908</v>
       </c>
+      <c r="AU40" t="n">
+        <v>0.7937268345205906</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6172,6 +6292,9 @@
       <c r="AT41" t="n">
         <v>0.5854540493683803</v>
       </c>
+      <c r="AU41" t="n">
+        <v>0.5853345215068427</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6435,9 @@
       <c r="AT42" t="n">
         <v>0.6555567030348066</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0.6551598345524891</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6452,6 +6578,9 @@
       <c r="AT43" t="n">
         <v>0.692845254337999</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0.6926984092372985</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6592,6 +6721,9 @@
       <c r="AT44" t="n">
         <v>0.7174912442887874</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0.7172972565083587</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6732,6 +6864,9 @@
       <c r="AT45" t="n">
         <v>0.7355462324661636</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0.7349916261276777</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6872,6 +7007,9 @@
       <c r="AT46" t="n">
         <v>-1.385220913900238</v>
       </c>
+      <c r="AU46" t="n">
+        <v>-1.38747767396963</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7012,6 +7150,9 @@
       <c r="AT47" t="n">
         <v>-1.081864332675312</v>
       </c>
+      <c r="AU47" t="n">
+        <v>-1.083769336869037</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7152,6 +7293,9 @@
       <c r="AT48" t="n">
         <v>-0.9441389164120862</v>
       </c>
+      <c r="AU48" t="n">
+        <v>-0.9462307412821178</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7292,6 +7436,9 @@
       <c r="AT49" t="n">
         <v>-0.6988296702833743</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-0.7005303116536171</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7432,6 +7579,9 @@
       <c r="AT50" t="n">
         <v>-0.1048387161007199</v>
       </c>
+      <c r="AU50" t="n">
+        <v>-0.1057615708349066</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7572,6 +7722,9 @@
       <c r="AT51" t="n">
         <v>-0.9130286752269531</v>
       </c>
+      <c r="AU51" t="n">
+        <v>-0.9148941424736103</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7712,6 +7865,9 @@
       <c r="AT52" t="n">
         <v>-0.9130286752269531</v>
       </c>
+      <c r="AU52" t="n">
+        <v>-0.9148941424736103</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7852,6 +8008,9 @@
       <c r="AT53" t="n">
         <v>-1.222444819339978</v>
       </c>
+      <c r="AU53" t="n">
+        <v>-1.224945073443175</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7992,6 +8151,9 @@
       <c r="AT54" t="n">
         <v>-0.2199932406687135</v>
       </c>
+      <c r="AU54" t="n">
+        <v>-0.2211661200847539</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8132,6 +8294,9 @@
       <c r="AT55" t="n">
         <v>-1.108192993115789</v>
       </c>
+      <c r="AU55" t="n">
+        <v>-1.110188182330241</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8272,6 +8437,9 @@
       <c r="AT56" t="n">
         <v>-0.9713895436026204</v>
       </c>
+      <c r="AU56" t="n">
+        <v>-0.9728364991548515</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8412,6 +8580,9 @@
       <c r="AT57" t="n">
         <v>-1.049822888035375</v>
       </c>
+      <c r="AU57" t="n">
+        <v>-1.051289271381812</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8552,6 +8723,9 @@
       <c r="AT58" t="n">
         <v>-1.188496397339383</v>
       </c>
+      <c r="AU58" t="n">
+        <v>-1.189763697102135</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8692,6 +8866,9 @@
       <c r="AT59" t="n">
         <v>-0.8667801977334588</v>
       </c>
+      <c r="AU59" t="n">
+        <v>-0.8682978345783201</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8832,6 +9009,9 @@
       <c r="AT60" t="n">
         <v>-0.4920006967662526</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-0.4928123379229453</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8972,6 +9152,9 @@
       <c r="AT61" t="n">
         <v>0.3666632928496973</v>
       </c>
+      <c r="AU61" t="n">
+        <v>0.366316289215071</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9112,6 +9295,9 @@
       <c r="AT62" t="n">
         <v>-1.32611619391964</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-1.32780160623921</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9252,6 +9438,9 @@
       <c r="AT63" t="n">
         <v>-0.6156125568834057</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-0.6167031917371071</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9392,6 +9581,9 @@
       <c r="AT64" t="n">
         <v>-0.947274194334754</v>
       </c>
+      <c r="AU64" t="n">
+        <v>-0.9491441139049024</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9532,6 +9724,9 @@
       <c r="AT65" t="n">
         <v>-0.08913790646110754</v>
       </c>
+      <c r="AU65" t="n">
+        <v>-0.08973407127436334</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9672,6 +9867,9 @@
       <c r="AT66" t="n">
         <v>-0.8703957600448761</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-0.8712978952709369</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9811,6 +10009,9 @@
       </c>
       <c r="AT67" t="n">
         <v>-0.8523450124028467</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8529858341543513</v>
       </c>
     </row>
   </sheetData>
